--- a/Xcom2ClassManager/XComAbilityList.xlsx
+++ b/Xcom2ClassManager/XComAbilityList.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="1133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="1136">
   <si>
     <t>Name</t>
   </si>
@@ -3418,6 +3418,15 @@
   </si>
   <si>
     <t>If you hit with a melee attack during your turn, gain a bonus move.</t>
+  </si>
+  <si>
+    <t>ShadowOps_ShotgunFinesse</t>
+  </si>
+  <si>
+    <t>Shotgun Finesse</t>
+  </si>
+  <si>
+    <t>Gain &lt;Ability:+Crit/&gt; Crit chance and &lt;Ability:+Mobility/&gt; Mobility while equipped with a shotgun.</t>
   </si>
 </sst>
 </file>
@@ -3760,7 +3769,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G387"/>
+  <dimension ref="A1:G388"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
       <selection activeCell="F76" sqref="F76"/>
@@ -10572,6 +10581,23 @@
       </c>
       <c r="E387" s="0" t="s">
         <v>259</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="0" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B388" s="0" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C388" s="0" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D388" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E388" s="0" t="s">
+        <v>793</v>
       </c>
     </row>
   </sheetData>

--- a/Xcom2ClassManager/XComAbilityList.xlsx
+++ b/Xcom2ClassManager/XComAbilityList.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="1136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="1146">
   <si>
     <t>Name</t>
   </si>
@@ -3427,6 +3427,36 @@
   </si>
   <si>
     <t>Gain &lt;Ability:+Crit/&gt; Crit chance and &lt;Ability:+Mobility/&gt; Mobility while equipped with a shotgun.</t>
+  </si>
+  <si>
+    <t>DoubleTap2</t>
+  </si>
+  <si>
+    <t>Activate to fire a standard shot and gain a second action restricted to an additional shot or overwatching.</t>
+  </si>
+  <si>
+    <t>QuickStudy</t>
+  </si>
+  <si>
+    <t>Quick Study</t>
+  </si>
+  <si>
+    <t>Learn officer and AWC bonus abilities in half the time.</t>
+  </si>
+  <si>
+    <t>RescueProtocol</t>
+  </si>
+  <si>
+    <t>Rescue Protocol</t>
+  </si>
+  <si>
+    <t>Use your Gremlin to grant a movement action to an ally.</t>
+  </si>
+  <si>
+    <t>Solace_LW</t>
+  </si>
+  <si>
+    <t>The Psi Operative may immediately extinguish mental impairments for a squadmate.</t>
   </si>
 </sst>
 </file>
@@ -3769,7 +3799,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G388"/>
+  <dimension ref="A1:G392"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
       <selection activeCell="F76" sqref="F76"/>
@@ -10598,6 +10628,74 @@
       </c>
       <c r="E388" s="0" t="s">
         <v>793</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="0" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B389" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="C389" s="0" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D389" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E389" s="0" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="0" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B390" s="0" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C390" s="0" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D390" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E390" s="0" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="0" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B391" s="0" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C391" s="0" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D391" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E391" s="0" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="0" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B392" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="C392" s="0" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D392" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E392" s="0" t="s">
+        <v>259</v>
       </c>
     </row>
   </sheetData>

--- a/Xcom2ClassManager/XComAbilityList.xlsx
+++ b/Xcom2ClassManager/XComAbilityList.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="1146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1417" uniqueCount="1417">
   <si>
     <t>Name</t>
   </si>
@@ -3457,6 +3457,819 @@
   </si>
   <si>
     <t>The Psi Operative may immediately extinguish mental impairments for a squadmate.</t>
+  </si>
+  <si>
+    <t>TankLW2AbsorptionField</t>
+  </si>
+  <si>
+    <t>Absorption Field</t>
+  </si>
+  <si>
+    <t>The unit is surrounded by a damage absorbing field that immediately lowers incoming damage for the unit itself and any allies inside the field.</t>
+  </si>
+  <si>
+    <t>LW2 Tank</t>
+  </si>
+  <si>
+    <t>TankLW2AdvancedStorage</t>
+  </si>
+  <si>
+    <t>Advanced Storage</t>
+  </si>
+  <si>
+    <t>You can use PROTECTION PROTOCOL also on other units.</t>
+  </si>
+  <si>
+    <t>TankLW2BallisticVests</t>
+  </si>
+  <si>
+    <t>Ballistic Vests</t>
+  </si>
+  <si>
+    <t>Gain +1 extra point of armor for each vest or plating you equipp on this soldier.</t>
+  </si>
+  <si>
+    <t>TankLW2Challenge</t>
+  </si>
+  <si>
+    <t>Challenge</t>
+  </si>
+  <si>
+    <t>Challenge a target and make it to your main enemy. Soldiers with this ability gain bonuses when attacking the challenged target. Soldiers with this ability are motivating themselves and nearby allies temporarily, if the challenged enemy was killed.</t>
+  </si>
+  <si>
+    <t>TankLW2CombatDrugs</t>
+  </si>
+  <si>
+    <t>Grants 1 free overdrive serum item to your inventory.</t>
+  </si>
+  <si>
+    <t>TankLW2Decoy</t>
+  </si>
+  <si>
+    <t>Decoy</t>
+  </si>
+  <si>
+    <t>Grants 1 free mimic beacon item to your inventory.</t>
+  </si>
+  <si>
+    <t>TankLW2EverSafe</t>
+  </si>
+  <si>
+    <t>Ever Safe</t>
+  </si>
+  <si>
+    <t>If you spend all of your actions on moves, you are granted an automatic PROTECTION PROTOCOL at the end of the turn.</t>
+  </si>
+  <si>
+    <t>TankLW2HereIAm</t>
+  </si>
+  <si>
+    <t>Here I Am</t>
+  </si>
+  <si>
+    <t>Try to make this soldier a main target. Attacks against this unit gain +60% aim chance, but suffer a -20% penalty to critical hit chances for one turn. Warning: probably garanteed to hit.</t>
+  </si>
+  <si>
+    <t>TankLW2LastChance</t>
+  </si>
+  <si>
+    <t>Nano Stabilizer</t>
+  </si>
+  <si>
+    <t>Once per Mission, if the tank takes lethal damage, instead of dying, the tanklin immediately activates PROTECTION PROTOCOL and heals the unit to 5 HP.</t>
+  </si>
+  <si>
+    <t>TankLW2PreFire</t>
+  </si>
+  <si>
+    <t>Pre Fire</t>
+  </si>
+  <si>
+    <t>When targeted by enemy fire, automatically fire a preemptive reaction shot with your primary weapon once per turn.</t>
+  </si>
+  <si>
+    <t>TankLW2ProtectionProtocolAblative</t>
+  </si>
+  <si>
+    <t>Protection Protocol</t>
+  </si>
+  <si>
+    <t>Command your tanklin to activate an energy shield. It grants the target different defensive bonuses.</t>
+  </si>
+  <si>
+    <t>TankLW2ReflectionField</t>
+  </si>
+  <si>
+    <t>Reflection Field</t>
+  </si>
+  <si>
+    <t>The unit is surrounded by a reflecting field. Any incoming damage from shots has a 25% chance to become reflected instead of hiting the unit.</t>
+  </si>
+  <si>
+    <t>TankLW2Revenge</t>
+  </si>
+  <si>
+    <t>Revenge</t>
+  </si>
+  <si>
+    <t>When targeted by enemy fire, automatically fire back with your primary weapon once per turn.</t>
+  </si>
+  <si>
+    <t>TankLW2ShieldHit</t>
+  </si>
+  <si>
+    <t>Self Defense Uplink</t>
+  </si>
+  <si>
+    <t>Tanks gain free melee attacks on any enemies that enter or attack from melee range as long as PROTECTION PROTOCOL is active.</t>
+  </si>
+  <si>
+    <t>TankLW2ShockAbsorbantArmor</t>
+  </si>
+  <si>
+    <t>Shock Absorbant Armor</t>
+  </si>
+  <si>
+    <t>Damage received within 2 tiles radius is reduced.</t>
+  </si>
+  <si>
+    <t>TankLW2StandBy</t>
+  </si>
+  <si>
+    <t>Standby</t>
+  </si>
+  <si>
+    <t>All reaction hits of this soldier can critically hit. The unit also has +10% aim and +10% crit chance as well as +1 additional base damage on all reaction shots and other reflex abilities.</t>
+  </si>
+  <si>
+    <t>TankLW2Steadfast</t>
+  </si>
+  <si>
+    <t>Steadfast</t>
+  </si>
+  <si>
+    <t>Never panic as a result of getting wounded, or allies getting killed. Also gain immunity to stun.</t>
+  </si>
+  <si>
+    <t>TankLW2SurvivalTraining</t>
+  </si>
+  <si>
+    <t>Survival Training</t>
+  </si>
+  <si>
+    <t>Heal immediatly +5 HP, fire, acid, poison and hunker down. Also reduces wound recovery time for this unit significantly.</t>
+  </si>
+  <si>
+    <t>TankLW2Suspension</t>
+  </si>
+  <si>
+    <t>Suspension</t>
+  </si>
+  <si>
+    <t>Incoming damage from reaction attacks is reduced.</t>
+  </si>
+  <si>
+    <t>TankLW2TeamShield</t>
+  </si>
+  <si>
+    <t>Team Shield</t>
+  </si>
+  <si>
+    <t>Activate an area of effect energy shield. It grants this unit and teammates ablative HP.</t>
+  </si>
+  <si>
+    <t>TankLW2WarningShot</t>
+  </si>
+  <si>
+    <t>Warning Shot</t>
+  </si>
+  <si>
+    <t>A special shot with a high chance to apply panic on your target, whether or not it hits or misses but a successful hit will only graze the target.</t>
+  </si>
+  <si>
+    <t>Op_BoundingFire</t>
+  </si>
+  <si>
+    <t>Bounding Fire</t>
+  </si>
+  <si>
+    <t>Any shot taken as your second action after moving as your first confers a +10 aim bonus.</t>
+  </si>
+  <si>
+    <t>LW2 Operator</t>
+  </si>
+  <si>
+    <t>Op_BreachAndClear</t>
+  </si>
+  <si>
+    <t>Flash Out</t>
+  </si>
+  <si>
+    <t>Activate this ability before throwing or launching a flashbang grenade, and the throw will not cost an action.</t>
+  </si>
+  <si>
+    <t>Op_Ghost</t>
+  </si>
+  <si>
+    <t>Ghost</t>
+  </si>
+  <si>
+    <t>While concealed, enemy detection range against this unit is half that of a normal soldier.</t>
+  </si>
+  <si>
+    <t>Op_HardYards</t>
+  </si>
+  <si>
+    <t>Hard Yards</t>
+  </si>
+  <si>
+    <t>Activate this ability to shrug off 75% of reaction fire damage for the rest of your turn. 2 turn cooldown.</t>
+  </si>
+  <si>
+    <t>Op_HiddenKiller</t>
+  </si>
+  <si>
+    <t>Hidden Killer</t>
+  </si>
+  <si>
+    <t>While concealed or flanking your target, you deal +2 damage with your primary weapon. Passive.</t>
+  </si>
+  <si>
+    <t>Op_HoldPosition</t>
+  </si>
+  <si>
+    <t>Hold Position</t>
+  </si>
+  <si>
+    <t>From full cover take a reaction shot against any enemy that moves or attacks within your vision until you run out of ammo. 4 turn cooldown.</t>
+  </si>
+  <si>
+    <t>Op_LethalForce</t>
+  </si>
+  <si>
+    <t>Lethal Force</t>
+  </si>
+  <si>
+    <t>You do two additional points of base damage with your primary weapon to targets within 8 tiles. Passive.</t>
+  </si>
+  <si>
+    <t>Op_NoPrisoners</t>
+  </si>
+  <si>
+    <t>No Prisoners</t>
+  </si>
+  <si>
+    <t>You deal an additional +2 damage to stunned or disorientated enemies with your primary weapon.</t>
+  </si>
+  <si>
+    <t>Op_Raptor</t>
+  </si>
+  <si>
+    <t>Raptor</t>
+  </si>
+  <si>
+    <t>You get an additional +25 Crit chance against targets at a lower elevation. Passive.</t>
+  </si>
+  <si>
+    <t>Op_Sentry</t>
+  </si>
+  <si>
+    <t>Sentry</t>
+  </si>
+  <si>
+    <t>Grants +10 Aim and Covering Fire on Overwatch and allows overwatch shots to do critical damage. Passive.</t>
+  </si>
+  <si>
+    <t>Op_SettledShot</t>
+  </si>
+  <si>
+    <t>Settled Shot</t>
+  </si>
+  <si>
+    <t>Special shot that requires both action points but has a +25 crit chance and deals +3 damage on succesful critical hits. 2 turn cooldown.</t>
+  </si>
+  <si>
+    <t>Op_Stalker</t>
+  </si>
+  <si>
+    <t>Wraith</t>
+  </si>
+  <si>
+    <t>Whenever you kill an enemy, critical hits will restore concealment.</t>
+  </si>
+  <si>
+    <t>Op_StealthShot</t>
+  </si>
+  <si>
+    <t>Stealth Shot</t>
+  </si>
+  <si>
+    <t>Fire a shot whilst concealed with a +50 crit chance bonus. If you kill your target maintain concealment. 5 turn cooldown.</t>
+  </si>
+  <si>
+    <t>Op_TargetDown</t>
+  </si>
+  <si>
+    <t>Breach And Clear</t>
+  </si>
+  <si>
+    <t>When this ability is activated your actions will be refunded each time a stunned or disorientated enemy is killed. 4 turn cooldown.</t>
+  </si>
+  <si>
+    <t>Op_TargetDown2</t>
+  </si>
+  <si>
+    <t>Target Down</t>
+  </si>
+  <si>
+    <t>When you get a kill, you gain +20 defence until the end of the next alien turn. Passive.</t>
+  </si>
+  <si>
+    <t>Op_Wraith</t>
+  </si>
+  <si>
+    <t>Shadow</t>
+  </si>
+  <si>
+    <t>Gain +3 Mobility and +10 Aim while concealed. Passive.</t>
+  </si>
+  <si>
+    <t>TF_Ambush</t>
+  </si>
+  <si>
+    <t>Ambush Expert</t>
+  </si>
+  <si>
+    <t>Activate this ability to reduce enemy detection range against you by 60% for the rest of your turn. Five-turn cooldown.</t>
+  </si>
+  <si>
+    <t>LW2 Jackal</t>
+  </si>
+  <si>
+    <t>TF_Assassin</t>
+  </si>
+  <si>
+    <t>When you kill a flanked or uncovered enemy with your primary weapon, you gain concealment.</t>
+  </si>
+  <si>
+    <t>TF_BulletShred</t>
+  </si>
+  <si>
+    <t>Shatter Cartridges</t>
+  </si>
+  <si>
+    <t>A ferocious sawed-off shotgun attack dealing critical damage and ensuring that the target takes an additional +3 damage from all attacks in the future. Uses 2 ammo and has a 3 turn cooldown.</t>
+  </si>
+  <si>
+    <t>TF_CrowdControl</t>
+  </si>
+  <si>
+    <t>Crowd Control</t>
+  </si>
+  <si>
+    <t>Special shot for sawed-off shotguns only: Fire a short-range cone-based attack at nearby targets. Three-turn cooldown.</t>
+  </si>
+  <si>
+    <t>TF_GraphitePlates</t>
+  </si>
+  <si>
+    <t>Heavy Infantry</t>
+  </si>
+  <si>
+    <t>The Jackal is outfitted with graphite armour plates gaining +2 Armor at the expense of -1 mobility.</t>
+  </si>
+  <si>
+    <t>TF_HardYards</t>
+  </si>
+  <si>
+    <t>Activate this ability to allow the Jackal to shrug off reaction fire for half damage for the rest of your turn. 2 turn cooldown.</t>
+  </si>
+  <si>
+    <t>TF_HipFire</t>
+  </si>
+  <si>
+    <t>A free shot with your primary weapon at a small penalty to aim. 3 Turn Cooldown.</t>
+  </si>
+  <si>
+    <t>TF_LethalForce</t>
+  </si>
+  <si>
+    <t>You do two additional points of base damage with your primary weapon to targets within 8 tiles.</t>
+  </si>
+  <si>
+    <t>TF_Opportunist</t>
+  </si>
+  <si>
+    <t>You get an additional +10 to aim and +20 Crit chance against flanked targets.</t>
+  </si>
+  <si>
+    <t>TF_Ruthless</t>
+  </si>
+  <si>
+    <t>Ruthless</t>
+  </si>
+  <si>
+    <t>Your sawed-off shotgun attacks are significantly more accurate.</t>
+  </si>
+  <si>
+    <t>TF_StayingPower</t>
+  </si>
+  <si>
+    <t>Staying Power</t>
+  </si>
+  <si>
+    <t>Permanently gain 4 HP and 20 will.</t>
+  </si>
+  <si>
+    <t>TF_Tempest</t>
+  </si>
+  <si>
+    <t>Tempest</t>
+  </si>
+  <si>
+    <t>The Jackal fires their weapon at every visible enemy within 10 tiles. 4 turn cooldown, 2 ammo cost.</t>
+  </si>
+  <si>
+    <t>Op_AgainstTheOdds</t>
+  </si>
+  <si>
+    <t>Gain +3 Aim per enemy the squad can see up to a maximum of +15.</t>
+  </si>
+  <si>
+    <t>LW2 Jaegar</t>
+  </si>
+  <si>
+    <t>Op_Brutestrength</t>
+  </si>
+  <si>
+    <t>Brute Strength</t>
+  </si>
+  <si>
+    <t>All melee attacks deal +2 extra damage and have +10 Aim.</t>
+  </si>
+  <si>
+    <t>Op_HeadShot</t>
+  </si>
+  <si>
+    <t>Headshot</t>
+  </si>
+  <si>
+    <t>Special shot that has +100 crit chance and deals +5 damage on crit. 4 Turn cooldown.</t>
+  </si>
+  <si>
+    <t>Op_Marksman</t>
+  </si>
+  <si>
+    <t>Designated Marksman</t>
+  </si>
+  <si>
+    <t>You get +20 Aim against targets in full cover.</t>
+  </si>
+  <si>
+    <t>Op_Mountaineer</t>
+  </si>
+  <si>
+    <t>Mountaineer</t>
+  </si>
+  <si>
+    <t>You get an additional +10 Defense against targets at lower elevation.</t>
+  </si>
+  <si>
+    <t>Op_Pointman</t>
+  </si>
+  <si>
+    <t>First Contact</t>
+  </si>
+  <si>
+    <t>Each time an enemy is revealed there is a 25% chance to take a free overwatch shot as long as you have enough ammo. Will trigger once per enemy.</t>
+  </si>
+  <si>
+    <t>Op_QuickTarget</t>
+  </si>
+  <si>
+    <t>Lookout</t>
+  </si>
+  <si>
+    <t>Increase the chance of First Contact triggering on each revealed enemy from 25% to 50%.</t>
+  </si>
+  <si>
+    <t>Op_Skirmisher</t>
+  </si>
+  <si>
+    <t>Op_Spearhead</t>
+  </si>
+  <si>
+    <t>Spearhead</t>
+  </si>
+  <si>
+    <t>Gain 25% bonus damage against enemies who are hit by First Contact fire.</t>
+  </si>
+  <si>
+    <t>Op_Stamina</t>
+  </si>
+  <si>
+    <t>Stamina</t>
+  </si>
+  <si>
+    <t>Intense conditioning confers +3 mobility.</t>
+  </si>
+  <si>
+    <t>Op_Tempest</t>
+  </si>
+  <si>
+    <t>Tempest Fire</t>
+  </si>
+  <si>
+    <t>Fire your weapon at every visible enemy within 10 tiles. 4 turn cooldown, 3 ammo cost.</t>
+  </si>
+  <si>
+    <t>Op_TwistTheBlade</t>
+  </si>
+  <si>
+    <t>Twist the Blade</t>
+  </si>
+  <si>
+    <t>A ferocious melee attack dealing critical damage and ensuring that the target takes an additional +3 damage from all attacks in the future.</t>
+  </si>
+  <si>
+    <t>Lucu_Sniper_BallisticsExpert</t>
+  </si>
+  <si>
+    <t>Ballistics Expert</t>
+  </si>
+  <si>
+    <t>Reduced aim penalties for Squadsight at long ranges.</t>
+  </si>
+  <si>
+    <t>Lucubration's Sniper Class</t>
+  </si>
+  <si>
+    <t>Lucu_Sniper_CoverTarget</t>
+  </si>
+  <si>
+    <t>Cover Target</t>
+  </si>
+  <si>
+    <t>Overwatch a single target with Covering Fire. This attack may critically hit.</t>
+  </si>
+  <si>
+    <t>Lucu_Sniper_FollowUp</t>
+  </si>
+  <si>
+    <t>Follow-Up</t>
+  </si>
+  <si>
+    <t>Once per turn, if you hit with an attack but do not kill your target, you gain a bonus Follow-Up attack against the same target.</t>
+  </si>
+  <si>
+    <t>Lucu_Sniper_Hide</t>
+  </si>
+  <si>
+    <t>Hide</t>
+  </si>
+  <si>
+    <t>While Set Up, you may enter concealment if you did not attack last turn. This concealment is lost if you move or attack. Your attacks from concealment gain +20 crit.</t>
+  </si>
+  <si>
+    <t>Lucu_Sniper_InTheZone</t>
+  </si>
+  <si>
+    <t>In the Zone</t>
+  </si>
+  <si>
+    <t>Killing a flanked or uncovered target grants 1 bonus attack.</t>
+  </si>
+  <si>
+    <t>Lucu_Sniper_LowProfile</t>
+  </si>
+  <si>
+    <t>Treat low cover as high cover.</t>
+  </si>
+  <si>
+    <t>Lucu_Sniper_PrecisionShot</t>
+  </si>
+  <si>
+    <t>Fire a shot that does +1/+2/+3 damage and has +30 crit. 2 turn cooldown.</t>
+  </si>
+  <si>
+    <t>Lucu_Sniper_Relocation</t>
+  </si>
+  <si>
+    <t>Relocation</t>
+  </si>
+  <si>
+    <t>Once per turn, if you hit a target with an attack, gain 1 bonus move. After triggering Relocation, you may move without ending Set Up until the end of your turn.</t>
+  </si>
+  <si>
+    <t>Lucu_Sniper_SabotRound</t>
+  </si>
+  <si>
+    <t>Sabot Round</t>
+  </si>
+  <si>
+    <t>Fire a shot that penetrates obstacles and damages enemies in a line. Ignores cover and 2/4/6 armor on targets. 2 ammo. 4 turn cooldown.</t>
+  </si>
+  <si>
+    <t>Lucu_Sniper_SetUp</t>
+  </si>
+  <si>
+    <t>Set Up</t>
+  </si>
+  <si>
+    <t>You gain Squadsight, but you only gain 1 action point per turn. Your remaining actions may only be used to move this turn. Lasts until you move on following turns.</t>
+  </si>
+  <si>
+    <t>Lucu_Sniper_Sharpshooter</t>
+  </si>
+  <si>
+    <t>Sharpshooter</t>
+  </si>
+  <si>
+    <t>Treat enemies' high cover as low cover for aim purposes.</t>
+  </si>
+  <si>
+    <t>Lucu_Sniper_SniperTraining</t>
+  </si>
+  <si>
+    <t>Sniper Training</t>
+  </si>
+  <si>
+    <t>You may fire sniper rifles for only 1 action point, but with a -15 aim penalty if fired after moving or attacking.</t>
+  </si>
+  <si>
+    <t>Lucu_Sniper_TargetLeading</t>
+  </si>
+  <si>
+    <t>Target Leading</t>
+  </si>
+  <si>
+    <t>You gain +20 aim on reaction fire shots. Enemies suffer -20 dodge against your attacks.</t>
+  </si>
+  <si>
+    <t>Lucu_Sniper_VitalPointTargeting</t>
+  </si>
+  <si>
+    <t>You gain +2/+3/+4 damage with your primary weapon.</t>
+  </si>
+  <si>
+    <t>Lucu_Sniper_ZeroIn</t>
+  </si>
+  <si>
+    <t>You gain +10 aim and +10 crit on your first attack if you did not move last turn. This bonus is lost if you move.</t>
+  </si>
+  <si>
+    <t>BackStabber</t>
+  </si>
+  <si>
+    <t>Backstabber</t>
+  </si>
+  <si>
+    <t>Reduces the cooldown for SilentTakedown by 1 and adds 2 Bonus Damage for Combat Knives.</t>
+  </si>
+  <si>
+    <t>SpecOps Combat Knives</t>
+  </si>
+  <si>
+    <t>Hailstorm</t>
+  </si>
+  <si>
+    <t>Hail Storm</t>
+  </si>
+  <si>
+    <t>Throw three knives at the same target.</t>
+  </si>
+  <si>
+    <t>KnifeJuggler</t>
+  </si>
+  <si>
+    <t>Knife Juggler</t>
+  </si>
+  <si>
+    <t>+ 1 Bonus Damage for the throwing knives and +10 aim when using throwing knives. Also provides one additional charge for the utility throwing knives.</t>
+  </si>
+  <si>
+    <t>ReturnThrow</t>
+  </si>
+  <si>
+    <t>Return Throw</t>
+  </si>
+  <si>
+    <t>When targeted by enemy fire, automatically throw a knife back once per turn.</t>
+  </si>
+  <si>
+    <t>ThrowingKnifeFaceoff</t>
+  </si>
+  <si>
+    <t>House of 1000 Daggers</t>
+  </si>
+  <si>
+    <t>Throw a knife at every visible enemy.</t>
+  </si>
+  <si>
+    <t>ThrowingKnifeQuickdraw</t>
+  </si>
+  <si>
+    <t>Throwing a knive with your first action no longer ends your turn.</t>
+  </si>
+  <si>
+    <t>DangerSense</t>
+  </si>
+  <si>
+    <t>Danger Sense</t>
+  </si>
+  <si>
+    <t>You should be calm outside, but keep your mind alert and prepared. The Samurais keen danger sense tracks movement 20 meters around him. He cannot be surprised be faceless or burrowed chryssalids.</t>
+  </si>
+  <si>
+    <t>LW2 Samurai</t>
+  </si>
+  <si>
+    <t>DragonStrike</t>
+  </si>
+  <si>
+    <t>Dragon Strike</t>
+  </si>
+  <si>
+    <t>Reason will not decide at last; the sword will decide! Unleash a terrible strike upon your enemy, that does aoe damage and can disorient survivers</t>
+  </si>
+  <si>
+    <t>HawkEye</t>
+  </si>
+  <si>
+    <t>Hawkeye</t>
+  </si>
+  <si>
+    <t>According to what one of the elders said, taking an enemy on the battlefield is like a hawk taking a bird. &lt;br/&gt;Even though it enters into the midst of a thousand of them, it gives no attention to any bird than the one it first marked.&lt;br/&gt;Grants +15 critical hit chance and +3 critical damage for melee attacks</t>
+  </si>
+  <si>
+    <t>SamuraiCoupDeGrace</t>
+  </si>
+  <si>
+    <t>SamuraiCutthroat</t>
+  </si>
+  <si>
+    <t>SamuraiFrenzy</t>
+  </si>
+  <si>
+    <t>Shigurui</t>
+  </si>
+  <si>
+    <t>Even if one's head were to be suddenly cut off, he should be able to do one more action with certainty. With martial valor, if one becomes like a revengeful ghost and shows great determination, though his head is cut off, he should not die.&lt;br/&gt;When the Samurai is wounded in battle he enters a death frenzy state and gets 1 additional action point, +80 dodge and +50 crit chance in melee for 2 rounds.</t>
+  </si>
+  <si>
+    <t>SamuraiLightningReflexes_LW</t>
+  </si>
+  <si>
+    <t>The hit chance of reaction fire against this unit is reduced by 90 percent for the first shot, and by 70 percent for additional shots.</t>
+  </si>
+  <si>
+    <t>Shinigami</t>
+  </si>
+  <si>
+    <t>\"Today i become death\" Our scientists are not entirely sure why the Samurai is so much faster than our regular soldiers. They say its a psyonic ability that absorbs the energy of fallen. Each time you kill a living target in melee collect soul. Every two souls grants you one charge of shinigami to boost your AP. &lt;br/&gt;For every 10 souls you collect in total you gain +1 critical chance and for every 20 souls +1 critical damage (melee only, based on overall melee killcount from all battles since shinigami is added)</t>
+  </si>
+  <si>
+    <t>TrainingDiscipline</t>
+  </si>
+  <si>
+    <t>Training Discipline</t>
+  </si>
+  <si>
+    <t>&lt;i&gt;True strength is the flower of Wisdom, but its seed is action.&lt;i/&gt;&lt;br/&gt;The Samurais relentless training provides +3 mobilty and +20 dodge.</t>
+  </si>
+  <si>
+    <t>Unstoppable</t>
+  </si>
+  <si>
+    <t>In the words of the ancients, one should make his decision within the space of seven breaths.&lt;br/&gt;It is a matter of being determined and having the spirit to break through to the other side.&lt;br/&gt;Melee attacks never graze</t>
+  </si>
+  <si>
+    <t>WayOfTheSamurai</t>
+  </si>
+  <si>
+    <t>Way of the Samurai</t>
+  </si>
+  <si>
+    <t>The Way of the Samurai is found in death. Meditation on inevitable death should be performed daily.&lt;br/&gt;The intensive swordtraining adds +3 damage and +10 hit chance with melee weapons.</t>
+  </si>
+  <si>
+    <t>WhirlwindStrike</t>
+  </si>
+  <si>
+    <t>Whirlwind Strike</t>
+  </si>
+  <si>
+    <t>The Way of the Samurai is one of immediacy, and it is best to dash in headlong.&lt;br/&gt;Perfom two slashes at the target. Each has an aim penalty of -15.&lt;br/&gt;No cooldown.</t>
+  </si>
+  <si>
+    <t>Yamabushi</t>
+  </si>
+  <si>
+    <t>Yamabushi Heritage</t>
+  </si>
+  <si>
+    <t>&lt;i&gt;The Shugendo disciples search for spiritual, mystical, or supernatural powers gained through asceticism&lt;i/&gt;You are strong as the montain and gain +1 armor, +15 defense and can regenerate 2 HP per round, max to 6 HP.</t>
   </si>
 </sst>
 </file>
@@ -3799,7 +4612,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G392"/>
+  <dimension ref="A1:G487"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
       <selection activeCell="F76" sqref="F76"/>
@@ -10696,6 +11509,1621 @@
       </c>
       <c r="E392" s="0" t="s">
         <v>259</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="0" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B393" s="0" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C393" s="0" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D393" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E393" s="0" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="0" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B394" s="0" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C394" s="0" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D394" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E394" s="0" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="0" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B395" s="0" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C395" s="0" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D395" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E395" s="0" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="0" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B396" s="0" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C396" s="0" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D396" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E396" s="0" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="0" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B397" s="0" t="s">
+        <v>824</v>
+      </c>
+      <c r="C397" s="0" t="s">
+        <v>1160</v>
+      </c>
+      <c r="D397" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E397" s="0" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="0" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B398" s="0" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C398" s="0" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D398" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E398" s="0" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="0" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B399" s="0" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C399" s="0" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D399" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E399" s="0" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="0" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B400" s="0" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C400" s="0" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D400" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E400" s="0" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="0" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B401" s="0" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C401" s="0" t="s">
+        <v>1172</v>
+      </c>
+      <c r="D401" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E401" s="0" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="0" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B402" s="0" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C402" s="0" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D402" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E402" s="0" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="0" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B403" s="0" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C403" s="0" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D403" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E403" s="0" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="0" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B404" s="0" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C404" s="0" t="s">
+        <v>1181</v>
+      </c>
+      <c r="D404" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E404" s="0" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="0" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B405" s="0" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C405" s="0" t="s">
+        <v>1184</v>
+      </c>
+      <c r="D405" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E405" s="0" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="0" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B406" s="0" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C406" s="0" t="s">
+        <v>1187</v>
+      </c>
+      <c r="D406" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E406" s="0" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="0" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B407" s="0" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C407" s="0" t="s">
+        <v>1190</v>
+      </c>
+      <c r="D407" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E407" s="0" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="0" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B408" s="0" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C408" s="0" t="s">
+        <v>1193</v>
+      </c>
+      <c r="D408" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E408" s="0" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="0" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B409" s="0" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C409" s="0" t="s">
+        <v>1196</v>
+      </c>
+      <c r="D409" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E409" s="0" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="0" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B410" s="0" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C410" s="0" t="s">
+        <v>1199</v>
+      </c>
+      <c r="D410" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E410" s="0" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="0" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B411" s="0" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C411" s="0" t="s">
+        <v>1202</v>
+      </c>
+      <c r="D411" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E411" s="0" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="0" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B412" s="0" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C412" s="0" t="s">
+        <v>1205</v>
+      </c>
+      <c r="D412" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E412" s="0" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="0" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B413" s="0" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C413" s="0" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D413" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E413" s="0" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="0" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B414" s="0" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C414" s="0" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D414" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E414" s="0" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="0" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B415" s="0" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C415" s="0" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D415" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E415" s="0" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="0" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B416" s="0" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C416" s="0" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D416" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E416" s="0" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="0" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B417" s="0" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C417" s="0" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D417" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E417" s="0" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="0" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B418" s="0" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C418" s="0" t="s">
+        <v>1224</v>
+      </c>
+      <c r="D418" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E418" s="0" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="0" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B419" s="0" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C419" s="0" t="s">
+        <v>1227</v>
+      </c>
+      <c r="D419" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E419" s="0" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="0" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B420" s="0" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C420" s="0" t="s">
+        <v>1230</v>
+      </c>
+      <c r="D420" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E420" s="0" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="0" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B421" s="0" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C421" s="0" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D421" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E421" s="0" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="0" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B422" s="0" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C422" s="0" t="s">
+        <v>1236</v>
+      </c>
+      <c r="D422" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E422" s="0" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="0" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B423" s="0" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C423" s="0" t="s">
+        <v>1239</v>
+      </c>
+      <c r="D423" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E423" s="0" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="0" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B424" s="0" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C424" s="0" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D424" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E424" s="0" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="0" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B425" s="0" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C425" s="0" t="s">
+        <v>1245</v>
+      </c>
+      <c r="D425" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E425" s="0" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="0" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B426" s="0" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C426" s="0" t="s">
+        <v>1248</v>
+      </c>
+      <c r="D426" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E426" s="0" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="0" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B427" s="0" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C427" s="0" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D427" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E427" s="0" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="0" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B428" s="0" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C428" s="0" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D428" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E428" s="0" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="0" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B429" s="0" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C429" s="0" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D429" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E429" s="0" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="0" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B430" s="0" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C430" s="0" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D430" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E430" s="0" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="0" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B431" s="0" t="s">
+        <v>991</v>
+      </c>
+      <c r="C431" s="0" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D431" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E431" s="0" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="0" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B432" s="0" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C432" s="0" t="s">
+        <v>1266</v>
+      </c>
+      <c r="D432" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E432" s="0" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="0" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B433" s="0" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C433" s="0" t="s">
+        <v>1269</v>
+      </c>
+      <c r="D433" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E433" s="0" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="0" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B434" s="0" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C434" s="0" t="s">
+        <v>1272</v>
+      </c>
+      <c r="D434" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E434" s="0" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="0" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B435" s="0" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C435" s="0" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D435" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E435" s="0" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="0" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B436" s="0" t="s">
+        <v>795</v>
+      </c>
+      <c r="C436" s="0" t="s">
+        <v>1276</v>
+      </c>
+      <c r="D436" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E436" s="0" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="0" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B437" s="0" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C437" s="0" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D437" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E437" s="0" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="0" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B438" s="0" t="s">
+        <v>730</v>
+      </c>
+      <c r="C438" s="0" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D438" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E438" s="0" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="0" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B439" s="0" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C439" s="0" t="s">
+        <v>1283</v>
+      </c>
+      <c r="D439" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E439" s="0" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="0" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B440" s="0" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C440" s="0" t="s">
+        <v>1286</v>
+      </c>
+      <c r="D440" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E440" s="0" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="0" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B441" s="0" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C441" s="0" t="s">
+        <v>1289</v>
+      </c>
+      <c r="D441" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E441" s="0" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="0" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B442" s="0" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C442" s="0" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D442" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E442" s="0" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="0" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B443" s="0" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C443" s="0" t="s">
+        <v>1295</v>
+      </c>
+      <c r="D443" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E443" s="0" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="0" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B444" s="0" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C444" s="0" t="s">
+        <v>1298</v>
+      </c>
+      <c r="D444" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E444" s="0" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="0" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B445" s="0" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C445" s="0" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D445" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E445" s="0" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="0" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B446" s="0" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C446" s="0" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D446" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E446" s="0" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="0" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B447" s="0" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C447" s="0" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D447" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E447" s="0" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="0" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B448" s="0" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C448" s="0" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D448" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E448" s="0" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="0" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B449" s="0" t="s">
+        <v>864</v>
+      </c>
+      <c r="C449" s="0" t="s">
+        <v>865</v>
+      </c>
+      <c r="D449" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E449" s="0" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="0" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B450" s="0" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C450" s="0" t="s">
+        <v>1314</v>
+      </c>
+      <c r="D450" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E450" s="0" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="0" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B451" s="0" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C451" s="0" t="s">
+        <v>1317</v>
+      </c>
+      <c r="D451" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E451" s="0" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="0" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B452" s="0" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C452" s="0" t="s">
+        <v>1320</v>
+      </c>
+      <c r="D452" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E452" s="0" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="0" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B453" s="0" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C453" s="0" t="s">
+        <v>1323</v>
+      </c>
+      <c r="D453" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E453" s="0" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="0" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B454" s="0" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C454" s="0" t="s">
+        <v>1326</v>
+      </c>
+      <c r="D454" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E454" s="0" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="0" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B455" s="0" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C455" s="0" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D455" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E455" s="0" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="0" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B456" s="0" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C456" s="0" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D456" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E456" s="0" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="0" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B457" s="0" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C457" s="0" t="s">
+        <v>1336</v>
+      </c>
+      <c r="D457" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E457" s="0" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="0" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B458" s="0" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C458" s="0" t="s">
+        <v>1339</v>
+      </c>
+      <c r="D458" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E458" s="0" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="0" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B459" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="C459" s="0" t="s">
+        <v>1341</v>
+      </c>
+      <c r="D459" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E459" s="0" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="0" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B460" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="C460" s="0" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D460" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E460" s="0" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="0" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B461" s="0" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C461" s="0" t="s">
+        <v>1346</v>
+      </c>
+      <c r="D461" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E461" s="0" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="0" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B462" s="0" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C462" s="0" t="s">
+        <v>1349</v>
+      </c>
+      <c r="D462" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E462" s="0" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="0" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B463" s="0" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C463" s="0" t="s">
+        <v>1352</v>
+      </c>
+      <c r="D463" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E463" s="0" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="0" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B464" s="0" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C464" s="0" t="s">
+        <v>1355</v>
+      </c>
+      <c r="D464" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E464" s="0" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="0" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B465" s="0" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C465" s="0" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D465" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E465" s="0" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="0" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B466" s="0" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C466" s="0" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D466" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E466" s="0" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="0" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B467" s="0" t="s">
+        <v>599</v>
+      </c>
+      <c r="C467" s="0" t="s">
+        <v>1363</v>
+      </c>
+      <c r="D467" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E467" s="0" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="0" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B468" s="0" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C468" s="0" t="s">
+        <v>1365</v>
+      </c>
+      <c r="D468" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E468" s="0" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="0" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B469" s="0" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C469" s="0" t="s">
+        <v>1368</v>
+      </c>
+      <c r="D469" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E469" s="0" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="0" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B470" s="0" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C470" s="0" t="s">
+        <v>1372</v>
+      </c>
+      <c r="D470" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E470" s="0" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="0" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B471" s="0" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C471" s="0" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D471" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E471" s="0" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="0" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B472" s="0" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C472" s="0" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D472" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E472" s="0" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="0" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B473" s="0" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C473" s="0" t="s">
+        <v>1381</v>
+      </c>
+      <c r="D473" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E473" s="0" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="0" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B474" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="C474" s="0" t="s">
+        <v>1383</v>
+      </c>
+      <c r="D474" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E474" s="0" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="0" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B475" s="0" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C475" s="0" t="s">
+        <v>1386</v>
+      </c>
+      <c r="D475" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E475" s="0" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="0" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B476" s="0" t="s">
+        <v>1389</v>
+      </c>
+      <c r="C476" s="0" t="s">
+        <v>1390</v>
+      </c>
+      <c r="D476" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E476" s="0" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="0" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B477" s="0" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C477" s="0" t="s">
+        <v>1393</v>
+      </c>
+      <c r="D477" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E477" s="0" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="0" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B478" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="C478" s="0" t="s">
+        <v>504</v>
+      </c>
+      <c r="D478" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E478" s="0" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="0" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B479" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="C479" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="D479" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E479" s="0" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="0" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B480" s="0" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C480" s="0" t="s">
+        <v>1398</v>
+      </c>
+      <c r="D480" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E480" s="0" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="0" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B481" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="C481" s="0" t="s">
+        <v>1400</v>
+      </c>
+      <c r="D481" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E481" s="0" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="0" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B482" s="0" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C482" s="0" t="s">
+        <v>1402</v>
+      </c>
+      <c r="D482" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E482" s="0" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="0" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B483" s="0" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C483" s="0" t="s">
+        <v>1405</v>
+      </c>
+      <c r="D483" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E483" s="0" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="0" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B484" s="0" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C484" s="0" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D484" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E484" s="0" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="0" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B485" s="0" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C485" s="0" t="s">
+        <v>1410</v>
+      </c>
+      <c r="D485" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E485" s="0" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="0" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B486" s="0" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C486" s="0" t="s">
+        <v>1413</v>
+      </c>
+      <c r="D486" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E486" s="0" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="0" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B487" s="0" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C487" s="0" t="s">
+        <v>1416</v>
+      </c>
+      <c r="D487" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E487" s="0" t="s">
+        <v>1387</v>
       </c>
     </row>
   </sheetData>

--- a/Xcom2ClassManager/XComAbilityList.xlsx
+++ b/Xcom2ClassManager/XComAbilityList.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1417" uniqueCount="1417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1597" uniqueCount="1597">
   <si>
     <t>Name</t>
   </si>
@@ -4270,6 +4270,546 @@
   </si>
   <si>
     <t>&lt;i&gt;The Shugendo disciples search for spiritual, mystical, or supernatural powers gained through asceticism&lt;i/&gt;You are strong as the montain and gain +1 armor, +15 defense and can regenerate 2 HP per round, max to 6 HP.</t>
+  </si>
+  <si>
+    <t>JuggAdaptingArmor</t>
+  </si>
+  <si>
+    <t>Adaptive Armor</t>
+  </si>
+  <si>
+    <t>Takes 2 less damage from all attacks for 2 turns after taking damage.</t>
+  </si>
+  <si>
+    <t>Juggernaut</t>
+  </si>
+  <si>
+    <t>JuggDamageControl</t>
+  </si>
+  <si>
+    <t>Grants 2 additional armor.</t>
+  </si>
+  <si>
+    <t>JuggDimensionalShift</t>
+  </si>
+  <si>
+    <t>Shields Overload</t>
+  </si>
+  <si>
+    <t>Expending all the shield energy within a short time, provides immunity to damage this turn, while in this state, the unit also fools the enemies as an easy target.</t>
+  </si>
+  <si>
+    <t>JuggDisorientationField</t>
+  </si>
+  <si>
+    <t>Disorientation Field</t>
+  </si>
+  <si>
+    <t>Disorients nearby enemies at the end of each turn.</t>
+  </si>
+  <si>
+    <t>JuggDistortionField</t>
+  </si>
+  <si>
+    <t>Group Protective Field</t>
+  </si>
+  <si>
+    <t>Produces a large protective field that reduces accuracy by 15% against any nearby squadmates.</t>
+  </si>
+  <si>
+    <t>JuggEnergyShield</t>
+  </si>
+  <si>
+    <t>Energy Shield</t>
+  </si>
+  <si>
+    <t>Generates a 5hp shield for nearby allies throughout the enemy turn.</t>
+  </si>
+  <si>
+    <t>JuggHeavyArmor</t>
+  </si>
+  <si>
+    <t>Heavy Armor</t>
+  </si>
+  <si>
+    <t>The armor absorbs damage taken, protecting the wearer from injury.</t>
+  </si>
+  <si>
+    <t>JuggHighCover</t>
+  </si>
+  <si>
+    <t>One for all</t>
+  </si>
+  <si>
+    <t>Become a heavy cover until an offensive action is taken.</t>
+  </si>
+  <si>
+    <t>JuggProtect</t>
+  </si>
+  <si>
+    <t>Defender's Will</t>
+  </si>
+  <si>
+    <t>Goes into a defensive stance, attacking any enemy who attacks in range until the soldier runs out of ammunition</t>
+  </si>
+  <si>
+    <t>JuggRegen</t>
+  </si>
+  <si>
+    <t>Feel No Pain</t>
+  </si>
+  <si>
+    <t>HP damage taken instantly gets regenerated as shields.</t>
+  </si>
+  <si>
+    <t>JuggResilient</t>
+  </si>
+  <si>
+    <t>Resilient</t>
+  </si>
+  <si>
+    <t>Become 15% harder to land a critical shot, and an additional 30% if flanked.</t>
+  </si>
+  <si>
+    <t>JuggShockAbsorbantArmor</t>
+  </si>
+  <si>
+    <t>Reduce damage taken by 66% from nearby sources.</t>
+  </si>
+  <si>
+    <t>JuggThreatPrediction</t>
+  </si>
+  <si>
+    <t>Shaped Armor</t>
+  </si>
+  <si>
+    <t>Increases dodge by 75% for a turn</t>
+  </si>
+  <si>
+    <t>JackArmorPadding</t>
+  </si>
+  <si>
+    <t>Armor Padding</t>
+  </si>
+  <si>
+    <t>Gain +3 HP and receive an additional +10 Defense bonus. Less susceptible to stuns.</t>
+  </si>
+  <si>
+    <t>Trooper</t>
+  </si>
+  <si>
+    <t>JackArtOfWar</t>
+  </si>
+  <si>
+    <t>Art of War</t>
+  </si>
+  <si>
+    <t>Deal +2 bonus damage to flanked enemies, with a +15% critical chance bonus.</t>
+  </si>
+  <si>
+    <t>JackDeathSentence</t>
+  </si>
+  <si>
+    <t>Death Sentence</t>
+  </si>
+  <si>
+    <t>Brace yourself. Fire a reaction shot for every enemy action within a radius. -20 Defense penalty. 5-turn cooldown.</t>
+  </si>
+  <si>
+    <t>JackLastStand</t>
+  </si>
+  <si>
+    <t>Survivor</t>
+  </si>
+  <si>
+    <t>Falling in battle heals the Trooper for 5HP and grants a +20 bonus to Will and Defense for the remaining battle. Once per battle.</t>
+  </si>
+  <si>
+    <t>JackLethalShot</t>
+  </si>
+  <si>
+    <t>Lethal Shot</t>
+  </si>
+  <si>
+    <t>Deal +1 bonus damage on attacks with a +5% Critical chance. Your attacks always graze enemies.</t>
+  </si>
+  <si>
+    <t>JackMarkTarget</t>
+  </si>
+  <si>
+    <t>Mark Target</t>
+  </si>
+  <si>
+    <t>Mark a target for 2 turns. All allies gain +15 Aim bonus when attacking the target.</t>
+  </si>
+  <si>
+    <t>JackPiercingBarrage</t>
+  </si>
+  <si>
+    <t>Piercing Barrage</t>
+  </si>
+  <si>
+    <t>Unleash a barrage of piercing rounds, damaging cover and enemies in a straight line. Penalty to aim and damage. Costs 2 ammo. 4-turn cooldown.</t>
+  </si>
+  <si>
+    <t>JackScatter</t>
+  </si>
+  <si>
+    <t>Spread Out</t>
+  </si>
+  <si>
+    <t>Nearby allies gain a 20% Dodge bonus for the next 2 turns, and a temporary boost to mobility. 4-turn cooldown.</t>
+  </si>
+  <si>
+    <t>JackSurvivalInstinct</t>
+  </si>
+  <si>
+    <t>Getting hit by an attack grants a +25 Defense and +5 Aim for one turn.</t>
+  </si>
+  <si>
+    <t>JackTactics</t>
+  </si>
+  <si>
+    <t>Aggressive Tactics</t>
+  </si>
+  <si>
+    <t>Increases target's Aim by +5, Damage by +3, and a provides a great boost to mobility for one turn, with a -10 Defense penalty. 4 turn cooldown.</t>
+  </si>
+  <si>
+    <t>JackTrueShot</t>
+  </si>
+  <si>
+    <t>Lucky Shot</t>
+  </si>
+  <si>
+    <t>Unleash a focused shot from your pistol that ignores enemy armor. Guaranteed to hit. 3-turn cooldown.</t>
+  </si>
+  <si>
+    <t>KeenEye</t>
+  </si>
+  <si>
+    <t>Gain a +5 Defense bonus and a 5% bonus to critically hit enemies.</t>
+  </si>
+  <si>
+    <t>BlastShot</t>
+  </si>
+  <si>
+    <t>Share Blast</t>
+  </si>
+  <si>
+    <t>Fire a blast of energy in a narrow, long path in front of you. Can recieve +2 from HDD.</t>
+  </si>
+  <si>
+    <t>CPU</t>
+  </si>
+  <si>
+    <t>HDD</t>
+  </si>
+  <si>
+    <t>Sacrifice 15 Defense for +2 damage, +20 aim and +25 crit. Can chain into other abilities! This health cannot be recovered until your next turn</t>
+  </si>
+  <si>
+    <t>NepBull</t>
+  </si>
+  <si>
+    <t>Nep Bull</t>
+  </si>
+  <si>
+    <t>Self-use drink that restores up to 4 health to the user. 2 Uses per battle.</t>
+  </si>
+  <si>
+    <t>NextGen</t>
+  </si>
+  <si>
+    <t>Next Gen</t>
+  </si>
+  <si>
+    <t>One of the CPU's Gamechangers. Strike all foes in range with a pistol. Inflicts stun on FIRST TARGET. Can chain from HDD.</t>
+  </si>
+  <si>
+    <t>PartBreak</t>
+  </si>
+  <si>
+    <t>Part Break</t>
+  </si>
+  <si>
+    <t>Attack that focuses on breaking foe's armor, shredding up to 6 points. 3 Uses.</t>
+  </si>
+  <si>
+    <t>Patience</t>
+  </si>
+  <si>
+    <t>Wait for an opening from the enemy. This attack deals 2 bonus damage and is guaranteed to hit. Can chain from HDD for +4 Damage.</t>
+  </si>
+  <si>
+    <t>Prioritize</t>
+  </si>
+  <si>
+    <t>Mark a taget, giveing everyone (Including yourself) +10 Aim on it.</t>
+  </si>
+  <si>
+    <t>Sentient</t>
+  </si>
+  <si>
+    <t>Ends turn with +10 Armor until the start of the next turn. Helps avoid death in tight spots.</t>
+  </si>
+  <si>
+    <t>Smite</t>
+  </si>
+  <si>
+    <t>Pistol attack that causes the enemy to panic. Deals no damage however (Cannot gain +2 from HDD)</t>
+  </si>
+  <si>
+    <t>Swiftness</t>
+  </si>
+  <si>
+    <t>Increases Mobility stat by 2 points.</t>
+  </si>
+  <si>
+    <t>Teleport</t>
+  </si>
+  <si>
+    <t>Warp</t>
+  </si>
+  <si>
+    <t>One of the CPU's Gamechangers. Allows the user to warp to another location.</t>
+  </si>
+  <si>
+    <t>NecroCombustion</t>
+  </si>
+  <si>
+    <t>Combustion</t>
+  </si>
+  <si>
+    <t>Cause a creature's blood to boil. Does 2-4 guaranteed psi damage and sets them on fire.</t>
+  </si>
+  <si>
+    <t>Necromancer</t>
+  </si>
+  <si>
+    <t>NecroDeathTouch</t>
+  </si>
+  <si>
+    <t>Death Touch</t>
+  </si>
+  <si>
+    <t>The Necromancer has gained a superhuman understanding of life and death. Touch a living creature to grab its soul and pull it out of its body. It dies instantly. It can be used once per battle, from melee range only.</t>
+  </si>
+  <si>
+    <t>NecroDrainLife</t>
+  </si>
+  <si>
+    <t>Drain Life</t>
+  </si>
+  <si>
+    <t>Shoots a target enemy and transfers half of the damage done back to the Necromancer as health.</t>
+  </si>
+  <si>
+    <t>NecroEldritchStorm</t>
+  </si>
+  <si>
+    <t>Eldritch Storm</t>
+  </si>
+  <si>
+    <t>The necromancer has become an avatar of death. Focus all your power into one spell that will Set on Fire, Poison,and cause Acid Burn to all enemies in a large radius. Does no direct damage.</t>
+  </si>
+  <si>
+    <t>NecroFireballAbility</t>
+  </si>
+  <si>
+    <t>Fireball</t>
+  </si>
+  <si>
+    <t>Launch a Fireball, dealing explosive damage to everyone in the blast radius and setting everything on fire.</t>
+  </si>
+  <si>
+    <t>NecroHallucination</t>
+  </si>
+  <si>
+    <t>Hallucinations curse</t>
+  </si>
+  <si>
+    <t>The necromancer curses a creature, causing them to see their own team as enemies, and then overloads its mind with impending doom. Surrounded from all sides, they are guaranteed to panic, unless they have full immunity to panic. There is a good chance they will shoot their own team.</t>
+  </si>
+  <si>
+    <t>NecroLightning</t>
+  </si>
+  <si>
+    <t>Lightning</t>
+  </si>
+  <si>
+    <t>Shoots a lightning bolt at a target location. Damages everyone caught in the radius, stuns organic units and causes robotic ones to reboot. Costs 2 action points.</t>
+  </si>
+  <si>
+    <t>NecroMassRaiseDead</t>
+  </si>
+  <si>
+    <t>Army of the dead</t>
+  </si>
+  <si>
+    <t>Raises all dead humans in a large radius as zombies.</t>
+  </si>
+  <si>
+    <t>NecroPoison</t>
+  </si>
+  <si>
+    <t>Poison</t>
+  </si>
+  <si>
+    <t>Poison any living, organic creature. Does 1 damage per turn, -30 to aim and -4 to move. The spell doesn't end your turn and has no cooldown.</t>
+  </si>
+  <si>
+    <t>NecroRaiseDead</t>
+  </si>
+  <si>
+    <t>Raise Zombie</t>
+  </si>
+  <si>
+    <t>Raise a dead human or Advent as a zombie with 8 HP.</t>
+  </si>
+  <si>
+    <t>NecroRestoration</t>
+  </si>
+  <si>
+    <t>Regenerate 1 HP per turn, for 3 turns, to any ally. \n Shamans are said to treat ailments/illness by mending the soul. Alleviating traumas affecting the soul/spirit restores the physical body of the individual to balance and wholeness.</t>
+  </si>
+  <si>
+    <t>NecroSoulSpear</t>
+  </si>
+  <si>
+    <t>Soul Spear</t>
+  </si>
+  <si>
+    <t>Sorcery that fires souls shaped into a spear. Pierces enemies, causing heavy damage. This spell was said to have been devised by a master sorcerer, but his name is long forgotten.</t>
+  </si>
+  <si>
+    <t>NecroSpiritArmorAbility</t>
+  </si>
+  <si>
+    <t>Bone Armor</t>
+  </si>
+  <si>
+    <t>Adds 3 armor to a friendly target. This bonus lasts until the end of the mission and can be stacked. 4 turns cool down.</t>
+  </si>
+  <si>
+    <t>NecroStrenghtenUndead</t>
+  </si>
+  <si>
+    <t>Undead Link</t>
+  </si>
+  <si>
+    <t>Enhance the link between the Necromancer and one of his zombies, significantly increasing all of its life stats.</t>
+  </si>
+  <si>
+    <t>AbsorptionField</t>
+  </si>
+  <si>
+    <t>Channeling Field</t>
+  </si>
+  <si>
+    <t>Every time you are targeted, part of the energy is channeled to your &lt;Ability:WeaponName&gt;. This energy is unleashed with your next Standard Shot.</t>
+  </si>
+  <si>
+    <t>Shen's Last Gift</t>
+  </si>
+  <si>
+    <t>AdaptiveAim</t>
+  </si>
+  <si>
+    <t>Adaptive Aim</t>
+  </si>
+  <si>
+    <t>When Overdrive is active, Standard Shots do not incur recoil penalties.</t>
+  </si>
+  <si>
+    <t>Arsenal</t>
+  </si>
+  <si>
+    <t>The BIT can equip and fire heavy weapons.</t>
+  </si>
+  <si>
+    <t>Bombard</t>
+  </si>
+  <si>
+    <t>Launch the BIT to any visible location where it releases a powerful explosive blast. Advanced BITs do more damage.</t>
+  </si>
+  <si>
+    <t>Bulwark</t>
+  </si>
+  <si>
+    <t>Gain a bonus point of Armor, and always provide high cover to all adjacent squadmates.</t>
+  </si>
+  <si>
+    <t>CapacitorDischarge_Shen</t>
+  </si>
+  <si>
+    <t>CombatProtocol_Shen</t>
+  </si>
+  <si>
+    <t>HunterProtocol</t>
+  </si>
+  <si>
+    <t>Hunter Protocol</t>
+  </si>
+  <si>
+    <t>When an enemy is revealed, there is a &lt;Ability:HunterProtocol_Chance/&gt;% chance to take a free Overwatch shot.</t>
+  </si>
+  <si>
+    <t>Intimidate</t>
+  </si>
+  <si>
+    <t>When targeted by an attack, the enemy has a chance to panic.</t>
+  </si>
+  <si>
+    <t>MedicalProtocol_Shen</t>
+  </si>
+  <si>
+    <t>The GREMLIN can perform healing actions remotely: GREMLIN Heal and GREMLIN Stabilize. The GREMLIN has four charges. If a medikit is equipped, the GREMLIN will gain an additional charge.</t>
+  </si>
+  <si>
+    <t>Nova</t>
+  </si>
+  <si>
+    <t>Release a blast of energy, damaging all nearby enemies. This attack has no cost or cooldown, but consecutive Novas will damage the SPARK.</t>
+  </si>
+  <si>
+    <t>Overdrive</t>
+  </si>
+  <si>
+    <t>Take three actions this turn, and no action is turn-ending. Multiple Standard Shots incur a small recoil penalty.</t>
+  </si>
+  <si>
+    <t>Rainmaker</t>
+  </si>
+  <si>
+    <t>Equipped heavy weapons deal +&lt;Ability:Rainmaker_BonusDamage/&gt; damage and have increased area of effect.</t>
+  </si>
+  <si>
+    <t>Repair</t>
+  </si>
+  <si>
+    <t>Send the BIT to a damaged robotic ally and repair it. Advanced BITs can repair slightly more.</t>
+  </si>
+  <si>
+    <t>Sacrifice</t>
+  </si>
+  <si>
+    <t>Generate a protective field which redirects any attacks against allies inside it towards you. Gain bonus defense and armor while active.</t>
+  </si>
+  <si>
+    <t>Strike</t>
+  </si>
+  <si>
+    <t>Attack any enemy within movement range with a powerful melee attack.</t>
+  </si>
+  <si>
+    <t>WreckingBall</t>
+  </si>
+  <si>
+    <t>Wrecking Ball</t>
+  </si>
+  <si>
+    <t>While Overdrive is active, break through walls and cover when moving.</t>
   </si>
 </sst>
 </file>
@@ -4612,7 +5152,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G487"/>
+  <dimension ref="A1:G554"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
       <selection activeCell="F76" sqref="F76"/>
@@ -13124,6 +13664,1145 @@
       </c>
       <c r="E487" s="0" t="s">
         <v>1387</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="0" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B488" s="0" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C488" s="0" t="s">
+        <v>1419</v>
+      </c>
+      <c r="D488" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E488" s="0" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="0" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B489" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="C489" s="0" t="s">
+        <v>1422</v>
+      </c>
+      <c r="D489" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E489" s="0" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="0" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B490" s="0" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C490" s="0" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D490" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E490" s="0" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="0" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B491" s="0" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C491" s="0" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D491" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E491" s="0" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="0" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B492" s="0" t="s">
+        <v>1430</v>
+      </c>
+      <c r="C492" s="0" t="s">
+        <v>1431</v>
+      </c>
+      <c r="D492" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E492" s="0" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="0" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B493" s="0" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C493" s="0" t="s">
+        <v>1434</v>
+      </c>
+      <c r="D493" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E493" s="0" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="0" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B494" s="0" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C494" s="0" t="s">
+        <v>1437</v>
+      </c>
+      <c r="D494" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E494" s="0" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="0" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B495" s="0" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C495" s="0" t="s">
+        <v>1440</v>
+      </c>
+      <c r="D495" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E495" s="0" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="0" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B496" s="0" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C496" s="0" t="s">
+        <v>1443</v>
+      </c>
+      <c r="D496" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E496" s="0" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="0" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B497" s="0" t="s">
+        <v>1445</v>
+      </c>
+      <c r="C497" s="0" t="s">
+        <v>1446</v>
+      </c>
+      <c r="D497" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E497" s="0" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="0" t="s">
+        <v>1447</v>
+      </c>
+      <c r="B498" s="0" t="s">
+        <v>1448</v>
+      </c>
+      <c r="C498" s="0" t="s">
+        <v>1449</v>
+      </c>
+      <c r="D498" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E498" s="0" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="0" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B499" s="0" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C499" s="0" t="s">
+        <v>1451</v>
+      </c>
+      <c r="D499" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E499" s="0" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="0" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B500" s="0" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C500" s="0" t="s">
+        <v>1454</v>
+      </c>
+      <c r="D500" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E500" s="0" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="0" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B501" s="0" t="s">
+        <v>1456</v>
+      </c>
+      <c r="C501" s="0" t="s">
+        <v>1457</v>
+      </c>
+      <c r="D501" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E501" s="0" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="0" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B502" s="0" t="s">
+        <v>1460</v>
+      </c>
+      <c r="C502" s="0" t="s">
+        <v>1461</v>
+      </c>
+      <c r="D502" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E502" s="0" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="0" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B503" s="0" t="s">
+        <v>1463</v>
+      </c>
+      <c r="C503" s="0" t="s">
+        <v>1464</v>
+      </c>
+      <c r="D503" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E503" s="0" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="0" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B504" s="0" t="s">
+        <v>1466</v>
+      </c>
+      <c r="C504" s="0" t="s">
+        <v>1467</v>
+      </c>
+      <c r="D504" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E504" s="0" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="0" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B505" s="0" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C505" s="0" t="s">
+        <v>1470</v>
+      </c>
+      <c r="D505" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E505" s="0" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" s="0" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B506" s="0" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C506" s="0" t="s">
+        <v>1473</v>
+      </c>
+      <c r="D506" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E506" s="0" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" s="0" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B507" s="0" t="s">
+        <v>1475</v>
+      </c>
+      <c r="C507" s="0" t="s">
+        <v>1476</v>
+      </c>
+      <c r="D507" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E507" s="0" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" s="0" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B508" s="0" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C508" s="0" t="s">
+        <v>1479</v>
+      </c>
+      <c r="D508" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E508" s="0" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" s="0" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B509" s="0" t="s">
+        <v>898</v>
+      </c>
+      <c r="C509" s="0" t="s">
+        <v>1481</v>
+      </c>
+      <c r="D509" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E509" s="0" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" s="0" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B510" s="0" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C510" s="0" t="s">
+        <v>1484</v>
+      </c>
+      <c r="D510" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E510" s="0" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" s="0" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B511" s="0" t="s">
+        <v>1486</v>
+      </c>
+      <c r="C511" s="0" t="s">
+        <v>1487</v>
+      </c>
+      <c r="D511" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E511" s="0" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" s="0" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B512" s="0" t="s">
+        <v>844</v>
+      </c>
+      <c r="C512" s="0" t="s">
+        <v>1489</v>
+      </c>
+      <c r="D512" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E512" s="0" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" s="0" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B513" s="0" t="s">
+        <v>1491</v>
+      </c>
+      <c r="C513" s="0" t="s">
+        <v>1492</v>
+      </c>
+      <c r="D513" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E513" s="0" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="0" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B514" s="0" t="s">
+        <v>1494</v>
+      </c>
+      <c r="C514" s="0" t="s">
+        <v>1495</v>
+      </c>
+      <c r="D514" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E514" s="0" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="0" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B515" s="0" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C515" s="0" t="s">
+        <v>1498</v>
+      </c>
+      <c r="D515" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E515" s="0" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" s="0" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B516" s="0" t="s">
+        <v>1500</v>
+      </c>
+      <c r="C516" s="0" t="s">
+        <v>1501</v>
+      </c>
+      <c r="D516" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E516" s="0" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" s="0" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B517" s="0" t="s">
+        <v>1503</v>
+      </c>
+      <c r="C517" s="0" t="s">
+        <v>1504</v>
+      </c>
+      <c r="D517" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E517" s="0" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="0" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B518" s="0" t="s">
+        <v>1505</v>
+      </c>
+      <c r="C518" s="0" t="s">
+        <v>1506</v>
+      </c>
+      <c r="D518" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E518" s="0" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" s="0" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B519" s="0" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C519" s="0" t="s">
+        <v>1508</v>
+      </c>
+      <c r="D519" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E519" s="0" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" s="0" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B520" s="0" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C520" s="0" t="s">
+        <v>1510</v>
+      </c>
+      <c r="D520" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E520" s="0" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" s="0" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B521" s="0" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C521" s="0" t="s">
+        <v>1512</v>
+      </c>
+      <c r="D521" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E521" s="0" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" s="0" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B522" s="0" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C522" s="0" t="s">
+        <v>1514</v>
+      </c>
+      <c r="D522" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E522" s="0" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="0" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B523" s="0" t="s">
+        <v>1516</v>
+      </c>
+      <c r="C523" s="0" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D523" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E523" s="0" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="0" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B524" s="0" t="s">
+        <v>1519</v>
+      </c>
+      <c r="C524" s="0" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D524" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E524" s="0" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="0" t="s">
+        <v>1522</v>
+      </c>
+      <c r="B525" s="0" t="s">
+        <v>1523</v>
+      </c>
+      <c r="C525" s="0" t="s">
+        <v>1524</v>
+      </c>
+      <c r="D525" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E525" s="0" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" s="0" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B526" s="0" t="s">
+        <v>1526</v>
+      </c>
+      <c r="C526" s="0" t="s">
+        <v>1527</v>
+      </c>
+      <c r="D526" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E526" s="0" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" s="0" t="s">
+        <v>1528</v>
+      </c>
+      <c r="B527" s="0" t="s">
+        <v>1529</v>
+      </c>
+      <c r="C527" s="0" t="s">
+        <v>1530</v>
+      </c>
+      <c r="D527" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E527" s="0" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" s="0" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B528" s="0" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C528" s="0" t="s">
+        <v>1533</v>
+      </c>
+      <c r="D528" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E528" s="0" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="0" t="s">
+        <v>1534</v>
+      </c>
+      <c r="B529" s="0" t="s">
+        <v>1535</v>
+      </c>
+      <c r="C529" s="0" t="s">
+        <v>1536</v>
+      </c>
+      <c r="D529" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E529" s="0" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="0" t="s">
+        <v>1537</v>
+      </c>
+      <c r="B530" s="0" t="s">
+        <v>1538</v>
+      </c>
+      <c r="C530" s="0" t="s">
+        <v>1539</v>
+      </c>
+      <c r="D530" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E530" s="0" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="0" t="s">
+        <v>1540</v>
+      </c>
+      <c r="B531" s="0" t="s">
+        <v>1541</v>
+      </c>
+      <c r="C531" s="0" t="s">
+        <v>1542</v>
+      </c>
+      <c r="D531" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E531" s="0" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="0" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B532" s="0" t="s">
+        <v>1544</v>
+      </c>
+      <c r="C532" s="0" t="s">
+        <v>1545</v>
+      </c>
+      <c r="D532" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E532" s="0" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" s="0" t="s">
+        <v>1546</v>
+      </c>
+      <c r="B533" s="0" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C533" s="0" t="s">
+        <v>1548</v>
+      </c>
+      <c r="D533" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E533" s="0" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" s="0" t="s">
+        <v>1549</v>
+      </c>
+      <c r="B534" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="C534" s="0" t="s">
+        <v>1550</v>
+      </c>
+      <c r="D534" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E534" s="0" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" s="0" t="s">
+        <v>1551</v>
+      </c>
+      <c r="B535" s="0" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C535" s="0" t="s">
+        <v>1553</v>
+      </c>
+      <c r="D535" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E535" s="0" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" s="0" t="s">
+        <v>1554</v>
+      </c>
+      <c r="B536" s="0" t="s">
+        <v>1555</v>
+      </c>
+      <c r="C536" s="0" t="s">
+        <v>1556</v>
+      </c>
+      <c r="D536" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E536" s="0" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="0" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B537" s="0" t="s">
+        <v>1558</v>
+      </c>
+      <c r="C537" s="0" t="s">
+        <v>1559</v>
+      </c>
+      <c r="D537" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E537" s="0" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" s="0" t="s">
+        <v>1560</v>
+      </c>
+      <c r="B538" s="0" t="s">
+        <v>1561</v>
+      </c>
+      <c r="C538" s="0" t="s">
+        <v>1562</v>
+      </c>
+      <c r="D538" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E538" s="0" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" s="0" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B539" s="0" t="s">
+        <v>1565</v>
+      </c>
+      <c r="C539" s="0" t="s">
+        <v>1566</v>
+      </c>
+      <c r="D539" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E539" s="0" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" s="0" t="s">
+        <v>1567</v>
+      </c>
+      <c r="B540" s="0" t="s">
+        <v>1567</v>
+      </c>
+      <c r="C540" s="0" t="s">
+        <v>1568</v>
+      </c>
+      <c r="D540" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E540" s="0" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" s="0" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B541" s="0" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C541" s="0" t="s">
+        <v>1570</v>
+      </c>
+      <c r="D541" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E541" s="0" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" s="0" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B542" s="0" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C542" s="0" t="s">
+        <v>1572</v>
+      </c>
+      <c r="D542" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E542" s="0" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" s="0" t="s">
+        <v>1573</v>
+      </c>
+      <c r="B543" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C543" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D543" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E543" s="0" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" s="0" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B544" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C544" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D544" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E544" s="0" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" s="0" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B545" s="0" t="s">
+        <v>1576</v>
+      </c>
+      <c r="C545" s="0" t="s">
+        <v>1577</v>
+      </c>
+      <c r="D545" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E545" s="0" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" s="0" t="s">
+        <v>1578</v>
+      </c>
+      <c r="B546" s="0" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C546" s="0" t="s">
+        <v>1579</v>
+      </c>
+      <c r="D546" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E546" s="0" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" s="0" t="s">
+        <v>1580</v>
+      </c>
+      <c r="B547" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="C547" s="0" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D547" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E547" s="0" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" s="0" t="s">
+        <v>1582</v>
+      </c>
+      <c r="B548" s="0" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C548" s="0" t="s">
+        <v>1583</v>
+      </c>
+      <c r="D548" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E548" s="0" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" s="0" t="s">
+        <v>1584</v>
+      </c>
+      <c r="B549" s="0" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C549" s="0" t="s">
+        <v>1585</v>
+      </c>
+      <c r="D549" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E549" s="0" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" s="0" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B550" s="0" t="s">
+        <v>1586</v>
+      </c>
+      <c r="C550" s="0" t="s">
+        <v>1587</v>
+      </c>
+      <c r="D550" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E550" s="0" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" s="0" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B551" s="0" t="s">
+        <v>1588</v>
+      </c>
+      <c r="C551" s="0" t="s">
+        <v>1589</v>
+      </c>
+      <c r="D551" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E551" s="0" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" s="0" t="s">
+        <v>1590</v>
+      </c>
+      <c r="B552" s="0" t="s">
+        <v>1590</v>
+      </c>
+      <c r="C552" s="0" t="s">
+        <v>1591</v>
+      </c>
+      <c r="D552" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E552" s="0" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" s="0" t="s">
+        <v>1592</v>
+      </c>
+      <c r="B553" s="0" t="s">
+        <v>1592</v>
+      </c>
+      <c r="C553" s="0" t="s">
+        <v>1593</v>
+      </c>
+      <c r="D553" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E553" s="0" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" s="0" t="s">
+        <v>1594</v>
+      </c>
+      <c r="B554" s="0" t="s">
+        <v>1595</v>
+      </c>
+      <c r="C554" s="0" t="s">
+        <v>1596</v>
+      </c>
+      <c r="D554" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E554" s="0" t="s">
+        <v>1563</v>
       </c>
     </row>
   </sheetData>

--- a/Xcom2ClassManager/XComAbilityList.xlsx
+++ b/Xcom2ClassManager/XComAbilityList.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1597" uniqueCount="1597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1609" uniqueCount="1609">
   <si>
     <t>Name</t>
   </si>
@@ -4810,6 +4810,42 @@
   </si>
   <si>
     <t>While Overdrive is active, break through walls and cover when moving.</t>
+  </si>
+  <si>
+    <t>FW_FireMachinePistol</t>
+  </si>
+  <si>
+    <t>Fire Machine Pistol</t>
+  </si>
+  <si>
+    <t>Fire 3 shots at a target with your secondary weapon.</t>
+  </si>
+  <si>
+    <t>Machine Pistol</t>
+  </si>
+  <si>
+    <t>FW_HeavyRounds</t>
+  </si>
+  <si>
+    <t>Heavy Rounds</t>
+  </si>
+  <si>
+    <t>Shots fired by your machine pistol now deal 1 additional damage.</t>
+  </si>
+  <si>
+    <t>FW_MachineSpray</t>
+  </si>
+  <si>
+    <t>Fire 4 shots at a target with your secondary weapon.</t>
+  </si>
+  <si>
+    <t>FW_Yellowjacket</t>
+  </si>
+  <si>
+    <t>Yellowjacket</t>
+  </si>
+  <si>
+    <t>Shots fired by your machine pistol now ignore armor.</t>
   </si>
 </sst>
 </file>
@@ -5152,7 +5188,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G554"/>
+  <dimension ref="A1:G558"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
       <selection activeCell="F76" sqref="F76"/>
@@ -14803,6 +14839,74 @@
       </c>
       <c r="E554" s="0" t="s">
         <v>1563</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" s="0" t="s">
+        <v>1597</v>
+      </c>
+      <c r="B555" s="0" t="s">
+        <v>1598</v>
+      </c>
+      <c r="C555" s="0" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D555" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E555" s="0" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" s="0" t="s">
+        <v>1601</v>
+      </c>
+      <c r="B556" s="0" t="s">
+        <v>1602</v>
+      </c>
+      <c r="C556" s="0" t="s">
+        <v>1603</v>
+      </c>
+      <c r="D556" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E556" s="0" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" s="0" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B557" s="0" t="s">
+        <v>1598</v>
+      </c>
+      <c r="C557" s="0" t="s">
+        <v>1605</v>
+      </c>
+      <c r="D557" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E557" s="0" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" s="0" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B558" s="0" t="s">
+        <v>1607</v>
+      </c>
+      <c r="C558" s="0" t="s">
+        <v>1608</v>
+      </c>
+      <c r="D558" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E558" s="0" t="s">
+        <v>1600</v>
       </c>
     </row>
   </sheetData>

--- a/Xcom2ClassManager/XComAbilityList.xlsx
+++ b/Xcom2ClassManager/XComAbilityList.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet1'!$B$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$F$1</definedName>
   </definedNames>
-  <calcPr calcId="125725" fullCalcOnLoad="1"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="781">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1463" uniqueCount="852">
   <si>
     <t>ID</t>
   </si>
@@ -2362,13 +2362,225 @@
   </si>
   <si>
     <t>Grants &lt;Ability:NoiseMakerCharges/&gt; free ultrasonic lure item to your inventory.</t>
+  </si>
+  <si>
+    <t>LW2WotC_Bastion</t>
+  </si>
+  <si>
+    <t>Bastion</t>
+  </si>
+  <si>
+    <t>Fortress now provides immunity to nearby teammates.</t>
+  </si>
+  <si>
+    <t>LW2WotC_BodyShield</t>
+  </si>
+  <si>
+    <t>Body Shield</t>
+  </si>
+  <si>
+    <t>A targeted enemy receives -&lt;Ability:BODY_SHIELD_DEF_BONUS&gt; aim and -&lt;Ability:BODY_SHIELD_ENEMY_CRIT_MALUS&gt; critical chance against the soldier. &lt;Ability:BODY_SHIELD_COOLDOWN&gt; turn cooldown.</t>
+  </si>
+  <si>
+    <t>LW2WotC_ClutchShot</t>
+  </si>
+  <si>
+    <t>Clutch Shot</t>
+  </si>
+  <si>
+    <t>Once per mission, fire a pistol shot that cannot miss.</t>
+  </si>
+  <si>
+    <t>LW2WotC_CombatAwareness</t>
+  </si>
+  <si>
+    <t>Combat Awareness</t>
+  </si>
+  <si>
+    <t>Grants &lt;Ability:COMBAT_AWARENESS_BONUS_DEFENSE&gt; defense and &lt;Ability:COMBAT_AWARENESS_BONUS_ARMOR&gt; armor point when in overwatch.</t>
+  </si>
+  <si>
+    <t>LW2WotC_CombatRush</t>
+  </si>
+  <si>
+    <t>Combat Rush</t>
+  </si>
+  <si>
+    <t>When you kill an enemy, nearby allies temporarily receive bonuses to aim, critical chance and mobility. &lt;Ability:COMBAT_RUSH_COOLDOWN&gt; turn cooldown.</t>
+  </si>
+  <si>
+    <t>LW2WotC_Commissar</t>
+  </si>
+  <si>
+    <t>Commissar</t>
+  </si>
+  <si>
+    <t>Pistol shots against allies who have been mind-controlled by enemies have +&lt;Ability:COMMISSAR_HIT_BONUS&gt; to hit, cannot be dodged, and automatically kill the target if a hit occurs.</t>
+  </si>
+  <si>
+    <t>LW2WotC_DamageControl</t>
+  </si>
+  <si>
+    <t>Damage Control</t>
+  </si>
+  <si>
+    <t>After taking damage, gain &lt;Ability:DAMAGE_CONTROL_BONUS_ARMOR&gt; armor through the end of the turn.</t>
+  </si>
+  <si>
+    <t>LW2WotC_DepthPerception</t>
+  </si>
+  <si>
+    <t>Depth Perception</t>
+  </si>
+  <si>
+    <t>Gain &lt;Ability:DP_AIM_BONUS/&gt; aim and reduce enemies' dodge by &lt;Ability:DP_ANTIDODGE_BONUS/&gt; when at a higher elevation than your target.</t>
+  </si>
+  <si>
+    <t>LW2WotC_EmergencyLifeSupport</t>
+  </si>
+  <si>
+    <t>Emergency Life Support</t>
+  </si>
+  <si>
+    <t>Emergency Life Support ensures the first killing blow in a mission will not lead to instant death. It also extends the time before the soldier bleeds out and dies.</t>
+  </si>
+  <si>
+    <t>LW2WotC_Flashbanger</t>
+  </si>
+  <si>
+    <t>Flashbanger</t>
+  </si>
+  <si>
+    <t>Grants one free flashbang item to your inventory.</t>
+  </si>
+  <si>
+    <t>LW2WotC_Gunslinger</t>
+  </si>
+  <si>
+    <t>Gunslinger</t>
+  </si>
+  <si>
+    <t>Take a reaction shot with your pistol against any enemy that moves or attacks within &lt;Ability:GUNSLINGER_TILES_RANGE&gt; tiles and a wide cone of fire. &lt;Ability:GUNSLINGER_COOLDOWN&gt; turn cooldown.</t>
+  </si>
+  <si>
+    <t>LW2WotC_HitandSlither</t>
+  </si>
+  <si>
+    <t>Hit and Slither</t>
+  </si>
+  <si>
+    <t>Gain an additional move action after taking a standard shot at a flanked or exposed target with your primary weapon. &lt;Ability:HNR_USES_PER_TURN/&gt;</t>
+  </si>
+  <si>
+    <t>LW2WotC_HyperReactivePupils</t>
+  </si>
+  <si>
+    <t>Hyper-Reactive Pupils</t>
+  </si>
+  <si>
+    <t>Gain +&lt;Ability:HYPERREACTIVE_PUPILS_AIM_BONUS/&gt; aim for your next shot with your primary weapon after a miss.</t>
+  </si>
+  <si>
+    <t>LW2WotC_ImpactFields</t>
+  </si>
+  <si>
+    <t>Impact Fields</t>
+  </si>
+  <si>
+    <t>Activate a force field that reduces incoming damage by &lt;Ability:IMPACT_FIELDS_DAMAGE_REDUCTION_PCT&gt;% for &lt;Ability:IMPACT_FIELDS_DURATION&gt; turns. &lt;Ability:IMPACT_FIELDS_COOLDOWN&gt; turn cooldown.</t>
+  </si>
+  <si>
+    <t>LW2WotC_Infighter</t>
+  </si>
+  <si>
+    <t>Infighter</t>
+  </si>
+  <si>
+    <t>Gain +&lt;Ability:INFIGHTER_DODGE_BONUS/&gt; dodge against attacks within &lt;Ability:INFIGHTER_MAX_TILES/&gt; tiles.</t>
+  </si>
+  <si>
+    <t>LW2WotC_IronSkin</t>
+  </si>
+  <si>
+    <t>Iron Skin</t>
+  </si>
+  <si>
+    <t>Incoming melee damage is reduced by &lt;Ability:IRON_SKIN_MELEE_DAMAGE_REDUCTION&gt;.</t>
+  </si>
+  <si>
+    <t>LW2WotC_MindMerge</t>
+  </si>
+  <si>
+    <t>Mind Merge</t>
+  </si>
+  <si>
+    <t>Grants bonus will, critical chance and ablative hit points to an ally until the beginning of the player's next turn.</t>
+  </si>
+  <si>
+    <t>LW2WotC_ShootAnyone</t>
+  </si>
+  <si>
+    <t>Shoot Anyone</t>
+  </si>
+  <si>
+    <t>Shoot Anyone.</t>
+  </si>
+  <si>
+    <t>LW2WotC_SmartMacrophages</t>
+  </si>
+  <si>
+    <t>Smart Macrophages</t>
+  </si>
+  <si>
+    <t>Heals injuries after a battle, lowering wound recovery time, and confers immunity to poison and acid.</t>
+  </si>
+  <si>
+    <t>LW2WotC_Smoker</t>
+  </si>
+  <si>
+    <t>Smoker</t>
+  </si>
+  <si>
+    <t>Grants one free smoke grenade item to your inventory.</t>
+  </si>
+  <si>
+    <t>LW2WotC_Solace</t>
+  </si>
+  <si>
+    <t>The Psi Operative may immediately extinguish mental impairments for a squadmate.</t>
+  </si>
+  <si>
+    <t>LW2WotC_SoulMerge</t>
+  </si>
+  <si>
+    <t>Soul Merge</t>
+  </si>
+  <si>
+    <t>Increases effectiveness of Mind Merge by conferring larger bonuses to critical chance, will and ablative hit points, and reducing its cooldown period.</t>
+  </si>
+  <si>
+    <t>LW2WotC_Sprinter</t>
+  </si>
+  <si>
+    <t>Sprinter</t>
+  </si>
+  <si>
+    <t>Gain &lt;ABILITY:SPRINTER_MOBILITY/&gt; mobility.</t>
+  </si>
+  <si>
+    <t>LW2WotC_WilltoSurvive</t>
+  </si>
+  <si>
+    <t>Will to Survive</t>
+  </si>
+  <si>
+    <t>Enemy damage is reduced when in cover and attacked through that cover. High cover reduces damage by &lt;Ability:W2S_HIGH_COVER_ARMOR_BONUS/&gt;. Low cover reduces damage by &lt;Ability:W2S_LOW_COVER_ARMOR_BONUS/&gt;. Also grants &lt;Ability:WILLTOSURVIVE_WILLBONUS/&gt; will.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -2406,12 +2618,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2706,25 +2919,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H254"/>
+  <dimension ref="A1:H278"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0">
-      <selection activeCell="I225" sqref="I225"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="E87" sqref="E87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1" style="2"/>
-    <col min="2" max="2" bestFit="1" width="35" customWidth="1"/>
-    <col min="3" max="3" bestFit="1" width="28" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="48.28515625" customWidth="1"/>
-    <col min="5" max="5" bestFit="1" width="14.7109375" customWidth="1"/>
-    <col min="6" max="6" bestFit="1" width="31.28515625" customWidth="1"/>
-    <col min="7" max="7" bestFit="1" width="15.28515625" customWidth="1"/>
-    <col min="8" max="8" bestFit="1" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2746,5280 +2959,5760 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:8">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="0" t="s">
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
         <v>10</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:8">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="0" t="s">
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:8">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="0" t="s">
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:8">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="0" t="s">
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:8">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="F6" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:8">
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="F7" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:8">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="0" t="s">
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:8">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="F9" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:8">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="0" t="s">
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:8">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E11" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="0" t="s">
+      <c r="F11" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:8">
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="E12" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="0" t="s">
+      <c r="F12" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:8">
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="E13" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="0" t="s">
+      <c r="F13" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:8">
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" t="s">
         <v>57</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="E14" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="0" t="s">
+      <c r="F14" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:8">
       <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="0" t="s">
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:8">
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" t="s">
         <v>62</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" t="s">
         <v>63</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="0" t="s">
+      <c r="F16" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:7">
       <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" t="s">
         <v>65</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" t="s">
         <v>66</v>
       </c>
-      <c r="E17" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" s="0" t="s">
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:7">
       <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" t="s">
         <v>68</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" t="s">
         <v>70</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="E18" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="0" t="s">
+      <c r="F18" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:7">
       <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" t="s">
         <v>72</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" t="s">
         <v>72</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" t="s">
         <v>73</v>
       </c>
-      <c r="E19" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="0" t="s">
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:7">
       <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" t="s">
         <v>75</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" t="s">
         <v>76</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" t="s">
         <v>77</v>
       </c>
-      <c r="E20" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" s="0" t="s">
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:7">
       <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" t="s">
         <v>79</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" t="s">
         <v>80</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D21" t="s">
         <v>81</v>
       </c>
-      <c r="E21" s="0" t="s">
+      <c r="E21" t="s">
         <v>25</v>
       </c>
-      <c r="F21" s="0" t="s">
+      <c r="F21" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:7">
       <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" t="s">
         <v>83</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="D22" t="s">
         <v>84</v>
       </c>
-      <c r="E22" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="0" t="s">
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:7">
       <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" t="s">
         <v>85</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" t="s">
         <v>85</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="D23" t="s">
         <v>86</v>
       </c>
-      <c r="E23" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23" s="0" t="s">
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:7">
       <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" t="s">
         <v>88</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" t="s">
         <v>89</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" t="s">
         <v>90</v>
       </c>
-      <c r="E24" s="0" t="s">
+      <c r="E24" t="s">
         <v>30</v>
       </c>
-      <c r="F24" s="0" t="s">
+      <c r="F24" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:7">
       <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" t="s">
         <v>92</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" t="s">
         <v>93</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" t="s">
         <v>94</v>
       </c>
-      <c r="E25" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" s="0" t="s">
+      <c r="E25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:7">
       <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" t="s">
         <v>96</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" t="s">
         <v>97</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D26" t="s">
         <v>98</v>
       </c>
-      <c r="E26" s="0" t="s">
+      <c r="E26" t="s">
         <v>25</v>
       </c>
-      <c r="F26" s="0" t="s">
+      <c r="F26" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:7">
       <c r="A27" s="2">
         <v>26</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" t="s">
         <v>101</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="D27" t="s">
         <v>102</v>
       </c>
-      <c r="E27" s="0" t="s">
+      <c r="E27" t="s">
         <v>25</v>
       </c>
-      <c r="F27" s="0" t="s">
+      <c r="F27" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:7">
       <c r="A28" s="2">
         <v>27</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" t="s">
         <v>104</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" t="s">
         <v>105</v>
       </c>
-      <c r="D28" s="0" t="s">
+      <c r="D28" t="s">
         <v>106</v>
       </c>
-      <c r="E28" s="0" t="s">
+      <c r="E28" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="0" t="s">
+      <c r="F28" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:7">
       <c r="A29" s="2">
         <v>28</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" t="s">
         <v>108</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="C29" t="s">
         <v>109</v>
       </c>
-      <c r="D29" s="0" t="s">
+      <c r="D29" t="s">
         <v>110</v>
       </c>
-      <c r="E29" s="0" t="s">
+      <c r="E29" t="s">
         <v>30</v>
       </c>
-      <c r="F29" s="0" t="s">
+      <c r="F29" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:7">
       <c r="A30" s="2">
         <v>29</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" t="s">
         <v>112</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="C30" t="s">
         <v>112</v>
       </c>
-      <c r="D30" s="0" t="s">
+      <c r="D30" t="s">
         <v>113</v>
       </c>
-      <c r="E30" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30" s="0" t="s">
+      <c r="E30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:7">
       <c r="A31" s="2">
         <v>30</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" t="s">
         <v>115</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="C31" t="s">
         <v>115</v>
       </c>
-      <c r="D31" s="0" t="s">
+      <c r="D31" t="s">
         <v>116</v>
       </c>
-      <c r="E31" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F31" s="0" t="s">
+      <c r="E31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:7">
       <c r="A32" s="2">
         <v>31</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" t="s">
         <v>117</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="C32" t="s">
         <v>117</v>
       </c>
-      <c r="D32" s="0" t="s">
+      <c r="D32" t="s">
         <v>118</v>
       </c>
-      <c r="E32" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F32" s="0" t="s">
+      <c r="E32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:7">
       <c r="A33" s="2">
         <v>32</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" t="s">
         <v>119</v>
       </c>
-      <c r="C33" s="0" t="s">
+      <c r="C33" t="s">
         <v>120</v>
       </c>
-      <c r="D33" s="0" t="s">
+      <c r="D33" t="s">
         <v>121</v>
       </c>
-      <c r="E33" s="0" t="s">
+      <c r="E33" t="s">
         <v>30</v>
       </c>
-      <c r="F33" s="0" t="s">
+      <c r="F33" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:7">
       <c r="A34" s="2">
         <v>33</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" t="s">
         <v>122</v>
       </c>
-      <c r="C34" s="0" t="s">
+      <c r="C34" t="s">
         <v>123</v>
       </c>
-      <c r="D34" s="0" t="s">
+      <c r="D34" t="s">
         <v>124</v>
       </c>
-      <c r="E34" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F34" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35">
+      <c r="E34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="2">
         <v>34</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B35" t="s">
         <v>125</v>
       </c>
-      <c r="C35" s="0" t="s">
+      <c r="C35" t="s">
         <v>126</v>
       </c>
-      <c r="D35" s="0" t="s">
+      <c r="D35" t="s">
         <v>127</v>
       </c>
-      <c r="E35" s="0" t="s">
+      <c r="E35" t="s">
         <v>30</v>
       </c>
-      <c r="F35" s="0" t="s">
+      <c r="F35" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:7">
       <c r="A36" s="2">
         <v>35</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="B36" t="s">
         <v>129</v>
       </c>
-      <c r="C36" s="0" t="s">
+      <c r="C36" t="s">
         <v>130</v>
       </c>
-      <c r="D36" s="0" t="s">
+      <c r="D36" t="s">
         <v>131</v>
       </c>
-      <c r="E36" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F36" s="0" t="s">
+      <c r="E36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:7">
       <c r="A37" s="2">
         <v>36</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="B37" t="s">
         <v>133</v>
       </c>
-      <c r="C37" s="0" t="s">
+      <c r="C37" t="s">
         <v>134</v>
       </c>
-      <c r="D37" s="0" t="s">
+      <c r="D37" t="s">
         <v>135</v>
       </c>
-      <c r="E37" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F37" s="0" t="s">
+      <c r="E37" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:7">
       <c r="A38" s="2">
         <v>37</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="B38" t="s">
         <v>137</v>
       </c>
-      <c r="C38" s="0" t="s">
+      <c r="C38" t="s">
         <v>138</v>
       </c>
-      <c r="D38" s="0" t="s">
+      <c r="D38" t="s">
         <v>139</v>
       </c>
-      <c r="E38" s="0" t="s">
+      <c r="E38" t="s">
         <v>25</v>
       </c>
-      <c r="F38" s="0" t="s">
+      <c r="F38" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:7">
       <c r="A39" s="2">
         <v>38</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="B39" t="s">
         <v>141</v>
       </c>
-      <c r="C39" s="0" t="s">
+      <c r="C39" t="s">
         <v>142</v>
       </c>
-      <c r="D39" s="0" t="s">
+      <c r="D39" t="s">
         <v>143</v>
       </c>
-      <c r="E39" s="0" t="s">
+      <c r="E39" t="s">
         <v>30</v>
       </c>
-      <c r="F39" s="0" t="s">
+      <c r="F39" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:7">
       <c r="A40" s="2">
         <v>39</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="B40" t="s">
         <v>145</v>
       </c>
-      <c r="C40" s="0" t="s">
+      <c r="C40" t="s">
         <v>146</v>
       </c>
-      <c r="D40" s="0" t="s">
+      <c r="D40" t="s">
         <v>147</v>
       </c>
-      <c r="E40" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F40" s="0" t="s">
+      <c r="E40" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:7">
       <c r="A41" s="2">
         <v>40</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="B41" t="s">
         <v>148</v>
       </c>
-      <c r="C41" s="0" t="s">
+      <c r="C41" t="s">
         <v>149</v>
       </c>
-      <c r="D41" s="0" t="s">
+      <c r="D41" t="s">
         <v>150</v>
       </c>
-      <c r="E41" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F41" s="0" t="s">
+      <c r="E41" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:7">
       <c r="A42" s="2">
         <v>41</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B42" t="s">
         <v>152</v>
       </c>
-      <c r="C42" s="0" t="s">
+      <c r="C42" t="s">
         <v>152</v>
       </c>
-      <c r="D42" s="0" t="s">
+      <c r="D42" t="s">
         <v>153</v>
       </c>
-      <c r="E42" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F42" s="0" t="s">
+      <c r="E42" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:7">
       <c r="A43" s="2">
         <v>42</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="B43" t="s">
         <v>155</v>
       </c>
-      <c r="C43" s="0" t="s">
+      <c r="C43" t="s">
         <v>156</v>
       </c>
-      <c r="D43" s="0" t="s">
+      <c r="D43" t="s">
         <v>157</v>
       </c>
-      <c r="E43" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F43" s="0" t="s">
+      <c r="E43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:7">
       <c r="A44" s="2">
         <v>43</v>
       </c>
-      <c r="B44" s="0" t="s">
+      <c r="B44" t="s">
         <v>159</v>
       </c>
-      <c r="C44" s="0" t="s">
+      <c r="C44" t="s">
         <v>160</v>
       </c>
-      <c r="D44" s="0" t="s">
+      <c r="D44" t="s">
         <v>161</v>
       </c>
-      <c r="E44" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F44" s="0" t="s">
+      <c r="E44" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:7">
       <c r="A45" s="2">
         <v>44</v>
       </c>
-      <c r="B45" s="0" t="s">
+      <c r="B45" t="s">
         <v>162</v>
       </c>
-      <c r="C45" s="0" t="s">
+      <c r="C45" t="s">
         <v>162</v>
       </c>
-      <c r="D45" s="0" t="s">
+      <c r="D45" t="s">
         <v>163</v>
       </c>
-      <c r="E45" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F45" s="0" t="s">
+      <c r="E45" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:7">
       <c r="A46" s="2">
         <v>45</v>
       </c>
-      <c r="B46" s="0" t="s">
+      <c r="B46" t="s">
         <v>165</v>
       </c>
-      <c r="C46" s="0" t="s">
+      <c r="C46" t="s">
         <v>166</v>
       </c>
-      <c r="D46" s="0" t="s">
+      <c r="D46" t="s">
         <v>167</v>
       </c>
-      <c r="E46" s="0" t="s">
+      <c r="E46" t="s">
         <v>30</v>
       </c>
-      <c r="F46" s="0" t="s">
+      <c r="F46" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:7">
       <c r="A47" s="2">
         <v>46</v>
       </c>
-      <c r="B47" s="0" t="s">
+      <c r="B47" t="s">
         <v>168</v>
       </c>
-      <c r="C47" s="0" t="s">
+      <c r="C47" t="s">
         <v>168</v>
       </c>
-      <c r="D47" s="0" t="s">
+      <c r="D47" t="s">
         <v>169</v>
       </c>
-      <c r="E47" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F47" s="0" t="s">
+      <c r="E47" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:7">
       <c r="A48" s="2">
         <v>47</v>
       </c>
-      <c r="B48" s="0" t="s">
+      <c r="B48" t="s">
         <v>171</v>
       </c>
-      <c r="C48" s="0" t="s">
+      <c r="C48" t="s">
         <v>172</v>
       </c>
-      <c r="D48" s="0" t="s">
+      <c r="D48" t="s">
         <v>173</v>
       </c>
-      <c r="E48" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F48" s="0" t="s">
+      <c r="E48" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:7">
       <c r="A49" s="2">
         <v>48</v>
       </c>
-      <c r="B49" s="0" t="s">
+      <c r="B49" t="s">
         <v>175</v>
       </c>
-      <c r="C49" s="0" t="s">
+      <c r="C49" t="s">
         <v>176</v>
       </c>
-      <c r="D49" s="0" t="s">
+      <c r="D49" t="s">
         <v>177</v>
       </c>
-      <c r="E49" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F49" s="0" t="s">
+      <c r="E49" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:7">
       <c r="A50" s="2">
         <v>49</v>
       </c>
-      <c r="B50" s="0" t="s">
+      <c r="B50" t="s">
         <v>179</v>
       </c>
-      <c r="C50" s="0" t="s">
+      <c r="C50" t="s">
         <v>180</v>
       </c>
-      <c r="D50" s="0" t="s">
+      <c r="D50" t="s">
         <v>181</v>
       </c>
-      <c r="E50" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F50" s="0" t="s">
+      <c r="E50" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:7">
       <c r="A51" s="2">
         <v>50</v>
       </c>
-      <c r="B51" s="0" t="s">
+      <c r="B51" t="s">
         <v>182</v>
       </c>
-      <c r="C51" s="0" t="s">
+      <c r="C51" t="s">
         <v>183</v>
       </c>
-      <c r="D51" s="0" t="s">
+      <c r="D51" t="s">
         <v>184</v>
       </c>
-      <c r="E51" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F51" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52">
+      <c r="E51" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="2">
         <v>51</v>
       </c>
-      <c r="B52" s="0" t="s">
+      <c r="B52" t="s">
         <v>185</v>
       </c>
-      <c r="C52" s="0" t="s">
+      <c r="C52" t="s">
         <v>185</v>
       </c>
-      <c r="D52" s="0" t="s">
+      <c r="D52" t="s">
         <v>186</v>
       </c>
-      <c r="E52" s="0" t="s">
+      <c r="E52" t="s">
         <v>25</v>
       </c>
-      <c r="F52" s="0" t="s">
+      <c r="F52" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:7">
       <c r="A53" s="2">
         <v>52</v>
       </c>
-      <c r="B53" s="0" t="s">
+      <c r="B53" t="s">
         <v>187</v>
       </c>
-      <c r="C53" s="0" t="s">
+      <c r="C53" t="s">
         <v>188</v>
       </c>
-      <c r="D53" s="0" t="s">
+      <c r="D53" t="s">
         <v>189</v>
       </c>
-      <c r="E53" s="0" t="s">
+      <c r="E53" t="s">
         <v>30</v>
       </c>
-      <c r="F53" s="0" t="s">
+      <c r="F53" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:7">
       <c r="A54" s="2">
         <v>53</v>
       </c>
-      <c r="B54" s="0" t="s">
+      <c r="B54" t="s">
         <v>191</v>
       </c>
-      <c r="C54" s="0" t="s">
+      <c r="C54" t="s">
         <v>192</v>
       </c>
-      <c r="D54" s="0" t="s">
+      <c r="D54" t="s">
         <v>193</v>
       </c>
-      <c r="E54" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F54" s="0" t="s">
+      <c r="E54" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:7">
       <c r="A55" s="2">
         <v>54</v>
       </c>
-      <c r="B55" s="0" t="s">
+      <c r="B55" t="s">
         <v>194</v>
       </c>
-      <c r="C55" s="0" t="s">
+      <c r="C55" t="s">
         <v>194</v>
       </c>
-      <c r="D55" s="0" t="s">
+      <c r="D55" t="s">
         <v>195</v>
       </c>
-      <c r="E55" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F55" s="0" t="s">
+      <c r="E55" t="s">
+        <v>9</v>
+      </c>
+      <c r="F55" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:7">
       <c r="A56" s="2">
         <v>55</v>
       </c>
-      <c r="B56" s="0" t="s">
+      <c r="B56" t="s">
         <v>197</v>
       </c>
-      <c r="C56" s="0" t="s">
+      <c r="C56" t="s">
         <v>198</v>
       </c>
-      <c r="D56" s="0" t="s">
+      <c r="D56" t="s">
         <v>199</v>
       </c>
-      <c r="E56" s="0" t="s">
+      <c r="E56" t="s">
         <v>25</v>
       </c>
-      <c r="F56" s="0" t="s">
+      <c r="F56" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:7">
       <c r="A57" s="2">
         <v>56</v>
       </c>
-      <c r="B57" s="0" t="s">
+      <c r="B57" t="s">
         <v>200</v>
       </c>
-      <c r="C57" s="0" t="s">
+      <c r="C57" t="s">
         <v>200</v>
       </c>
-      <c r="D57" s="0" t="s">
+      <c r="D57" t="s">
         <v>201</v>
       </c>
-      <c r="E57" s="0" t="s">
+      <c r="E57" t="s">
         <v>25</v>
       </c>
-      <c r="F57" s="0" t="s">
+      <c r="F57" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:7">
       <c r="A58" s="2">
         <v>57</v>
       </c>
-      <c r="B58" s="0" t="s">
+      <c r="B58" t="s">
         <v>202</v>
       </c>
-      <c r="C58" s="0" t="s">
+      <c r="C58" t="s">
         <v>202</v>
       </c>
-      <c r="D58" s="0" t="s">
+      <c r="D58" t="s">
         <v>203</v>
       </c>
-      <c r="E58" s="0" t="s">
+      <c r="E58" t="s">
         <v>25</v>
       </c>
-      <c r="F58" s="0" t="s">
+      <c r="F58" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:7">
       <c r="A59" s="2">
         <v>58</v>
       </c>
-      <c r="B59" s="0" t="s">
+      <c r="B59" t="s">
         <v>205</v>
       </c>
-      <c r="C59" s="0" t="s">
+      <c r="C59" t="s">
         <v>206</v>
       </c>
-      <c r="D59" s="0" t="s">
+      <c r="D59" t="s">
         <v>207</v>
       </c>
-      <c r="E59" s="0" t="s">
+      <c r="E59" t="s">
         <v>30</v>
       </c>
-      <c r="F59" s="0" t="s">
+      <c r="F59" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:7">
       <c r="A60" s="2">
         <v>59</v>
       </c>
-      <c r="B60" s="0" t="s">
+      <c r="B60" t="s">
         <v>209</v>
       </c>
-      <c r="C60" s="0" t="s">
+      <c r="C60" t="s">
         <v>209</v>
       </c>
-      <c r="D60" s="0" t="s">
+      <c r="D60" t="s">
         <v>210</v>
       </c>
-      <c r="E60" s="0" t="s">
+      <c r="E60" t="s">
         <v>30</v>
       </c>
-      <c r="F60" s="0" t="s">
+      <c r="F60" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:7">
       <c r="A61" s="2">
         <v>60</v>
       </c>
-      <c r="B61" s="0" t="s">
+      <c r="B61" t="s">
         <v>212</v>
       </c>
-      <c r="C61" s="0" t="s">
+      <c r="C61" t="s">
         <v>212</v>
       </c>
-      <c r="D61" s="0" t="s">
+      <c r="D61" t="s">
         <v>213</v>
       </c>
-      <c r="E61" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F61" s="0" t="s">
+      <c r="E61" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:7">
       <c r="A62" s="2">
         <v>61</v>
       </c>
-      <c r="B62" s="0" t="s">
+      <c r="B62" t="s">
         <v>214</v>
       </c>
-      <c r="C62" s="0" t="s">
+      <c r="C62" t="s">
         <v>214</v>
       </c>
-      <c r="D62" s="0" t="s">
+      <c r="D62" t="s">
         <v>215</v>
       </c>
-      <c r="E62" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F62" s="0" t="s">
+      <c r="E62" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:7">
       <c r="A63" s="2">
         <v>62</v>
       </c>
-      <c r="B63" s="0" t="s">
+      <c r="B63" t="s">
         <v>217</v>
       </c>
-      <c r="C63" s="0" t="s">
+      <c r="C63" t="s">
         <v>218</v>
       </c>
-      <c r="D63" s="0" t="s">
+      <c r="D63" t="s">
         <v>219</v>
       </c>
-      <c r="E63" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F63" s="0" t="s">
+      <c r="E63" t="s">
+        <v>9</v>
+      </c>
+      <c r="F63" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:7">
       <c r="A64" s="2">
         <v>63</v>
       </c>
-      <c r="B64" s="0" t="s">
+      <c r="B64" t="s">
         <v>221</v>
       </c>
-      <c r="C64" s="0" t="s">
+      <c r="C64" t="s">
         <v>221</v>
       </c>
-      <c r="D64" s="0" t="s">
+      <c r="D64" t="s">
         <v>222</v>
       </c>
-      <c r="E64" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F64" s="0" t="s">
+      <c r="E64" t="s">
+        <v>10</v>
+      </c>
+      <c r="F64" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:7">
       <c r="A65" s="2">
         <v>64</v>
       </c>
-      <c r="B65" s="0" t="s">
+      <c r="B65" t="s">
         <v>224</v>
       </c>
-      <c r="C65" s="0" t="s">
+      <c r="C65" t="s">
         <v>224</v>
       </c>
-      <c r="D65" s="0" t="s">
+      <c r="D65" t="s">
         <v>225</v>
       </c>
-      <c r="E65" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F65" s="0" t="s">
+      <c r="E65" t="s">
+        <v>9</v>
+      </c>
+      <c r="F65" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:7">
       <c r="A66" s="2">
         <v>65</v>
       </c>
-      <c r="B66" s="0" t="s">
+      <c r="B66" t="s">
         <v>227</v>
       </c>
-      <c r="C66" s="0" t="s">
+      <c r="C66" t="s">
         <v>228</v>
       </c>
-      <c r="D66" s="0" t="s">
+      <c r="D66" t="s">
         <v>229</v>
       </c>
-      <c r="E66" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F66" s="0" t="s">
+      <c r="E66" t="s">
+        <v>9</v>
+      </c>
+      <c r="F66" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:7">
       <c r="A67" s="2">
         <v>66</v>
       </c>
-      <c r="B67" s="0" t="s">
+      <c r="B67" t="s">
         <v>230</v>
       </c>
-      <c r="C67" s="0" t="s">
+      <c r="C67" t="s">
         <v>231</v>
       </c>
-      <c r="D67" s="0" t="s">
+      <c r="D67" t="s">
         <v>232</v>
       </c>
-      <c r="E67" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F67" s="0" t="s">
+      <c r="E67" t="s">
+        <v>10</v>
+      </c>
+      <c r="F67" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:7">
       <c r="A68" s="2">
         <v>67</v>
       </c>
-      <c r="B68" s="0" t="s">
+      <c r="B68" t="s">
         <v>234</v>
       </c>
-      <c r="C68" s="0" t="s">
+      <c r="C68" t="s">
         <v>235</v>
       </c>
-      <c r="D68" s="0" t="s">
+      <c r="D68" t="s">
         <v>236</v>
       </c>
-      <c r="E68" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F68" s="0" t="s">
+      <c r="E68" t="s">
+        <v>10</v>
+      </c>
+      <c r="F68" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:7">
       <c r="A69" s="2">
         <v>68</v>
       </c>
-      <c r="B69" s="0" t="s">
+      <c r="B69" t="s">
         <v>237</v>
       </c>
-      <c r="C69" s="0" t="s">
+      <c r="C69" t="s">
         <v>237</v>
       </c>
-      <c r="D69" s="0" t="s">
+      <c r="D69" t="s">
         <v>238</v>
       </c>
-      <c r="E69" s="0" t="s">
+      <c r="E69" t="s">
         <v>30</v>
       </c>
-      <c r="F69" s="0" t="s">
+      <c r="F69" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:7">
       <c r="A70" s="2">
         <v>69</v>
       </c>
-      <c r="B70" s="0" t="s">
+      <c r="B70" t="s">
         <v>240</v>
       </c>
-      <c r="C70" s="0" t="s">
+      <c r="C70" t="s">
         <v>240</v>
       </c>
-      <c r="D70" s="0" t="s">
+      <c r="D70" t="s">
         <v>241</v>
       </c>
-      <c r="E70" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F70" s="0" t="s">
+      <c r="E70" t="s">
+        <v>9</v>
+      </c>
+      <c r="F70" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:7">
       <c r="A71" s="2">
         <v>70</v>
       </c>
-      <c r="B71" s="0" t="s">
+      <c r="B71" t="s">
         <v>242</v>
       </c>
-      <c r="C71" s="0" t="s">
+      <c r="C71" t="s">
         <v>243</v>
       </c>
-      <c r="D71" s="0" t="s">
+      <c r="D71" t="s">
         <v>244</v>
       </c>
-      <c r="E71" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F71" s="0" t="s">
+      <c r="E71" t="s">
+        <v>9</v>
+      </c>
+      <c r="F71" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:7">
       <c r="A72" s="2">
         <v>71</v>
       </c>
-      <c r="B72" s="0" t="s">
+      <c r="B72" t="s">
         <v>245</v>
       </c>
-      <c r="C72" s="0" t="s">
+      <c r="C72" t="s">
         <v>246</v>
       </c>
-      <c r="D72" s="0" t="s">
+      <c r="D72" t="s">
         <v>247</v>
       </c>
-      <c r="E72" s="0" t="s">
+      <c r="E72" t="s">
         <v>25</v>
       </c>
-      <c r="F72" s="0" t="s">
+      <c r="F72" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:7">
       <c r="A73" s="2">
         <v>72</v>
       </c>
-      <c r="B73" s="0" t="s">
+      <c r="B73" t="s">
         <v>248</v>
       </c>
-      <c r="C73" s="0" t="s">
+      <c r="C73" t="s">
         <v>248</v>
       </c>
-      <c r="D73" s="0" t="s">
+      <c r="D73" t="s">
         <v>249</v>
       </c>
-      <c r="E73" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F73" s="0" t="s">
+      <c r="E73" t="s">
+        <v>10</v>
+      </c>
+      <c r="F73" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:7">
       <c r="A74" s="2">
         <v>73</v>
       </c>
-      <c r="B74" s="0" t="s">
+      <c r="B74" t="s">
         <v>250</v>
       </c>
-      <c r="C74" s="0" t="s">
+      <c r="C74" t="s">
         <v>251</v>
       </c>
-      <c r="D74" s="0" t="s">
+      <c r="D74" t="s">
         <v>252</v>
       </c>
-      <c r="E74" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F74" s="0" t="s">
+      <c r="E74" t="s">
+        <v>9</v>
+      </c>
+      <c r="F74" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:7">
       <c r="A75" s="2">
         <v>74</v>
       </c>
-      <c r="B75" s="0" t="s">
+      <c r="B75" t="s">
         <v>254</v>
       </c>
-      <c r="C75" s="0" t="s">
+      <c r="C75" t="s">
         <v>255</v>
       </c>
-      <c r="D75" s="0" t="s">
+      <c r="D75" t="s">
         <v>256</v>
       </c>
-      <c r="E75" s="0" t="s">
+      <c r="E75" t="s">
         <v>25</v>
       </c>
-      <c r="F75" s="0" t="s">
+      <c r="F75" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:7">
       <c r="A76" s="2">
         <v>75</v>
       </c>
-      <c r="B76" s="0" t="s">
+      <c r="B76" t="s">
         <v>257</v>
       </c>
-      <c r="C76" s="0" t="s">
+      <c r="C76" t="s">
         <v>258</v>
       </c>
-      <c r="D76" s="0" t="s">
+      <c r="D76" t="s">
         <v>259</v>
       </c>
-      <c r="E76" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F76" s="0" t="s">
+      <c r="E76" t="s">
+        <v>9</v>
+      </c>
+      <c r="F76" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:7">
       <c r="A77" s="2">
         <v>76</v>
       </c>
-      <c r="B77" s="0" t="s">
+      <c r="B77" t="s">
         <v>261</v>
       </c>
-      <c r="C77" s="0" t="s">
+      <c r="C77" t="s">
         <v>262</v>
       </c>
-      <c r="D77" s="0" t="s">
+      <c r="D77" t="s">
         <v>263</v>
       </c>
-      <c r="E77" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F77" s="0" t="s">
+      <c r="E77" t="s">
+        <v>9</v>
+      </c>
+      <c r="F77" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:7">
       <c r="A78" s="2">
         <v>77</v>
       </c>
-      <c r="B78" s="0" t="s">
+      <c r="B78" t="s">
         <v>264</v>
       </c>
-      <c r="C78" s="0" t="s">
+      <c r="C78" t="s">
         <v>265</v>
       </c>
-      <c r="D78" s="0" t="s">
+      <c r="D78" t="s">
         <v>266</v>
       </c>
-      <c r="E78" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F78" s="0" t="s">
+      <c r="E78" t="s">
+        <v>9</v>
+      </c>
+      <c r="F78" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:7">
       <c r="A79" s="2">
         <v>78</v>
       </c>
-      <c r="B79" s="0" t="s">
+      <c r="B79" t="s">
         <v>267</v>
       </c>
-      <c r="C79" s="0" t="s">
+      <c r="C79" t="s">
         <v>267</v>
       </c>
-      <c r="D79" s="0" t="s">
+      <c r="D79" t="s">
         <v>268</v>
       </c>
-      <c r="E79" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F79" s="0" t="s">
+      <c r="E79" t="s">
+        <v>9</v>
+      </c>
+      <c r="F79" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:7">
       <c r="A80" s="2">
         <v>79</v>
       </c>
-      <c r="B80" s="0" t="s">
+      <c r="B80" t="s">
         <v>269</v>
       </c>
-      <c r="C80" s="0" t="s">
+      <c r="C80" t="s">
         <v>270</v>
       </c>
-      <c r="D80" s="0" t="s">
+      <c r="D80" t="s">
         <v>271</v>
       </c>
-      <c r="E80" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F80" s="0" t="s">
+      <c r="E80" t="s">
+        <v>9</v>
+      </c>
+      <c r="F80" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:6">
       <c r="A81" s="2">
         <v>80</v>
       </c>
-      <c r="B81" s="0" t="s">
+      <c r="B81" t="s">
         <v>272</v>
       </c>
-      <c r="C81" s="0" t="s">
+      <c r="C81" t="s">
         <v>272</v>
       </c>
-      <c r="D81" s="0" t="s">
+      <c r="D81" t="s">
         <v>273</v>
       </c>
-      <c r="E81" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F81" s="0" t="s">
+      <c r="E81" t="s">
+        <v>9</v>
+      </c>
+      <c r="F81" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:6">
       <c r="A82" s="2">
         <v>81</v>
       </c>
-      <c r="B82" s="0" t="s">
+      <c r="B82" t="s">
         <v>274</v>
       </c>
-      <c r="C82" s="0" t="s">
+      <c r="C82" t="s">
         <v>275</v>
       </c>
-      <c r="D82" s="0" t="s">
+      <c r="D82" t="s">
         <v>276</v>
       </c>
-      <c r="E82" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F82" s="0" t="s">
+      <c r="E82" t="s">
+        <v>9</v>
+      </c>
+      <c r="F82" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:6">
       <c r="A83" s="2">
         <v>82</v>
       </c>
-      <c r="B83" s="0" t="s">
+      <c r="B83" t="s">
         <v>277</v>
       </c>
-      <c r="C83" s="0" t="s">
+      <c r="C83" t="s">
         <v>277</v>
       </c>
-      <c r="D83" s="0" t="s">
+      <c r="D83" t="s">
         <v>278</v>
       </c>
-      <c r="E83" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F83" s="0" t="s">
+      <c r="E83" t="s">
+        <v>9</v>
+      </c>
+      <c r="F83" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:6">
       <c r="A84" s="2">
         <v>83</v>
       </c>
-      <c r="B84" s="0" t="s">
+      <c r="B84" t="s">
         <v>279</v>
       </c>
-      <c r="C84" s="0" t="s">
+      <c r="C84" t="s">
         <v>280</v>
       </c>
-      <c r="D84" s="0" t="s">
+      <c r="D84" t="s">
         <v>281</v>
       </c>
-      <c r="E84" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F84" s="0" t="s">
+      <c r="E84" t="s">
+        <v>9</v>
+      </c>
+      <c r="F84" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:6">
       <c r="A85" s="2">
         <v>84</v>
       </c>
-      <c r="B85" s="0" t="s">
+      <c r="B85" t="s">
         <v>282</v>
       </c>
-      <c r="C85" s="0" t="s">
+      <c r="C85" t="s">
         <v>283</v>
       </c>
-      <c r="D85" s="0" t="s">
+      <c r="D85" t="s">
         <v>284</v>
       </c>
-      <c r="E85" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F85" s="0" t="s">
+      <c r="E85" t="s">
+        <v>9</v>
+      </c>
+      <c r="F85" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:6">
       <c r="A86" s="2">
         <v>85</v>
       </c>
-      <c r="B86" s="0" t="s">
+      <c r="B86" t="s">
         <v>285</v>
       </c>
-      <c r="C86" s="0" t="s">
+      <c r="C86" t="s">
         <v>286</v>
       </c>
-      <c r="D86" s="0" t="s">
+      <c r="D86" t="s">
         <v>287</v>
       </c>
-      <c r="E86" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F86" s="0" t="s">
+      <c r="E86" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F86" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:6">
       <c r="A87" s="2">
         <v>86</v>
       </c>
-      <c r="B87" s="0" t="s">
+      <c r="B87" t="s">
         <v>288</v>
       </c>
-      <c r="C87" s="0" t="s">
+      <c r="C87" t="s">
         <v>288</v>
       </c>
-      <c r="D87" s="0" t="s">
+      <c r="D87" t="s">
         <v>289</v>
       </c>
-      <c r="E87" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F87" s="0" t="s">
+      <c r="E87" t="s">
+        <v>9</v>
+      </c>
+      <c r="F87" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:6">
       <c r="A88" s="2">
         <v>87</v>
       </c>
-      <c r="B88" s="0" t="s">
+      <c r="B88" t="s">
         <v>290</v>
       </c>
-      <c r="C88" s="0" t="s">
+      <c r="C88" t="s">
         <v>291</v>
       </c>
-      <c r="D88" s="0" t="s">
+      <c r="D88" t="s">
         <v>292</v>
       </c>
-      <c r="E88" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F88" s="0" t="s">
+      <c r="E88" t="s">
+        <v>9</v>
+      </c>
+      <c r="F88" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:6">
       <c r="A89" s="2">
         <v>88</v>
       </c>
-      <c r="B89" s="0" t="s">
+      <c r="B89" t="s">
         <v>293</v>
       </c>
-      <c r="C89" s="0" t="s">
+      <c r="C89" t="s">
         <v>294</v>
       </c>
-      <c r="D89" s="0" t="s">
+      <c r="D89" t="s">
         <v>295</v>
       </c>
-      <c r="E89" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F89" s="0" t="s">
+      <c r="E89" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F89" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:6">
       <c r="A90" s="2">
         <v>89</v>
       </c>
-      <c r="B90" s="0" t="s">
+      <c r="B90" t="s">
         <v>296</v>
       </c>
-      <c r="C90" s="0" t="s">
+      <c r="C90" t="s">
         <v>297</v>
       </c>
-      <c r="D90" s="0" t="s">
+      <c r="D90" t="s">
         <v>298</v>
       </c>
-      <c r="E90" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F90" s="0" t="s">
+      <c r="E90" t="s">
+        <v>9</v>
+      </c>
+      <c r="F90" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:6">
       <c r="A91" s="2">
         <v>90</v>
       </c>
-      <c r="B91" s="0" t="s">
+      <c r="B91" t="s">
         <v>299</v>
       </c>
-      <c r="C91" s="0" t="s">
+      <c r="C91" t="s">
         <v>299</v>
       </c>
-      <c r="D91" s="0" t="s">
+      <c r="D91" t="s">
         <v>300</v>
       </c>
-      <c r="E91" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F91" s="0" t="s">
+      <c r="E91" t="s">
+        <v>9</v>
+      </c>
+      <c r="F91" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:6">
       <c r="A92" s="2">
         <v>91</v>
       </c>
-      <c r="B92" s="0" t="s">
+      <c r="B92" t="s">
         <v>301</v>
       </c>
-      <c r="C92" s="0" t="s">
+      <c r="C92" t="s">
         <v>301</v>
       </c>
-      <c r="D92" s="0" t="s">
+      <c r="D92" t="s">
         <v>302</v>
       </c>
-      <c r="E92" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F92" s="0" t="s">
+      <c r="E92" t="s">
+        <v>9</v>
+      </c>
+      <c r="F92" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:6">
       <c r="A93" s="2">
         <v>92</v>
       </c>
-      <c r="B93" s="0" t="s">
+      <c r="B93" t="s">
         <v>303</v>
       </c>
-      <c r="C93" s="0" t="s">
+      <c r="C93" t="s">
         <v>304</v>
       </c>
-      <c r="D93" s="0" t="s">
+      <c r="D93" t="s">
         <v>305</v>
       </c>
-      <c r="E93" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F93" s="0" t="s">
+      <c r="E93" t="s">
+        <v>9</v>
+      </c>
+      <c r="F93" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:6">
       <c r="A94" s="2">
         <v>93</v>
       </c>
-      <c r="B94" s="0" t="s">
+      <c r="B94" t="s">
         <v>306</v>
       </c>
-      <c r="C94" s="0" t="s">
+      <c r="C94" t="s">
         <v>307</v>
       </c>
-      <c r="D94" s="0" t="s">
+      <c r="D94" t="s">
         <v>308</v>
       </c>
-      <c r="E94" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F94" s="0" t="s">
+      <c r="E94" t="s">
+        <v>9</v>
+      </c>
+      <c r="F94" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:6">
       <c r="A95" s="2">
         <v>94</v>
       </c>
-      <c r="B95" s="0" t="s">
+      <c r="B95" t="s">
         <v>309</v>
       </c>
-      <c r="C95" s="0" t="s">
+      <c r="C95" t="s">
         <v>310</v>
       </c>
-      <c r="D95" s="0" t="s">
+      <c r="D95" t="s">
         <v>311</v>
       </c>
-      <c r="E95" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F95" s="0" t="s">
+      <c r="E95" t="s">
+        <v>9</v>
+      </c>
+      <c r="F95" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:6">
       <c r="A96" s="2">
         <v>95</v>
       </c>
-      <c r="B96" s="0" t="s">
+      <c r="B96" t="s">
         <v>312</v>
       </c>
-      <c r="C96" s="0" t="s">
+      <c r="C96" t="s">
         <v>312</v>
       </c>
-      <c r="D96" s="0" t="s">
+      <c r="D96" t="s">
         <v>313</v>
       </c>
-      <c r="E96" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F96" s="0" t="s">
+      <c r="E96" t="s">
+        <v>9</v>
+      </c>
+      <c r="F96" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:6">
       <c r="A97" s="2">
         <v>96</v>
       </c>
-      <c r="B97" s="0" t="s">
+      <c r="B97" t="s">
         <v>314</v>
       </c>
-      <c r="C97" s="0" t="s">
+      <c r="C97" t="s">
         <v>315</v>
       </c>
-      <c r="D97" s="0" t="s">
+      <c r="D97" t="s">
         <v>316</v>
       </c>
-      <c r="E97" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F97" s="0" t="s">
+      <c r="E97" t="s">
+        <v>9</v>
+      </c>
+      <c r="F97" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:6">
       <c r="A98" s="2">
         <v>97</v>
       </c>
-      <c r="B98" s="0" t="s">
+      <c r="B98" t="s">
         <v>317</v>
       </c>
-      <c r="C98" s="0" t="s">
+      <c r="C98" t="s">
         <v>317</v>
       </c>
-      <c r="D98" s="0" t="s">
+      <c r="D98" t="s">
         <v>318</v>
       </c>
-      <c r="E98" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F98" s="0" t="s">
+      <c r="E98" t="s">
+        <v>9</v>
+      </c>
+      <c r="F98" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:6">
       <c r="A99" s="2">
         <v>98</v>
       </c>
-      <c r="B99" s="0" t="s">
+      <c r="B99" t="s">
         <v>319</v>
       </c>
-      <c r="C99" s="0" t="s">
+      <c r="C99" t="s">
         <v>320</v>
       </c>
-      <c r="D99" s="0" t="s">
+      <c r="D99" t="s">
         <v>321</v>
       </c>
-      <c r="E99" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F99" s="0" t="s">
+      <c r="E99" t="s">
+        <v>9</v>
+      </c>
+      <c r="F99" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:6">
       <c r="A100" s="2">
         <v>99</v>
       </c>
-      <c r="B100" s="0" t="s">
+      <c r="B100" t="s">
         <v>322</v>
       </c>
-      <c r="C100" s="0" t="s">
+      <c r="C100" t="s">
         <v>323</v>
       </c>
-      <c r="D100" s="0" t="s">
+      <c r="D100" t="s">
         <v>324</v>
       </c>
-      <c r="E100" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F100" s="0" t="s">
+      <c r="E100" t="s">
+        <v>9</v>
+      </c>
+      <c r="F100" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:6">
       <c r="A101" s="2">
         <v>100</v>
       </c>
-      <c r="B101" s="0" t="s">
+      <c r="B101" t="s">
         <v>325</v>
       </c>
-      <c r="C101" s="0" t="s">
+      <c r="C101" t="s">
         <v>325</v>
       </c>
-      <c r="D101" s="0" t="s">
+      <c r="D101" t="s">
         <v>326</v>
       </c>
-      <c r="E101" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F101" s="0" t="s">
+      <c r="E101" t="s">
+        <v>9</v>
+      </c>
+      <c r="F101" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:6">
       <c r="A102" s="2">
         <v>101</v>
       </c>
-      <c r="B102" s="0" t="s">
+      <c r="B102" t="s">
         <v>327</v>
       </c>
-      <c r="C102" s="0" t="s">
+      <c r="C102" t="s">
         <v>328</v>
       </c>
-      <c r="D102" s="0" t="s">
+      <c r="D102" t="s">
         <v>329</v>
       </c>
-      <c r="E102" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F102" s="0" t="s">
+      <c r="E102" t="s">
+        <v>9</v>
+      </c>
+      <c r="F102" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:6">
       <c r="A103" s="2">
         <v>102</v>
       </c>
-      <c r="B103" s="0" t="s">
+      <c r="B103" t="s">
         <v>330</v>
       </c>
-      <c r="C103" s="0" t="s">
+      <c r="C103" t="s">
         <v>330</v>
       </c>
-      <c r="D103" s="0" t="s">
+      <c r="D103" t="s">
         <v>331</v>
       </c>
-      <c r="E103" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F103" s="0" t="s">
+      <c r="E103" t="s">
+        <v>9</v>
+      </c>
+      <c r="F103" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:6">
       <c r="A104" s="2">
         <v>103</v>
       </c>
-      <c r="B104" s="0" t="s">
+      <c r="B104" t="s">
         <v>332</v>
       </c>
-      <c r="C104" s="0" t="s">
+      <c r="C104" t="s">
         <v>333</v>
       </c>
-      <c r="D104" s="0" t="s">
+      <c r="D104" t="s">
         <v>334</v>
       </c>
-      <c r="E104" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F104" s="0" t="s">
+      <c r="E104" t="s">
+        <v>9</v>
+      </c>
+      <c r="F104" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:6">
       <c r="A105" s="2">
         <v>104</v>
       </c>
-      <c r="B105" s="0" t="s">
+      <c r="B105" t="s">
         <v>335</v>
       </c>
-      <c r="C105" s="0" t="s">
+      <c r="C105" t="s">
         <v>336</v>
       </c>
-      <c r="D105" s="0" t="s">
+      <c r="D105" t="s">
         <v>337</v>
       </c>
-      <c r="E105" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F105" s="0" t="s">
+      <c r="E105" t="s">
+        <v>9</v>
+      </c>
+      <c r="F105" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:6">
       <c r="A106" s="2">
         <v>105</v>
       </c>
-      <c r="B106" s="0" t="s">
+      <c r="B106" t="s">
         <v>338</v>
       </c>
-      <c r="C106" s="0" t="s">
+      <c r="C106" t="s">
         <v>339</v>
       </c>
-      <c r="D106" s="0" t="s">
+      <c r="D106" t="s">
         <v>340</v>
       </c>
-      <c r="E106" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F106" s="0" t="s">
+      <c r="E106" t="s">
+        <v>9</v>
+      </c>
+      <c r="F106" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:6">
       <c r="A107" s="2">
         <v>106</v>
       </c>
-      <c r="B107" s="0" t="s">
+      <c r="B107" t="s">
         <v>341</v>
       </c>
-      <c r="C107" s="0" t="s">
+      <c r="C107" t="s">
         <v>342</v>
       </c>
-      <c r="D107" s="0" t="s">
+      <c r="D107" t="s">
         <v>343</v>
       </c>
-      <c r="E107" s="0" t="s">
+      <c r="E107" t="s">
         <v>30</v>
       </c>
       <c r="F107" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:6">
       <c r="A108" s="2">
         <v>107</v>
       </c>
-      <c r="B108" s="0" t="s">
+      <c r="B108" t="s">
         <v>345</v>
       </c>
-      <c r="C108" s="0" t="s">
+      <c r="C108" t="s">
         <v>346</v>
       </c>
-      <c r="D108" s="0" t="s">
+      <c r="D108" t="s">
         <v>347</v>
       </c>
-      <c r="E108" s="0" t="s">
+      <c r="E108" t="s">
         <v>30</v>
       </c>
       <c r="F108" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:6">
       <c r="A109" s="2">
         <v>108</v>
       </c>
-      <c r="B109" s="0" t="s">
+      <c r="B109" t="s">
         <v>348</v>
       </c>
-      <c r="C109" s="0" t="s">
+      <c r="C109" t="s">
         <v>349</v>
       </c>
-      <c r="D109" s="0" t="s">
+      <c r="D109" t="s">
         <v>350</v>
       </c>
-      <c r="E109" s="0" t="s">
+      <c r="E109" t="s">
         <v>30</v>
       </c>
       <c r="F109" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:6">
       <c r="A110" s="2">
         <v>109</v>
       </c>
-      <c r="B110" s="0" t="s">
+      <c r="B110" t="s">
         <v>351</v>
       </c>
-      <c r="C110" s="0" t="s">
+      <c r="C110" t="s">
         <v>352</v>
       </c>
-      <c r="D110" s="0" t="s">
+      <c r="D110" t="s">
         <v>353</v>
       </c>
-      <c r="E110" s="0" t="s">
+      <c r="E110" t="s">
         <v>30</v>
       </c>
       <c r="F110" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:6">
       <c r="A111" s="2">
         <v>110</v>
       </c>
-      <c r="B111" s="0" t="s">
+      <c r="B111" t="s">
         <v>354</v>
       </c>
-      <c r="C111" s="0" t="s">
+      <c r="C111" t="s">
         <v>355</v>
       </c>
-      <c r="D111" s="0" t="s">
+      <c r="D111" t="s">
         <v>356</v>
       </c>
-      <c r="E111" s="0" t="s">
+      <c r="E111" t="s">
         <v>10</v>
       </c>
       <c r="F111" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:6">
       <c r="A112" s="2">
         <v>111</v>
       </c>
-      <c r="B112" s="0" t="s">
+      <c r="B112" t="s">
         <v>357</v>
       </c>
-      <c r="C112" s="0" t="s">
+      <c r="C112" t="s">
         <v>358</v>
       </c>
-      <c r="D112" s="0" t="s">
+      <c r="D112" t="s">
         <v>359</v>
       </c>
-      <c r="E112" s="0" t="s">
+      <c r="E112" t="s">
         <v>30</v>
       </c>
       <c r="F112" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:6">
       <c r="A113" s="2">
         <v>112</v>
       </c>
-      <c r="B113" s="0" t="s">
+      <c r="B113" t="s">
         <v>360</v>
       </c>
-      <c r="C113" s="0" t="s">
+      <c r="C113" t="s">
         <v>361</v>
       </c>
-      <c r="D113" s="0" t="s">
+      <c r="D113" t="s">
         <v>362</v>
       </c>
-      <c r="E113" s="0" t="s">
+      <c r="E113" t="s">
         <v>10</v>
       </c>
       <c r="F113" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:6">
       <c r="A114" s="2">
         <v>113</v>
       </c>
-      <c r="B114" s="0" t="s">
+      <c r="B114" t="s">
         <v>363</v>
       </c>
-      <c r="C114" s="0" t="s">
+      <c r="C114" t="s">
         <v>364</v>
       </c>
-      <c r="D114" s="0" t="s">
+      <c r="D114" t="s">
         <v>365</v>
       </c>
-      <c r="E114" s="0" t="s">
+      <c r="E114" t="s">
         <v>10</v>
       </c>
       <c r="F114" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:6">
       <c r="A115" s="2">
         <v>114</v>
       </c>
-      <c r="B115" s="0" t="s">
+      <c r="B115" t="s">
         <v>366</v>
       </c>
-      <c r="C115" s="0" t="s">
+      <c r="C115" t="s">
         <v>367</v>
       </c>
-      <c r="D115" s="0" t="s">
+      <c r="D115" t="s">
         <v>368</v>
       </c>
-      <c r="E115" s="0" t="s">
+      <c r="E115" t="s">
         <v>10</v>
       </c>
       <c r="F115" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:6">
       <c r="A116" s="2">
         <v>115</v>
       </c>
-      <c r="B116" s="0" t="s">
+      <c r="B116" t="s">
         <v>369</v>
       </c>
-      <c r="C116" s="0" t="s">
+      <c r="C116" t="s">
         <v>370</v>
       </c>
-      <c r="D116" s="0" t="s">
+      <c r="D116" t="s">
         <v>371</v>
       </c>
-      <c r="E116" s="0" t="s">
+      <c r="E116" t="s">
         <v>30</v>
       </c>
       <c r="F116" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:6">
       <c r="A117" s="2">
         <v>116</v>
       </c>
-      <c r="B117" s="0" t="s">
+      <c r="B117" t="s">
         <v>372</v>
       </c>
-      <c r="C117" s="0" t="s">
+      <c r="C117" t="s">
         <v>373</v>
       </c>
-      <c r="D117" s="0" t="s">
+      <c r="D117" t="s">
         <v>374</v>
       </c>
-      <c r="E117" s="0" t="s">
+      <c r="E117" t="s">
         <v>30</v>
       </c>
       <c r="F117" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:6">
       <c r="A118" s="2">
         <v>117</v>
       </c>
-      <c r="B118" s="0" t="s">
+      <c r="B118" t="s">
         <v>375</v>
       </c>
-      <c r="C118" s="0" t="s">
+      <c r="C118" t="s">
         <v>376</v>
       </c>
-      <c r="D118" s="0" t="s">
+      <c r="D118" t="s">
         <v>377</v>
       </c>
-      <c r="E118" s="0" t="s">
+      <c r="E118" t="s">
         <v>10</v>
       </c>
       <c r="F118" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:6">
       <c r="A119" s="2">
         <v>118</v>
       </c>
-      <c r="B119" s="0" t="s">
+      <c r="B119" t="s">
         <v>378</v>
       </c>
-      <c r="C119" s="0" t="s">
+      <c r="C119" t="s">
         <v>379</v>
       </c>
-      <c r="D119" s="0" t="s">
+      <c r="D119" t="s">
         <v>380</v>
       </c>
-      <c r="E119" s="0" t="s">
+      <c r="E119" t="s">
         <v>10</v>
       </c>
       <c r="F119" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:6">
       <c r="A120" s="2">
         <v>119</v>
       </c>
-      <c r="B120" s="0" t="s">
+      <c r="B120" t="s">
         <v>381</v>
       </c>
-      <c r="C120" s="0" t="s">
+      <c r="C120" t="s">
         <v>382</v>
       </c>
-      <c r="D120" s="0" t="s">
+      <c r="D120" t="s">
         <v>383</v>
       </c>
-      <c r="E120" s="0" t="s">
+      <c r="E120" t="s">
         <v>30</v>
       </c>
       <c r="F120" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:6">
       <c r="A121" s="2">
         <v>120</v>
       </c>
-      <c r="B121" s="0" t="s">
+      <c r="B121" t="s">
         <v>384</v>
       </c>
-      <c r="C121" s="0" t="s">
+      <c r="C121" t="s">
         <v>385</v>
       </c>
-      <c r="D121" s="0" t="s">
+      <c r="D121" t="s">
         <v>386</v>
       </c>
-      <c r="E121" s="0" t="s">
+      <c r="E121" t="s">
         <v>30</v>
       </c>
       <c r="F121" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:6">
       <c r="A122" s="2">
         <v>121</v>
       </c>
-      <c r="B122" s="0" t="s">
+      <c r="B122" t="s">
         <v>387</v>
       </c>
-      <c r="C122" s="0" t="s">
+      <c r="C122" t="s">
         <v>388</v>
       </c>
-      <c r="D122" s="0" t="s">
+      <c r="D122" t="s">
         <v>389</v>
       </c>
-      <c r="E122" s="0" t="s">
+      <c r="E122" t="s">
         <v>10</v>
       </c>
       <c r="F122" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:6">
       <c r="A123" s="2">
         <v>122</v>
       </c>
-      <c r="B123" s="0" t="s">
+      <c r="B123" t="s">
         <v>390</v>
       </c>
-      <c r="C123" s="0" t="s">
+      <c r="C123" t="s">
         <v>391</v>
       </c>
-      <c r="D123" s="0" t="s">
+      <c r="D123" t="s">
         <v>392</v>
       </c>
-      <c r="E123" s="0" t="s">
+      <c r="E123" t="s">
         <v>30</v>
       </c>
       <c r="F123" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:6">
       <c r="A124" s="2">
         <v>123</v>
       </c>
-      <c r="B124" s="0" t="s">
+      <c r="B124" t="s">
         <v>393</v>
       </c>
-      <c r="C124" s="0" t="s">
+      <c r="C124" t="s">
         <v>197</v>
       </c>
-      <c r="D124" s="0" t="s">
+      <c r="D124" t="s">
         <v>394</v>
       </c>
-      <c r="E124" s="0" t="s">
+      <c r="E124" t="s">
         <v>30</v>
       </c>
       <c r="F124" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:6">
       <c r="A125" s="2">
         <v>124</v>
       </c>
-      <c r="B125" s="0" t="s">
+      <c r="B125" t="s">
         <v>395</v>
       </c>
-      <c r="C125" s="0" t="s">
+      <c r="C125" t="s">
         <v>396</v>
       </c>
-      <c r="D125" s="0" t="s">
+      <c r="D125" t="s">
         <v>397</v>
       </c>
-      <c r="E125" s="0" t="s">
+      <c r="E125" t="s">
         <v>30</v>
       </c>
       <c r="F125" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:6">
       <c r="A126" s="2">
         <v>125</v>
       </c>
-      <c r="B126" s="0" t="s">
+      <c r="B126" t="s">
         <v>398</v>
       </c>
-      <c r="C126" s="0" t="s">
+      <c r="C126" t="s">
         <v>399</v>
       </c>
-      <c r="D126" s="0" t="s">
+      <c r="D126" t="s">
         <v>400</v>
       </c>
-      <c r="E126" s="0" t="s">
+      <c r="E126" t="s">
         <v>10</v>
       </c>
       <c r="F126" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:6">
       <c r="A127" s="2">
         <v>126</v>
       </c>
-      <c r="B127" s="0" t="s">
+      <c r="B127" t="s">
         <v>401</v>
       </c>
-      <c r="C127" s="0" t="s">
+      <c r="C127" t="s">
         <v>402</v>
       </c>
-      <c r="D127" s="0" t="s">
+      <c r="D127" t="s">
         <v>403</v>
       </c>
-      <c r="E127" s="0" t="s">
+      <c r="E127" t="s">
         <v>9</v>
       </c>
       <c r="F127" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:6">
       <c r="A128" s="2">
         <v>127</v>
       </c>
-      <c r="B128" s="0" t="s">
+      <c r="B128" t="s">
         <v>404</v>
       </c>
-      <c r="C128" s="0" t="s">
+      <c r="C128" t="s">
         <v>405</v>
       </c>
-      <c r="D128" s="0" t="s">
+      <c r="D128" t="s">
         <v>406</v>
       </c>
-      <c r="E128" s="0" t="s">
+      <c r="E128" t="s">
         <v>30</v>
       </c>
       <c r="F128" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:6">
       <c r="A129" s="2">
         <v>128</v>
       </c>
-      <c r="B129" s="0" t="s">
+      <c r="B129" t="s">
         <v>407</v>
       </c>
-      <c r="C129" s="0" t="s">
+      <c r="C129" t="s">
         <v>408</v>
       </c>
-      <c r="D129" s="0" t="s">
+      <c r="D129" t="s">
         <v>409</v>
       </c>
-      <c r="E129" s="0" t="s">
+      <c r="E129" t="s">
         <v>30</v>
       </c>
       <c r="F129" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:6">
       <c r="A130" s="2">
         <v>129</v>
       </c>
-      <c r="B130" s="0" t="s">
+      <c r="B130" t="s">
         <v>410</v>
       </c>
-      <c r="C130" s="0" t="s">
+      <c r="C130" t="s">
         <v>411</v>
       </c>
-      <c r="D130" s="0" t="s">
+      <c r="D130" t="s">
         <v>412</v>
       </c>
-      <c r="E130" s="0" t="s">
+      <c r="E130" t="s">
         <v>10</v>
       </c>
       <c r="F130" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:6">
       <c r="A131" s="2">
         <v>130</v>
       </c>
-      <c r="B131" s="0" t="s">
+      <c r="B131" t="s">
         <v>413</v>
       </c>
-      <c r="C131" s="0" t="s">
+      <c r="C131" t="s">
         <v>414</v>
       </c>
-      <c r="D131" s="0" t="s">
+      <c r="D131" t="s">
         <v>415</v>
       </c>
-      <c r="E131" s="0" t="s">
+      <c r="E131" t="s">
         <v>30</v>
       </c>
       <c r="F131" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:6">
       <c r="A132" s="2">
         <v>131</v>
       </c>
-      <c r="B132" s="0" t="s">
+      <c r="B132" t="s">
         <v>416</v>
       </c>
-      <c r="C132" s="0" t="s">
+      <c r="C132" t="s">
         <v>417</v>
       </c>
-      <c r="D132" s="0" t="s">
+      <c r="D132" t="s">
         <v>418</v>
       </c>
-      <c r="E132" s="0" t="s">
+      <c r="E132" t="s">
         <v>10</v>
       </c>
       <c r="F132" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:6">
       <c r="A133" s="2">
         <v>132</v>
       </c>
-      <c r="B133" s="0" t="s">
+      <c r="B133" t="s">
         <v>419</v>
       </c>
-      <c r="C133" s="0" t="s">
+      <c r="C133" t="s">
         <v>420</v>
       </c>
-      <c r="D133" s="0" t="s">
+      <c r="D133" t="s">
         <v>421</v>
       </c>
-      <c r="E133" s="0" t="s">
+      <c r="E133" t="s">
         <v>9</v>
       </c>
       <c r="F133" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:6">
       <c r="A134" s="2">
         <v>133</v>
       </c>
-      <c r="B134" s="0" t="s">
+      <c r="B134" t="s">
         <v>422</v>
       </c>
-      <c r="C134" s="0" t="s">
+      <c r="C134" t="s">
         <v>243</v>
       </c>
-      <c r="D134" s="0" t="s">
+      <c r="D134" t="s">
         <v>423</v>
       </c>
-      <c r="E134" s="0" t="s">
+      <c r="E134" t="s">
         <v>9</v>
       </c>
       <c r="F134" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:6">
       <c r="A135" s="2">
         <v>134</v>
       </c>
-      <c r="B135" s="0" t="s">
+      <c r="B135" t="s">
         <v>424</v>
       </c>
-      <c r="C135" s="0" t="s">
+      <c r="C135" t="s">
         <v>425</v>
       </c>
-      <c r="D135" s="0" t="s">
+      <c r="D135" t="s">
         <v>426</v>
       </c>
-      <c r="E135" s="0" t="s">
+      <c r="E135" t="s">
         <v>30</v>
       </c>
       <c r="F135" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:6">
       <c r="A136" s="2">
         <v>135</v>
       </c>
-      <c r="B136" s="0" t="s">
+      <c r="B136" t="s">
         <v>427</v>
       </c>
-      <c r="C136" s="0" t="s">
+      <c r="C136" t="s">
         <v>428</v>
       </c>
-      <c r="D136" s="0" t="s">
+      <c r="D136" t="s">
         <v>429</v>
       </c>
-      <c r="E136" s="0" t="s">
+      <c r="E136" t="s">
         <v>10</v>
       </c>
       <c r="F136" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:6">
       <c r="A137" s="2">
         <v>136</v>
       </c>
-      <c r="B137" s="0" t="s">
+      <c r="B137" t="s">
         <v>430</v>
       </c>
-      <c r="C137" s="0" t="s">
+      <c r="C137" t="s">
         <v>431</v>
       </c>
-      <c r="D137" s="0" t="s">
+      <c r="D137" t="s">
         <v>432</v>
       </c>
-      <c r="E137" s="0" t="s">
+      <c r="E137" t="s">
         <v>10</v>
       </c>
       <c r="F137" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:6">
       <c r="A138" s="2">
         <v>137</v>
       </c>
-      <c r="B138" s="0" t="s">
+      <c r="B138" t="s">
         <v>433</v>
       </c>
-      <c r="C138" s="0" t="s">
+      <c r="C138" t="s">
         <v>434</v>
       </c>
-      <c r="D138" s="0" t="s">
+      <c r="D138" t="s">
         <v>435</v>
       </c>
-      <c r="E138" s="0" t="s">
+      <c r="E138" t="s">
         <v>30</v>
       </c>
       <c r="F138" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:6">
       <c r="A139" s="2">
         <v>138</v>
       </c>
-      <c r="B139" s="0" t="s">
+      <c r="B139" t="s">
         <v>436</v>
       </c>
-      <c r="C139" s="0" t="s">
+      <c r="C139" t="s">
         <v>138</v>
       </c>
-      <c r="D139" s="0" t="s">
+      <c r="D139" t="s">
         <v>437</v>
       </c>
-      <c r="E139" s="0" t="s">
+      <c r="E139" t="s">
         <v>10</v>
       </c>
       <c r="F139" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:6">
       <c r="A140" s="2">
         <v>139</v>
       </c>
-      <c r="B140" s="0" t="s">
+      <c r="B140" t="s">
         <v>438</v>
       </c>
-      <c r="C140" s="0" t="s">
+      <c r="C140" t="s">
         <v>439</v>
       </c>
-      <c r="D140" s="0" t="s">
+      <c r="D140" t="s">
         <v>440</v>
       </c>
-      <c r="E140" s="0" t="s">
+      <c r="E140" t="s">
         <v>10</v>
       </c>
       <c r="F140" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:6">
       <c r="A141" s="2">
         <v>140</v>
       </c>
-      <c r="B141" s="0" t="s">
+      <c r="B141" t="s">
         <v>441</v>
       </c>
-      <c r="C141" s="0" t="s">
+      <c r="C141" t="s">
         <v>442</v>
       </c>
-      <c r="D141" s="0" t="s">
+      <c r="D141" t="s">
         <v>443</v>
       </c>
-      <c r="E141" s="0" t="s">
+      <c r="E141" t="s">
         <v>10</v>
       </c>
       <c r="F141" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:6">
       <c r="A142" s="2">
         <v>141</v>
       </c>
-      <c r="B142" s="0" t="s">
+      <c r="B142" t="s">
         <v>444</v>
       </c>
-      <c r="C142" s="0" t="s">
+      <c r="C142" t="s">
         <v>445</v>
       </c>
-      <c r="D142" s="0" t="s">
+      <c r="D142" t="s">
         <v>446</v>
       </c>
-      <c r="E142" s="0" t="s">
+      <c r="E142" t="s">
         <v>10</v>
       </c>
       <c r="F142" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:6">
       <c r="A143" s="2">
         <v>142</v>
       </c>
-      <c r="B143" s="0" t="s">
+      <c r="B143" t="s">
         <v>447</v>
       </c>
-      <c r="C143" s="0" t="s">
+      <c r="C143" t="s">
         <v>448</v>
       </c>
-      <c r="D143" s="0" t="s">
+      <c r="D143" t="s">
         <v>449</v>
       </c>
-      <c r="E143" s="0" t="s">
+      <c r="E143" t="s">
         <v>10</v>
       </c>
       <c r="F143" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:6">
       <c r="A144" s="2">
         <v>143</v>
       </c>
-      <c r="B144" s="0" t="s">
+      <c r="B144" t="s">
         <v>450</v>
       </c>
-      <c r="C144" s="0" t="s">
+      <c r="C144" t="s">
         <v>451</v>
       </c>
-      <c r="D144" s="0" t="s">
+      <c r="D144" t="s">
         <v>452</v>
       </c>
-      <c r="E144" s="0" t="s">
+      <c r="E144" t="s">
         <v>30</v>
       </c>
       <c r="F144" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:6">
       <c r="A145" s="2">
         <v>144</v>
       </c>
-      <c r="B145" s="0" t="s">
+      <c r="B145" t="s">
         <v>453</v>
       </c>
-      <c r="C145" s="0" t="s">
+      <c r="C145" t="s">
         <v>454</v>
       </c>
-      <c r="D145" s="0" t="s">
+      <c r="D145" t="s">
         <v>455</v>
       </c>
-      <c r="E145" s="0" t="s">
+      <c r="E145" t="s">
         <v>10</v>
       </c>
       <c r="F145" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:6">
       <c r="A146" s="2">
         <v>145</v>
       </c>
-      <c r="B146" s="0" t="s">
+      <c r="B146" t="s">
         <v>456</v>
       </c>
-      <c r="C146" s="0" t="s">
+      <c r="C146" t="s">
         <v>457</v>
       </c>
-      <c r="D146" s="0" t="s">
+      <c r="D146" t="s">
         <v>458</v>
       </c>
-      <c r="E146" s="0" t="s">
+      <c r="E146" t="s">
         <v>30</v>
       </c>
       <c r="F146" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:6">
       <c r="A147" s="2">
         <v>146</v>
       </c>
-      <c r="B147" s="0" t="s">
+      <c r="B147" t="s">
         <v>459</v>
       </c>
-      <c r="C147" s="0" t="s">
+      <c r="C147" t="s">
         <v>460</v>
       </c>
-      <c r="D147" s="0" t="s">
+      <c r="D147" t="s">
         <v>461</v>
       </c>
-      <c r="E147" s="0" t="s">
+      <c r="E147" t="s">
         <v>9</v>
       </c>
       <c r="F147" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:6">
       <c r="A148" s="2">
         <v>147</v>
       </c>
-      <c r="B148" s="0" t="s">
+      <c r="B148" t="s">
         <v>462</v>
       </c>
-      <c r="C148" s="0" t="s">
+      <c r="C148" t="s">
         <v>463</v>
       </c>
-      <c r="D148" s="0" t="s">
+      <c r="D148" t="s">
         <v>464</v>
       </c>
-      <c r="E148" s="0" t="s">
+      <c r="E148" t="s">
         <v>9</v>
       </c>
       <c r="F148" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:6">
       <c r="A149" s="2">
         <v>148</v>
       </c>
-      <c r="B149" s="0" t="s">
+      <c r="B149" t="s">
         <v>465</v>
       </c>
-      <c r="C149" s="0" t="s">
+      <c r="C149" t="s">
         <v>466</v>
       </c>
-      <c r="D149" s="0" t="s">
+      <c r="D149" t="s">
         <v>467</v>
       </c>
-      <c r="E149" s="0" t="s">
+      <c r="E149" t="s">
         <v>9</v>
       </c>
       <c r="F149" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:6">
       <c r="A150" s="2">
         <v>149</v>
       </c>
-      <c r="B150" s="0" t="s">
+      <c r="B150" t="s">
         <v>468</v>
       </c>
-      <c r="C150" s="0" t="s">
+      <c r="C150" t="s">
         <v>469</v>
       </c>
-      <c r="D150" s="0" t="s">
+      <c r="D150" t="s">
         <v>470</v>
       </c>
-      <c r="E150" s="0" t="s">
+      <c r="E150" t="s">
         <v>10</v>
       </c>
       <c r="F150" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:6">
       <c r="A151" s="2">
         <v>150</v>
       </c>
-      <c r="B151" s="0" t="s">
+      <c r="B151" t="s">
         <v>471</v>
       </c>
-      <c r="C151" s="0" t="s">
+      <c r="C151" t="s">
         <v>255</v>
       </c>
-      <c r="D151" s="0" t="s">
+      <c r="D151" t="s">
         <v>256</v>
       </c>
-      <c r="E151" s="0" t="s">
+      <c r="E151" t="s">
         <v>10</v>
       </c>
       <c r="F151" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:6">
       <c r="A152" s="2">
         <v>151</v>
       </c>
-      <c r="B152" s="0" t="s">
+      <c r="B152" t="s">
         <v>472</v>
       </c>
-      <c r="C152" s="0" t="s">
+      <c r="C152" t="s">
         <v>473</v>
       </c>
-      <c r="D152" s="0" t="s">
+      <c r="D152" t="s">
         <v>474</v>
       </c>
-      <c r="E152" s="0" t="s">
+      <c r="E152" t="s">
         <v>9</v>
       </c>
       <c r="F152" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:6">
       <c r="A153" s="2">
         <v>152</v>
       </c>
-      <c r="B153" s="0" t="s">
+      <c r="B153" t="s">
         <v>475</v>
       </c>
-      <c r="C153" s="0" t="s">
+      <c r="C153" t="s">
         <v>476</v>
       </c>
-      <c r="D153" s="0" t="s">
+      <c r="D153" t="s">
         <v>477</v>
       </c>
-      <c r="E153" s="0" t="s">
+      <c r="E153" t="s">
         <v>30</v>
       </c>
       <c r="F153" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="1:6">
       <c r="A154" s="2">
         <v>153</v>
       </c>
-      <c r="B154" s="0" t="s">
+      <c r="B154" t="s">
         <v>478</v>
       </c>
-      <c r="C154" s="0" t="s">
+      <c r="C154" t="s">
         <v>479</v>
       </c>
-      <c r="D154" s="0" t="s">
+      <c r="D154" t="s">
         <v>480</v>
       </c>
-      <c r="E154" s="0" t="s">
+      <c r="E154" t="s">
         <v>30</v>
       </c>
       <c r="F154" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:6">
       <c r="A155" s="2">
         <v>154</v>
       </c>
-      <c r="B155" s="0" t="s">
+      <c r="B155" t="s">
         <v>481</v>
       </c>
-      <c r="C155" s="0" t="s">
+      <c r="C155" t="s">
         <v>482</v>
       </c>
-      <c r="D155" s="0" t="s">
+      <c r="D155" t="s">
         <v>483</v>
       </c>
-      <c r="E155" s="0" t="s">
+      <c r="E155" t="s">
         <v>10</v>
       </c>
       <c r="F155" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="1:6">
       <c r="A156" s="2">
         <v>155</v>
       </c>
-      <c r="B156" s="0" t="s">
+      <c r="B156" t="s">
         <v>484</v>
       </c>
-      <c r="C156" s="0" t="s">
+      <c r="C156" t="s">
         <v>485</v>
       </c>
-      <c r="D156" s="0" t="s">
+      <c r="D156" t="s">
         <v>486</v>
       </c>
-      <c r="E156" s="0" t="s">
+      <c r="E156" t="s">
         <v>10</v>
       </c>
       <c r="F156" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:6">
       <c r="A157" s="2">
         <v>156</v>
       </c>
-      <c r="B157" s="0" t="s">
+      <c r="B157" t="s">
         <v>487</v>
       </c>
-      <c r="C157" s="0" t="s">
+      <c r="C157" t="s">
         <v>488</v>
       </c>
-      <c r="D157" s="0" t="s">
+      <c r="D157" t="s">
         <v>489</v>
       </c>
-      <c r="E157" s="0" t="s">
+      <c r="E157" t="s">
         <v>10</v>
       </c>
       <c r="F157" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="1:6">
       <c r="A158" s="2">
         <v>157</v>
       </c>
-      <c r="B158" s="0" t="s">
+      <c r="B158" t="s">
         <v>490</v>
       </c>
-      <c r="C158" s="0" t="s">
+      <c r="C158" t="s">
         <v>491</v>
       </c>
-      <c r="D158" s="0" t="s">
+      <c r="D158" t="s">
         <v>492</v>
       </c>
-      <c r="E158" s="0" t="s">
+      <c r="E158" t="s">
         <v>10</v>
       </c>
       <c r="F158" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="1:6">
       <c r="A159" s="2">
         <v>158</v>
       </c>
-      <c r="B159" s="0" t="s">
+      <c r="B159" t="s">
         <v>493</v>
       </c>
-      <c r="C159" s="0" t="s">
+      <c r="C159" t="s">
         <v>97</v>
       </c>
-      <c r="D159" s="0" t="s">
+      <c r="D159" t="s">
         <v>494</v>
       </c>
-      <c r="E159" s="0" t="s">
+      <c r="E159" t="s">
         <v>10</v>
       </c>
       <c r="F159" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="1:6">
       <c r="A160" s="2">
         <v>159</v>
       </c>
-      <c r="B160" s="0" t="s">
+      <c r="B160" t="s">
         <v>495</v>
       </c>
-      <c r="C160" s="0" t="s">
+      <c r="C160" t="s">
         <v>496</v>
       </c>
-      <c r="D160" s="0" t="s">
+      <c r="D160" t="s">
         <v>497</v>
       </c>
-      <c r="E160" s="0" t="s">
+      <c r="E160" t="s">
         <v>10</v>
       </c>
       <c r="F160" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="1:6">
       <c r="A161" s="2">
         <v>160</v>
       </c>
-      <c r="B161" s="0" t="s">
+      <c r="B161" t="s">
         <v>498</v>
       </c>
-      <c r="C161" s="0" t="s">
+      <c r="C161" t="s">
         <v>499</v>
       </c>
-      <c r="D161" s="0" t="s">
+      <c r="D161" t="s">
         <v>500</v>
       </c>
-      <c r="E161" s="0" t="s">
+      <c r="E161" t="s">
         <v>10</v>
       </c>
       <c r="F161" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="1:6">
       <c r="A162" s="2">
         <v>161</v>
       </c>
-      <c r="B162" s="0" t="s">
+      <c r="B162" t="s">
         <v>501</v>
       </c>
-      <c r="C162" s="0" t="s">
+      <c r="C162" t="s">
         <v>502</v>
       </c>
-      <c r="D162" s="0" t="s">
+      <c r="D162" t="s">
         <v>503</v>
       </c>
-      <c r="E162" s="0" t="s">
+      <c r="E162" t="s">
         <v>30</v>
       </c>
       <c r="F162" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:6">
       <c r="A163" s="2">
         <v>162</v>
       </c>
-      <c r="B163" s="0" t="s">
+      <c r="B163" t="s">
         <v>504</v>
       </c>
-      <c r="C163" s="0" t="s">
+      <c r="C163" t="s">
         <v>505</v>
       </c>
-      <c r="D163" s="0" t="s">
+      <c r="D163" t="s">
         <v>506</v>
       </c>
-      <c r="E163" s="0" t="s">
+      <c r="E163" t="s">
         <v>30</v>
       </c>
       <c r="F163" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" spans="1:6">
       <c r="A164" s="2">
         <v>163</v>
       </c>
-      <c r="B164" s="0" t="s">
+      <c r="B164" t="s">
         <v>507</v>
       </c>
-      <c r="C164" s="0" t="s">
+      <c r="C164" t="s">
         <v>508</v>
       </c>
-      <c r="D164" s="0" t="s">
+      <c r="D164" t="s">
         <v>509</v>
       </c>
-      <c r="E164" s="0" t="s">
+      <c r="E164" t="s">
         <v>30</v>
       </c>
       <c r="F164" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" spans="1:6">
       <c r="A165" s="2">
         <v>164</v>
       </c>
-      <c r="B165" s="0" t="s">
+      <c r="B165" t="s">
         <v>510</v>
       </c>
-      <c r="C165" s="0" t="s">
+      <c r="C165" t="s">
         <v>511</v>
       </c>
-      <c r="D165" s="0" t="s">
+      <c r="D165" t="s">
         <v>512</v>
       </c>
-      <c r="E165" s="0" t="s">
+      <c r="E165" t="s">
         <v>30</v>
       </c>
       <c r="F165" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="1:6">
       <c r="A166" s="2">
         <v>165</v>
       </c>
-      <c r="B166" s="0" t="s">
+      <c r="B166" t="s">
         <v>513</v>
       </c>
-      <c r="C166" s="0" t="s">
+      <c r="C166" t="s">
         <v>514</v>
       </c>
-      <c r="D166" s="0" t="s">
+      <c r="D166" t="s">
         <v>515</v>
       </c>
-      <c r="E166" s="0" t="s">
+      <c r="E166" t="s">
         <v>10</v>
       </c>
       <c r="F166" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="1:6">
       <c r="A167" s="2">
         <v>166</v>
       </c>
-      <c r="B167" s="0" t="s">
+      <c r="B167" t="s">
         <v>516</v>
       </c>
-      <c r="C167" s="0" t="s">
+      <c r="C167" t="s">
         <v>517</v>
       </c>
-      <c r="D167" s="0" t="s">
+      <c r="D167" t="s">
         <v>518</v>
       </c>
-      <c r="E167" s="0" t="s">
+      <c r="E167" t="s">
         <v>9</v>
       </c>
       <c r="F167" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="1:6">
       <c r="A168" s="2">
         <v>167</v>
       </c>
-      <c r="B168" s="0" t="s">
+      <c r="B168" t="s">
         <v>519</v>
       </c>
-      <c r="C168" s="0" t="s">
+      <c r="C168" t="s">
         <v>520</v>
       </c>
-      <c r="D168" s="0" t="s">
+      <c r="D168" t="s">
         <v>521</v>
       </c>
-      <c r="E168" s="0" t="s">
+      <c r="E168" t="s">
         <v>30</v>
       </c>
       <c r="F168" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" spans="1:6">
       <c r="A169" s="2">
         <v>168</v>
       </c>
-      <c r="B169" s="0" t="s">
+      <c r="B169" t="s">
         <v>522</v>
       </c>
-      <c r="C169" s="0" t="s">
+      <c r="C169" t="s">
         <v>523</v>
       </c>
-      <c r="D169" s="0" t="s">
+      <c r="D169" t="s">
         <v>524</v>
       </c>
-      <c r="E169" s="0" t="s">
+      <c r="E169" t="s">
         <v>10</v>
       </c>
       <c r="F169" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" spans="1:6">
       <c r="A170" s="2">
         <v>169</v>
       </c>
-      <c r="B170" s="0" t="s">
+      <c r="B170" t="s">
         <v>525</v>
       </c>
-      <c r="C170" s="0" t="s">
+      <c r="C170" t="s">
         <v>526</v>
       </c>
-      <c r="D170" s="0" t="s">
+      <c r="D170" t="s">
         <v>527</v>
       </c>
-      <c r="E170" s="0" t="s">
+      <c r="E170" t="s">
         <v>10</v>
       </c>
       <c r="F170" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" spans="1:6">
       <c r="A171" s="2">
         <v>170</v>
       </c>
-      <c r="B171" s="0" t="s">
+      <c r="B171" t="s">
         <v>528</v>
       </c>
-      <c r="C171" s="0" t="s">
+      <c r="C171" t="s">
         <v>529</v>
       </c>
-      <c r="D171" s="0" t="s">
+      <c r="D171" t="s">
         <v>530</v>
       </c>
-      <c r="E171" s="0" t="s">
+      <c r="E171" t="s">
         <v>30</v>
       </c>
       <c r="F171" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" spans="1:6">
       <c r="A172" s="2">
         <v>171</v>
       </c>
-      <c r="B172" s="0" t="s">
+      <c r="B172" t="s">
         <v>531</v>
       </c>
-      <c r="C172" s="0" t="s">
+      <c r="C172" t="s">
         <v>532</v>
       </c>
-      <c r="D172" s="0" t="s">
+      <c r="D172" t="s">
         <v>533</v>
       </c>
-      <c r="E172" s="0" t="s">
+      <c r="E172" t="s">
         <v>30</v>
       </c>
       <c r="F172" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="1:6">
       <c r="A173" s="2">
         <v>172</v>
       </c>
-      <c r="B173" s="0" t="s">
+      <c r="B173" t="s">
         <v>534</v>
       </c>
-      <c r="C173" s="0" t="s">
+      <c r="C173" t="s">
         <v>535</v>
       </c>
-      <c r="D173" s="0" t="s">
+      <c r="D173" t="s">
         <v>536</v>
       </c>
-      <c r="E173" s="0" t="s">
+      <c r="E173" t="s">
         <v>9</v>
       </c>
       <c r="F173" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" spans="1:6">
       <c r="A174" s="2">
         <v>173</v>
       </c>
-      <c r="B174" s="0" t="s">
+      <c r="B174" t="s">
         <v>537</v>
       </c>
-      <c r="C174" s="0" t="s">
+      <c r="C174" t="s">
         <v>538</v>
       </c>
-      <c r="D174" s="0" t="s">
+      <c r="D174" t="s">
         <v>539</v>
       </c>
-      <c r="E174" s="0" t="s">
+      <c r="E174" t="s">
         <v>10</v>
       </c>
       <c r="F174" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" spans="1:6">
       <c r="A175" s="2">
         <v>174</v>
       </c>
-      <c r="B175" s="0" t="s">
+      <c r="B175" t="s">
         <v>540</v>
       </c>
-      <c r="C175" s="0" t="s">
+      <c r="C175" t="s">
         <v>541</v>
       </c>
-      <c r="D175" s="0" t="s">
+      <c r="D175" t="s">
         <v>542</v>
       </c>
-      <c r="E175" s="0" t="s">
+      <c r="E175" t="s">
         <v>30</v>
       </c>
       <c r="F175" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" spans="1:6">
       <c r="A176" s="2">
         <v>175</v>
       </c>
-      <c r="B176" s="0" t="s">
+      <c r="B176" t="s">
         <v>543</v>
       </c>
-      <c r="C176" s="0" t="s">
+      <c r="C176" t="s">
         <v>544</v>
       </c>
-      <c r="D176" s="0" t="s">
+      <c r="D176" t="s">
         <v>545</v>
       </c>
-      <c r="E176" s="0" t="s">
+      <c r="E176" t="s">
         <v>9</v>
       </c>
       <c r="F176" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" spans="1:6">
       <c r="A177" s="2">
         <v>176</v>
       </c>
-      <c r="B177" s="0" t="s">
+      <c r="B177" t="s">
         <v>546</v>
       </c>
-      <c r="C177" s="0" t="s">
+      <c r="C177" t="s">
         <v>547</v>
       </c>
-      <c r="D177" s="0" t="s">
+      <c r="D177" t="s">
         <v>548</v>
       </c>
-      <c r="E177" s="0" t="s">
+      <c r="E177" t="s">
         <v>30</v>
       </c>
       <c r="F177" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" spans="1:6">
       <c r="A178" s="2">
         <v>177</v>
       </c>
-      <c r="B178" s="0" t="s">
+      <c r="B178" t="s">
         <v>549</v>
       </c>
-      <c r="C178" s="0" t="s">
+      <c r="C178" t="s">
         <v>550</v>
       </c>
-      <c r="D178" s="0" t="s">
+      <c r="D178" t="s">
         <v>551</v>
       </c>
-      <c r="E178" s="0" t="s">
+      <c r="E178" t="s">
         <v>10</v>
       </c>
       <c r="F178" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" spans="1:6">
       <c r="A179" s="2">
         <v>178</v>
       </c>
-      <c r="B179" s="0" t="s">
+      <c r="B179" t="s">
         <v>552</v>
       </c>
-      <c r="C179" s="0" t="s">
+      <c r="C179" t="s">
         <v>553</v>
       </c>
-      <c r="D179" s="0" t="s">
+      <c r="D179" t="s">
         <v>554</v>
       </c>
-      <c r="E179" s="0" t="s">
+      <c r="E179" t="s">
         <v>10</v>
       </c>
       <c r="F179" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" spans="1:6">
       <c r="A180" s="2">
         <v>179</v>
       </c>
-      <c r="B180" s="0" t="s">
+      <c r="B180" t="s">
         <v>555</v>
       </c>
-      <c r="C180" s="0" t="s">
+      <c r="C180" t="s">
         <v>556</v>
       </c>
-      <c r="D180" s="0" t="s">
+      <c r="D180" t="s">
         <v>557</v>
       </c>
-      <c r="E180" s="0" t="s">
+      <c r="E180" t="s">
         <v>10</v>
       </c>
       <c r="F180" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" spans="1:6">
       <c r="A181" s="2">
         <v>180</v>
       </c>
-      <c r="B181" s="0" t="s">
+      <c r="B181" t="s">
         <v>558</v>
       </c>
-      <c r="C181" s="0" t="s">
+      <c r="C181" t="s">
         <v>559</v>
       </c>
-      <c r="D181" s="0" t="s">
+      <c r="D181" t="s">
         <v>560</v>
       </c>
-      <c r="E181" s="0" t="s">
+      <c r="E181" t="s">
         <v>10</v>
       </c>
       <c r="F181" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" spans="1:6">
       <c r="A182" s="2">
         <v>181</v>
       </c>
-      <c r="B182" s="0" t="s">
+      <c r="B182" t="s">
         <v>561</v>
       </c>
-      <c r="C182" s="0" t="s">
+      <c r="C182" t="s">
         <v>562</v>
       </c>
-      <c r="D182" s="0" t="s">
+      <c r="D182" t="s">
         <v>563</v>
       </c>
-      <c r="E182" s="0" t="s">
+      <c r="E182" t="s">
         <v>10</v>
       </c>
       <c r="F182" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" spans="1:6">
       <c r="A183" s="2">
         <v>182</v>
       </c>
-      <c r="B183" s="0" t="s">
+      <c r="B183" t="s">
         <v>565</v>
       </c>
-      <c r="C183" s="0" t="s">
+      <c r="C183" t="s">
         <v>566</v>
       </c>
-      <c r="D183" s="0" t="s">
+      <c r="D183" t="s">
         <v>567</v>
       </c>
-      <c r="E183" s="0" t="s">
+      <c r="E183" t="s">
         <v>30</v>
       </c>
       <c r="F183" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" spans="1:6">
       <c r="A184" s="2">
         <v>183</v>
       </c>
-      <c r="B184" s="0" t="s">
+      <c r="B184" t="s">
         <v>568</v>
       </c>
-      <c r="C184" s="0" t="s">
+      <c r="C184" t="s">
         <v>569</v>
       </c>
-      <c r="D184" s="0" t="s">
+      <c r="D184" t="s">
         <v>570</v>
       </c>
-      <c r="E184" s="0" t="s">
+      <c r="E184" t="s">
         <v>10</v>
       </c>
       <c r="F184" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" spans="1:6">
       <c r="A185" s="2">
         <v>184</v>
       </c>
-      <c r="B185" s="0" t="s">
+      <c r="B185" t="s">
         <v>571</v>
       </c>
-      <c r="C185" s="0" t="s">
+      <c r="C185" t="s">
         <v>572</v>
       </c>
-      <c r="D185" s="0" t="s">
+      <c r="D185" t="s">
         <v>573</v>
       </c>
-      <c r="E185" s="0" t="s">
+      <c r="E185" t="s">
         <v>10</v>
       </c>
       <c r="F185" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" spans="1:6">
       <c r="A186" s="2">
         <v>185</v>
       </c>
-      <c r="B186" s="0" t="s">
+      <c r="B186" t="s">
         <v>574</v>
       </c>
-      <c r="C186" s="0" t="s">
+      <c r="C186" t="s">
         <v>575</v>
       </c>
-      <c r="D186" s="0" t="s">
+      <c r="D186" t="s">
         <v>576</v>
       </c>
-      <c r="E186" s="0" t="s">
+      <c r="E186" t="s">
         <v>30</v>
       </c>
       <c r="F186" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" spans="1:6">
       <c r="A187" s="2">
         <v>186</v>
       </c>
-      <c r="B187" s="0" t="s">
+      <c r="B187" t="s">
         <v>577</v>
       </c>
-      <c r="C187" s="0" t="s">
+      <c r="C187" t="s">
         <v>578</v>
       </c>
-      <c r="D187" s="0" t="s">
+      <c r="D187" t="s">
         <v>579</v>
       </c>
-      <c r="E187" s="0" t="s">
+      <c r="E187" t="s">
         <v>10</v>
       </c>
       <c r="F187" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" spans="1:6">
       <c r="A188" s="2">
         <v>187</v>
       </c>
-      <c r="B188" s="0" t="s">
+      <c r="B188" t="s">
         <v>580</v>
       </c>
-      <c r="C188" s="0" t="s">
+      <c r="C188" t="s">
         <v>581</v>
       </c>
-      <c r="D188" s="0" t="s">
+      <c r="D188" t="s">
         <v>582</v>
       </c>
-      <c r="E188" s="0" t="s">
+      <c r="E188" t="s">
         <v>10</v>
       </c>
       <c r="F188" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" spans="1:6">
       <c r="A189" s="2">
         <v>188</v>
       </c>
-      <c r="B189" s="0" t="s">
+      <c r="B189" t="s">
         <v>583</v>
       </c>
-      <c r="C189" s="0" t="s">
+      <c r="C189" t="s">
         <v>584</v>
       </c>
-      <c r="D189" s="0" t="s">
+      <c r="D189" t="s">
         <v>585</v>
       </c>
-      <c r="E189" s="0" t="s">
+      <c r="E189" t="s">
         <v>30</v>
       </c>
       <c r="F189" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" spans="1:6">
       <c r="A190" s="2">
         <v>189</v>
       </c>
-      <c r="B190" s="0" t="s">
+      <c r="B190" t="s">
         <v>586</v>
       </c>
-      <c r="C190" s="0" t="s">
+      <c r="C190" t="s">
         <v>587</v>
       </c>
-      <c r="D190" s="0" t="s">
+      <c r="D190" t="s">
         <v>588</v>
       </c>
-      <c r="E190" s="0" t="s">
+      <c r="E190" t="s">
         <v>10</v>
       </c>
       <c r="F190" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" spans="1:6">
       <c r="A191" s="2">
         <v>190</v>
       </c>
-      <c r="B191" s="0" t="s">
+      <c r="B191" t="s">
         <v>589</v>
       </c>
-      <c r="C191" s="0" t="s">
+      <c r="C191" t="s">
         <v>590</v>
       </c>
-      <c r="D191" s="0" t="s">
+      <c r="D191" t="s">
         <v>591</v>
       </c>
-      <c r="E191" s="0" t="s">
+      <c r="E191" t="s">
         <v>10</v>
       </c>
       <c r="F191" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" spans="1:6">
       <c r="A192" s="2">
         <v>191</v>
       </c>
-      <c r="B192" s="0" t="s">
+      <c r="B192" t="s">
         <v>592</v>
       </c>
-      <c r="C192" s="0" t="s">
+      <c r="C192" t="s">
         <v>593</v>
       </c>
-      <c r="D192" s="0" t="s">
+      <c r="D192" t="s">
         <v>594</v>
       </c>
-      <c r="E192" s="0" t="s">
+      <c r="E192" t="s">
         <v>30</v>
       </c>
       <c r="F192" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" spans="1:6">
       <c r="A193" s="2">
         <v>192</v>
       </c>
-      <c r="B193" s="0" t="s">
+      <c r="B193" t="s">
         <v>595</v>
       </c>
-      <c r="C193" s="0" t="s">
+      <c r="C193" t="s">
         <v>596</v>
       </c>
-      <c r="D193" s="0" t="s">
+      <c r="D193" t="s">
         <v>597</v>
       </c>
-      <c r="E193" s="0" t="s">
+      <c r="E193" t="s">
         <v>10</v>
       </c>
       <c r="F193" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="194">
+    <row r="194" spans="1:6">
       <c r="A194" s="2">
         <v>193</v>
       </c>
-      <c r="B194" s="0" t="s">
+      <c r="B194" t="s">
         <v>598</v>
       </c>
-      <c r="C194" s="0" t="s">
+      <c r="C194" t="s">
         <v>599</v>
       </c>
-      <c r="D194" s="0" t="s">
+      <c r="D194" t="s">
         <v>600</v>
       </c>
-      <c r="E194" s="0" t="s">
+      <c r="E194" t="s">
         <v>10</v>
       </c>
       <c r="F194" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="195">
+    <row r="195" spans="1:6">
       <c r="A195" s="2">
         <v>194</v>
       </c>
-      <c r="B195" s="0" t="s">
+      <c r="B195" t="s">
         <v>601</v>
       </c>
-      <c r="C195" s="0" t="s">
+      <c r="C195" t="s">
         <v>602</v>
       </c>
-      <c r="D195" s="0" t="s">
+      <c r="D195" t="s">
         <v>603</v>
       </c>
-      <c r="E195" s="0" t="s">
+      <c r="E195" t="s">
         <v>10</v>
       </c>
       <c r="F195" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="196">
+    <row r="196" spans="1:6">
       <c r="A196" s="2">
         <v>195</v>
       </c>
-      <c r="B196" s="0" t="s">
+      <c r="B196" t="s">
         <v>604</v>
       </c>
-      <c r="C196" s="0" t="s">
+      <c r="C196" t="s">
         <v>605</v>
       </c>
-      <c r="D196" s="0" t="s">
+      <c r="D196" t="s">
         <v>606</v>
       </c>
-      <c r="E196" s="0" t="s">
+      <c r="E196" t="s">
         <v>9</v>
       </c>
       <c r="F196" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="197">
+    <row r="197" spans="1:6">
       <c r="A197" s="2">
         <v>196</v>
       </c>
-      <c r="B197" s="0" t="s">
+      <c r="B197" t="s">
         <v>607</v>
       </c>
-      <c r="C197" s="0" t="s">
+      <c r="C197" t="s">
         <v>608</v>
       </c>
-      <c r="D197" s="0" t="s">
+      <c r="D197" t="s">
         <v>609</v>
       </c>
-      <c r="E197" s="0" t="s">
+      <c r="E197" t="s">
         <v>10</v>
       </c>
       <c r="F197" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="198">
+    <row r="198" spans="1:6">
       <c r="A198" s="2">
         <v>197</v>
       </c>
-      <c r="B198" s="0" t="s">
+      <c r="B198" t="s">
         <v>610</v>
       </c>
-      <c r="C198" s="0" t="s">
+      <c r="C198" t="s">
         <v>611</v>
       </c>
-      <c r="D198" s="0" t="s">
+      <c r="D198" t="s">
         <v>612</v>
       </c>
-      <c r="E198" s="0" t="s">
+      <c r="E198" t="s">
         <v>10</v>
       </c>
       <c r="F198" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="199">
+    <row r="199" spans="1:6">
       <c r="A199" s="2">
         <v>198</v>
       </c>
-      <c r="B199" s="0" t="s">
+      <c r="B199" t="s">
         <v>613</v>
       </c>
-      <c r="C199" s="0" t="s">
+      <c r="C199" t="s">
         <v>614</v>
       </c>
-      <c r="D199" s="0" t="s">
+      <c r="D199" t="s">
         <v>615</v>
       </c>
-      <c r="E199" s="0" t="s">
+      <c r="E199" t="s">
         <v>10</v>
       </c>
       <c r="F199" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="200">
+    <row r="200" spans="1:6">
       <c r="A200" s="2">
         <v>199</v>
       </c>
-      <c r="B200" s="0" t="s">
+      <c r="B200" t="s">
         <v>616</v>
       </c>
-      <c r="C200" s="0" t="s">
+      <c r="C200" t="s">
         <v>617</v>
       </c>
-      <c r="D200" s="0" t="s">
+      <c r="D200" t="s">
         <v>618</v>
       </c>
-      <c r="E200" s="0" t="s">
+      <c r="E200" t="s">
         <v>30</v>
       </c>
       <c r="F200" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="201">
+    <row r="201" spans="1:6">
       <c r="A201" s="2">
         <v>200</v>
       </c>
-      <c r="B201" s="0" t="s">
+      <c r="B201" t="s">
         <v>619</v>
       </c>
-      <c r="C201" s="0" t="s">
+      <c r="C201" t="s">
         <v>620</v>
       </c>
-      <c r="D201" s="0" t="s">
+      <c r="D201" t="s">
         <v>621</v>
       </c>
-      <c r="E201" s="0" t="s">
+      <c r="E201" t="s">
         <v>9</v>
       </c>
       <c r="F201" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="202">
+    <row r="202" spans="1:6">
       <c r="A202" s="2">
         <v>201</v>
       </c>
-      <c r="B202" s="0" t="s">
+      <c r="B202" t="s">
         <v>622</v>
       </c>
-      <c r="C202" s="0" t="s">
+      <c r="C202" t="s">
         <v>623</v>
       </c>
-      <c r="D202" s="0" t="s">
+      <c r="D202" t="s">
         <v>624</v>
       </c>
-      <c r="E202" s="0" t="s">
+      <c r="E202" t="s">
         <v>9</v>
       </c>
       <c r="F202" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="203">
+    <row r="203" spans="1:6">
       <c r="A203" s="2">
         <v>202</v>
       </c>
-      <c r="B203" s="0" t="s">
+      <c r="B203" t="s">
         <v>625</v>
       </c>
-      <c r="C203" s="0" t="s">
+      <c r="C203" t="s">
         <v>626</v>
       </c>
-      <c r="D203" s="0" t="s">
+      <c r="D203" t="s">
         <v>627</v>
       </c>
-      <c r="E203" s="0" t="s">
+      <c r="E203" t="s">
         <v>10</v>
       </c>
       <c r="F203" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="204">
+    <row r="204" spans="1:6">
       <c r="A204" s="2">
         <v>203</v>
       </c>
-      <c r="B204" s="0" t="s">
+      <c r="B204" t="s">
         <v>628</v>
       </c>
-      <c r="C204" s="0" t="s">
+      <c r="C204" t="s">
         <v>629</v>
       </c>
-      <c r="D204" s="0" t="s">
+      <c r="D204" t="s">
         <v>630</v>
       </c>
-      <c r="E204" s="0" t="s">
+      <c r="E204" t="s">
         <v>9</v>
       </c>
       <c r="F204" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="205">
+    <row r="205" spans="1:6">
       <c r="A205" s="2">
         <v>204</v>
       </c>
-      <c r="B205" s="0" t="s">
+      <c r="B205" t="s">
         <v>631</v>
       </c>
-      <c r="C205" s="0" t="s">
+      <c r="C205" t="s">
         <v>632</v>
       </c>
-      <c r="D205" s="0" t="s">
+      <c r="D205" t="s">
         <v>633</v>
       </c>
-      <c r="E205" s="0" t="s">
+      <c r="E205" t="s">
         <v>30</v>
       </c>
       <c r="F205" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="206">
+    <row r="206" spans="1:6">
       <c r="A206" s="2">
         <v>205</v>
       </c>
-      <c r="B206" s="0" t="s">
+      <c r="B206" t="s">
         <v>634</v>
       </c>
-      <c r="C206" s="0" t="s">
+      <c r="C206" t="s">
         <v>635</v>
       </c>
-      <c r="D206" s="0" t="s">
+      <c r="D206" t="s">
         <v>636</v>
       </c>
-      <c r="E206" s="0" t="s">
+      <c r="E206" t="s">
         <v>10</v>
       </c>
       <c r="F206" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="207">
+    <row r="207" spans="1:6">
       <c r="A207" s="2">
         <v>206</v>
       </c>
-      <c r="B207" s="0" t="s">
+      <c r="B207" t="s">
         <v>637</v>
       </c>
-      <c r="C207" s="0" t="s">
+      <c r="C207" t="s">
         <v>638</v>
       </c>
-      <c r="D207" s="0" t="s">
+      <c r="D207" t="s">
         <v>639</v>
       </c>
-      <c r="E207" s="0" t="s">
+      <c r="E207" t="s">
         <v>10</v>
       </c>
       <c r="F207" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="208">
+    <row r="208" spans="1:6">
       <c r="A208" s="2">
         <v>207</v>
       </c>
-      <c r="B208" s="0" t="s">
+      <c r="B208" t="s">
         <v>640</v>
       </c>
-      <c r="C208" s="0" t="s">
+      <c r="C208" t="s">
         <v>641</v>
       </c>
-      <c r="D208" s="0" t="s">
+      <c r="D208" t="s">
         <v>642</v>
       </c>
-      <c r="E208" s="0" t="s">
+      <c r="E208" t="s">
         <v>10</v>
       </c>
       <c r="F208" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="209">
+    <row r="209" spans="1:6">
       <c r="A209" s="2">
         <v>208</v>
       </c>
-      <c r="B209" s="0" t="s">
+      <c r="B209" t="s">
         <v>643</v>
       </c>
-      <c r="C209" s="0" t="s">
+      <c r="C209" t="s">
         <v>644</v>
       </c>
-      <c r="D209" s="0" t="s">
+      <c r="D209" t="s">
         <v>645</v>
       </c>
-      <c r="E209" s="0" t="s">
+      <c r="E209" t="s">
         <v>9</v>
       </c>
       <c r="F209" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="210">
+    <row r="210" spans="1:6">
       <c r="A210" s="2">
         <v>209</v>
       </c>
-      <c r="B210" s="0" t="s">
+      <c r="B210" t="s">
         <v>646</v>
       </c>
-      <c r="C210" s="0" t="s">
+      <c r="C210" t="s">
         <v>647</v>
       </c>
-      <c r="D210" s="0" t="s">
+      <c r="D210" t="s">
         <v>648</v>
       </c>
-      <c r="E210" s="0" t="s">
+      <c r="E210" t="s">
         <v>10</v>
       </c>
       <c r="F210" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="211">
+    <row r="211" spans="1:6">
       <c r="A211" s="2">
         <v>210</v>
       </c>
-      <c r="B211" s="0" t="s">
+      <c r="B211" t="s">
         <v>649</v>
       </c>
-      <c r="C211" s="0" t="s">
+      <c r="C211" t="s">
         <v>650</v>
       </c>
-      <c r="D211" s="0" t="s">
+      <c r="D211" t="s">
         <v>651</v>
       </c>
-      <c r="E211" s="0" t="s">
+      <c r="E211" t="s">
         <v>9</v>
       </c>
       <c r="F211" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="212">
+    <row r="212" spans="1:6">
       <c r="A212" s="2">
         <v>211</v>
       </c>
-      <c r="B212" s="0" t="s">
+      <c r="B212" t="s">
         <v>652</v>
       </c>
-      <c r="C212" s="0" t="s">
+      <c r="C212" t="s">
         <v>653</v>
       </c>
-      <c r="D212" s="0" t="s">
+      <c r="D212" t="s">
         <v>654</v>
       </c>
-      <c r="E212" s="0" t="s">
+      <c r="E212" t="s">
         <v>10</v>
       </c>
       <c r="F212" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="213">
+    <row r="213" spans="1:6">
       <c r="A213" s="2">
         <v>212</v>
       </c>
-      <c r="B213" s="0" t="s">
+      <c r="B213" t="s">
         <v>655</v>
       </c>
-      <c r="C213" s="0" t="s">
+      <c r="C213" t="s">
         <v>656</v>
       </c>
-      <c r="D213" s="0" t="s">
+      <c r="D213" t="s">
         <v>657</v>
       </c>
-      <c r="E213" s="0" t="s">
+      <c r="E213" t="s">
         <v>10</v>
       </c>
       <c r="F213" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="214">
+    <row r="214" spans="1:6">
       <c r="A214" s="2">
         <v>213</v>
       </c>
-      <c r="B214" s="0" t="s">
+      <c r="B214" t="s">
         <v>658</v>
       </c>
-      <c r="C214" s="0" t="s">
+      <c r="C214" t="s">
         <v>659</v>
       </c>
-      <c r="D214" s="0" t="s">
+      <c r="D214" t="s">
         <v>660</v>
       </c>
-      <c r="E214" s="0" t="s">
+      <c r="E214" t="s">
         <v>9</v>
       </c>
       <c r="F214" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="215">
+    <row r="215" spans="1:6">
       <c r="A215" s="2">
         <v>214</v>
       </c>
-      <c r="B215" s="0" t="s">
+      <c r="B215" t="s">
         <v>661</v>
       </c>
-      <c r="C215" s="0" t="s">
+      <c r="C215" t="s">
         <v>662</v>
       </c>
-      <c r="D215" s="0" t="s">
+      <c r="D215" t="s">
         <v>663</v>
       </c>
-      <c r="E215" s="0" t="s">
+      <c r="E215" t="s">
         <v>10</v>
       </c>
       <c r="F215" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="216">
+    <row r="216" spans="1:6">
       <c r="A216" s="2">
         <v>215</v>
       </c>
-      <c r="B216" s="0" t="s">
+      <c r="B216" t="s">
         <v>664</v>
       </c>
-      <c r="C216" s="0" t="s">
+      <c r="C216" t="s">
         <v>665</v>
       </c>
-      <c r="D216" s="0" t="s">
+      <c r="D216" t="s">
         <v>666</v>
       </c>
-      <c r="E216" s="0" t="s">
+      <c r="E216" t="s">
         <v>30</v>
       </c>
       <c r="F216" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="217">
+    <row r="217" spans="1:6">
       <c r="A217" s="2">
         <v>216</v>
       </c>
-      <c r="B217" s="0" t="s">
+      <c r="B217" t="s">
         <v>667</v>
       </c>
-      <c r="C217" s="0" t="s">
+      <c r="C217" t="s">
         <v>668</v>
       </c>
-      <c r="D217" s="0" t="s">
+      <c r="D217" t="s">
         <v>669</v>
       </c>
-      <c r="E217" s="0" t="s">
+      <c r="E217" t="s">
         <v>9</v>
       </c>
       <c r="F217" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="218">
+    <row r="218" spans="1:6">
       <c r="A218" s="2">
         <v>217</v>
       </c>
-      <c r="B218" s="0" t="s">
+      <c r="B218" t="s">
         <v>670</v>
       </c>
-      <c r="C218" s="0" t="s">
+      <c r="C218" t="s">
         <v>671</v>
       </c>
-      <c r="D218" s="0" t="s">
+      <c r="D218" t="s">
         <v>672</v>
       </c>
-      <c r="E218" s="0" t="s">
+      <c r="E218" t="s">
         <v>9</v>
       </c>
       <c r="F218" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="219">
+    <row r="219" spans="1:6">
       <c r="A219" s="2">
         <v>218</v>
       </c>
-      <c r="B219" s="0" t="s">
+      <c r="B219" t="s">
         <v>673</v>
       </c>
-      <c r="C219" s="0" t="s">
+      <c r="C219" t="s">
         <v>674</v>
       </c>
-      <c r="D219" s="0" t="s">
+      <c r="D219" t="s">
         <v>675</v>
       </c>
-      <c r="E219" s="0" t="s">
+      <c r="E219" t="s">
         <v>10</v>
       </c>
       <c r="F219" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="220">
+    <row r="220" spans="1:6">
       <c r="A220" s="2">
         <v>219</v>
       </c>
-      <c r="B220" s="0" t="s">
+      <c r="B220" t="s">
         <v>676</v>
       </c>
-      <c r="C220" s="0" t="s">
+      <c r="C220" t="s">
         <v>677</v>
       </c>
-      <c r="D220" s="0" t="s">
+      <c r="D220" t="s">
         <v>678</v>
       </c>
-      <c r="E220" s="0" t="s">
+      <c r="E220" t="s">
         <v>10</v>
       </c>
       <c r="F220" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="221">
+    <row r="221" spans="1:6">
       <c r="A221" s="2">
         <v>220</v>
       </c>
-      <c r="B221" s="0" t="s">
+      <c r="B221" t="s">
         <v>679</v>
       </c>
-      <c r="C221" s="0" t="s">
+      <c r="C221" t="s">
         <v>680</v>
       </c>
-      <c r="D221" s="0" t="s">
+      <c r="D221" t="s">
         <v>681</v>
       </c>
-      <c r="E221" s="0" t="s">
+      <c r="E221" t="s">
         <v>10</v>
       </c>
       <c r="F221" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="222">
+    <row r="222" spans="1:6">
       <c r="A222" s="2">
         <v>221</v>
       </c>
-      <c r="B222" s="0" t="s">
+      <c r="B222" t="s">
         <v>682</v>
       </c>
-      <c r="C222" s="0" t="s">
+      <c r="C222" t="s">
         <v>683</v>
       </c>
-      <c r="D222" s="0" t="s">
+      <c r="D222" t="s">
         <v>684</v>
       </c>
-      <c r="E222" s="0" t="s">
+      <c r="E222" t="s">
         <v>10</v>
       </c>
       <c r="F222" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="223">
+    <row r="223" spans="1:6">
       <c r="A223" s="2">
         <v>222</v>
       </c>
-      <c r="B223" s="0" t="s">
+      <c r="B223" t="s">
         <v>685</v>
       </c>
-      <c r="C223" s="0" t="s">
+      <c r="C223" t="s">
         <v>686</v>
       </c>
-      <c r="D223" s="0" t="s">
+      <c r="D223" t="s">
         <v>687</v>
       </c>
-      <c r="E223" s="0" t="s">
+      <c r="E223" t="s">
         <v>9</v>
       </c>
       <c r="F223" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="224">
+    <row r="224" spans="1:6">
       <c r="A224" s="2">
         <v>223</v>
       </c>
-      <c r="B224" s="0" t="s">
+      <c r="B224" t="s">
         <v>688</v>
       </c>
-      <c r="C224" s="0" t="s">
+      <c r="C224" t="s">
         <v>689</v>
       </c>
-      <c r="D224" s="0" t="s">
+      <c r="D224" t="s">
         <v>690</v>
       </c>
-      <c r="E224" s="0" t="s">
+      <c r="E224" t="s">
         <v>10</v>
       </c>
       <c r="F224" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="225">
+    <row r="225" spans="1:6">
       <c r="A225" s="2">
         <v>224</v>
       </c>
-      <c r="B225" s="0" t="s">
+      <c r="B225" t="s">
         <v>691</v>
       </c>
-      <c r="C225" s="0" t="s">
+      <c r="C225" t="s">
         <v>692</v>
       </c>
-      <c r="D225" s="0" t="s">
+      <c r="D225" t="s">
         <v>693</v>
       </c>
-      <c r="E225" s="0" t="s">
+      <c r="E225" t="s">
         <v>10</v>
       </c>
       <c r="F225" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="226">
+    <row r="226" spans="1:6">
       <c r="A226" s="2">
         <v>225</v>
       </c>
-      <c r="B226" s="0" t="s">
+      <c r="B226" t="s">
         <v>694</v>
       </c>
-      <c r="C226" s="0" t="s">
+      <c r="C226" t="s">
         <v>695</v>
       </c>
-      <c r="D226" s="0" t="s">
+      <c r="D226" t="s">
         <v>696</v>
       </c>
-      <c r="E226" s="0" t="s">
+      <c r="E226" t="s">
         <v>30</v>
       </c>
       <c r="F226" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="227">
+    <row r="227" spans="1:6">
       <c r="A227" s="2">
         <v>226</v>
       </c>
-      <c r="B227" s="0" t="s">
+      <c r="B227" t="s">
         <v>697</v>
       </c>
-      <c r="C227" s="0" t="s">
+      <c r="C227" t="s">
         <v>698</v>
       </c>
-      <c r="D227" s="0" t="s">
+      <c r="D227" t="s">
         <v>699</v>
       </c>
-      <c r="E227" s="0" t="s">
+      <c r="E227" t="s">
         <v>10</v>
       </c>
       <c r="F227" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="228">
+    <row r="228" spans="1:6">
       <c r="A228" s="2">
         <v>227</v>
       </c>
-      <c r="B228" s="0" t="s">
+      <c r="B228" t="s">
         <v>700</v>
       </c>
-      <c r="C228" s="0" t="s">
+      <c r="C228" t="s">
         <v>701</v>
       </c>
-      <c r="D228" s="0" t="s">
+      <c r="D228" t="s">
         <v>702</v>
       </c>
-      <c r="E228" s="0" t="s">
+      <c r="E228" t="s">
         <v>9</v>
       </c>
       <c r="F228" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="229">
+    <row r="229" spans="1:6">
       <c r="A229" s="2">
         <v>228</v>
       </c>
-      <c r="B229" s="0" t="s">
+      <c r="B229" t="s">
         <v>703</v>
       </c>
-      <c r="C229" s="0" t="s">
+      <c r="C229" t="s">
         <v>704</v>
       </c>
-      <c r="D229" s="0" t="s">
+      <c r="D229" t="s">
         <v>705</v>
       </c>
-      <c r="E229" s="0" t="s">
+      <c r="E229" t="s">
         <v>10</v>
       </c>
       <c r="F229" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="230">
+    <row r="230" spans="1:6">
       <c r="A230" s="2">
         <v>229</v>
       </c>
-      <c r="B230" s="0" t="s">
+      <c r="B230" t="s">
         <v>706</v>
       </c>
-      <c r="C230" s="0" t="s">
+      <c r="C230" t="s">
         <v>707</v>
       </c>
-      <c r="D230" s="0" t="s">
+      <c r="D230" t="s">
         <v>708</v>
       </c>
-      <c r="E230" s="0" t="s">
+      <c r="E230" t="s">
         <v>30</v>
       </c>
       <c r="F230" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="231">
+    <row r="231" spans="1:6">
       <c r="A231" s="2">
         <v>230</v>
       </c>
-      <c r="B231" s="0" t="s">
+      <c r="B231" t="s">
         <v>709</v>
       </c>
-      <c r="C231" s="0" t="s">
+      <c r="C231" t="s">
         <v>710</v>
       </c>
-      <c r="D231" s="0" t="s">
+      <c r="D231" t="s">
         <v>711</v>
       </c>
-      <c r="E231" s="0" t="s">
+      <c r="E231" t="s">
         <v>30</v>
       </c>
       <c r="F231" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="232">
+    <row r="232" spans="1:6">
       <c r="A232" s="2">
         <v>231</v>
       </c>
-      <c r="B232" s="0" t="s">
+      <c r="B232" t="s">
         <v>712</v>
       </c>
-      <c r="C232" s="0" t="s">
+      <c r="C232" t="s">
         <v>713</v>
       </c>
-      <c r="D232" s="0" t="s">
+      <c r="D232" t="s">
         <v>714</v>
       </c>
-      <c r="E232" s="0" t="s">
+      <c r="E232" t="s">
         <v>10</v>
       </c>
       <c r="F232" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="233">
+    <row r="233" spans="1:6">
       <c r="A233" s="2">
         <v>232</v>
       </c>
-      <c r="B233" s="0" t="s">
+      <c r="B233" t="s">
         <v>715</v>
       </c>
-      <c r="C233" s="0" t="s">
+      <c r="C233" t="s">
         <v>716</v>
       </c>
-      <c r="D233" s="0" t="s">
+      <c r="D233" t="s">
         <v>717</v>
       </c>
-      <c r="E233" s="0" t="s">
+      <c r="E233" t="s">
         <v>10</v>
       </c>
       <c r="F233" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="234">
+    <row r="234" spans="1:6">
       <c r="A234" s="2">
         <v>233</v>
       </c>
-      <c r="B234" s="0" t="s">
+      <c r="B234" t="s">
         <v>718</v>
       </c>
-      <c r="C234" s="0" t="s">
+      <c r="C234" t="s">
         <v>719</v>
       </c>
-      <c r="D234" s="0" t="s">
+      <c r="D234" t="s">
         <v>720</v>
       </c>
-      <c r="E234" s="0" t="s">
+      <c r="E234" t="s">
         <v>10</v>
       </c>
       <c r="F234" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="235">
+    <row r="235" spans="1:6">
       <c r="A235" s="2">
         <v>234</v>
       </c>
-      <c r="B235" s="0" t="s">
+      <c r="B235" t="s">
         <v>721</v>
       </c>
-      <c r="C235" s="0" t="s">
+      <c r="C235" t="s">
         <v>722</v>
       </c>
-      <c r="D235" s="0" t="s">
+      <c r="D235" t="s">
         <v>723</v>
       </c>
-      <c r="E235" s="0" t="s">
+      <c r="E235" t="s">
         <v>10</v>
       </c>
       <c r="F235" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="236">
+    <row r="236" spans="1:6">
       <c r="A236" s="2">
         <v>235</v>
       </c>
-      <c r="B236" s="0" t="s">
+      <c r="B236" t="s">
         <v>724</v>
       </c>
-      <c r="C236" s="0" t="s">
+      <c r="C236" t="s">
         <v>725</v>
       </c>
-      <c r="D236" s="0" t="s">
+      <c r="D236" t="s">
         <v>726</v>
       </c>
-      <c r="E236" s="0" t="s">
+      <c r="E236" t="s">
         <v>30</v>
       </c>
       <c r="F236" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="237">
+    <row r="237" spans="1:6">
       <c r="A237" s="2">
         <v>236</v>
       </c>
-      <c r="B237" s="0" t="s">
+      <c r="B237" t="s">
         <v>727</v>
       </c>
-      <c r="C237" s="0" t="s">
+      <c r="C237" t="s">
         <v>728</v>
       </c>
-      <c r="D237" s="0" t="s">
+      <c r="D237" t="s">
         <v>729</v>
       </c>
-      <c r="E237" s="0" t="s">
+      <c r="E237" t="s">
         <v>30</v>
       </c>
       <c r="F237" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="238">
+    <row r="238" spans="1:6">
       <c r="A238" s="2">
         <v>237</v>
       </c>
-      <c r="B238" s="0" t="s">
+      <c r="B238" t="s">
         <v>730</v>
       </c>
-      <c r="C238" s="0" t="s">
+      <c r="C238" t="s">
         <v>731</v>
       </c>
-      <c r="D238" s="0" t="s">
+      <c r="D238" t="s">
         <v>732</v>
       </c>
-      <c r="E238" s="0" t="s">
+      <c r="E238" t="s">
         <v>30</v>
       </c>
       <c r="F238" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="239">
+    <row r="239" spans="1:6">
       <c r="A239" s="2">
         <v>238</v>
       </c>
-      <c r="B239" s="0" t="s">
+      <c r="B239" t="s">
         <v>733</v>
       </c>
-      <c r="C239" s="0" t="s">
+      <c r="C239" t="s">
         <v>734</v>
       </c>
-      <c r="D239" s="0" t="s">
+      <c r="D239" t="s">
         <v>735</v>
       </c>
-      <c r="E239" s="0" t="s">
+      <c r="E239" t="s">
         <v>9</v>
       </c>
       <c r="F239" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="240">
+    <row r="240" spans="1:6">
       <c r="A240" s="2">
         <v>239</v>
       </c>
-      <c r="B240" s="0" t="s">
+      <c r="B240" t="s">
         <v>736</v>
       </c>
-      <c r="C240" s="0" t="s">
+      <c r="C240" t="s">
         <v>737</v>
       </c>
-      <c r="D240" s="0" t="s">
+      <c r="D240" t="s">
         <v>738</v>
       </c>
-      <c r="E240" s="0" t="s">
+      <c r="E240" t="s">
         <v>10</v>
       </c>
       <c r="F240" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="241">
+    <row r="241" spans="1:6">
       <c r="A241" s="2">
         <v>240</v>
       </c>
-      <c r="B241" s="0" t="s">
+      <c r="B241" t="s">
         <v>739</v>
       </c>
-      <c r="C241" s="0" t="s">
+      <c r="C241" t="s">
         <v>740</v>
       </c>
-      <c r="D241" s="0" t="s">
+      <c r="D241" t="s">
         <v>741</v>
       </c>
-      <c r="E241" s="0" t="s">
+      <c r="E241" t="s">
         <v>10</v>
       </c>
       <c r="F241" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="242">
+    <row r="242" spans="1:6">
       <c r="A242" s="2">
         <v>241</v>
       </c>
-      <c r="B242" s="0" t="s">
+      <c r="B242" t="s">
         <v>742</v>
       </c>
-      <c r="C242" s="0" t="s">
+      <c r="C242" t="s">
         <v>743</v>
       </c>
-      <c r="D242" s="0" t="s">
+      <c r="D242" t="s">
         <v>744</v>
       </c>
-      <c r="E242" s="0" t="s">
+      <c r="E242" t="s">
         <v>10</v>
       </c>
       <c r="F242" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="243">
+    <row r="243" spans="1:6">
       <c r="A243" s="2">
         <v>242</v>
       </c>
-      <c r="B243" s="0" t="s">
+      <c r="B243" t="s">
         <v>745</v>
       </c>
-      <c r="C243" s="0" t="s">
+      <c r="C243" t="s">
         <v>746</v>
       </c>
-      <c r="D243" s="0" t="s">
+      <c r="D243" t="s">
         <v>747</v>
       </c>
-      <c r="E243" s="0" t="s">
+      <c r="E243" t="s">
         <v>10</v>
       </c>
       <c r="F243" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="244">
+    <row r="244" spans="1:6">
       <c r="A244" s="2">
         <v>243</v>
       </c>
-      <c r="B244" s="0" t="s">
+      <c r="B244" t="s">
         <v>748</v>
       </c>
-      <c r="C244" s="0" t="s">
+      <c r="C244" t="s">
         <v>749</v>
       </c>
-      <c r="D244" s="0" t="s">
+      <c r="D244" t="s">
         <v>750</v>
       </c>
-      <c r="E244" s="0" t="s">
+      <c r="E244" t="s">
         <v>30</v>
       </c>
       <c r="F244" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="245">
+    <row r="245" spans="1:6">
       <c r="A245" s="2">
         <v>244</v>
       </c>
-      <c r="B245" s="0" t="s">
+      <c r="B245" t="s">
         <v>751</v>
       </c>
-      <c r="C245" s="0" t="s">
+      <c r="C245" t="s">
         <v>752</v>
       </c>
-      <c r="D245" s="0" t="s">
+      <c r="D245" t="s">
         <v>753</v>
       </c>
-      <c r="E245" s="0" t="s">
+      <c r="E245" t="s">
         <v>10</v>
       </c>
       <c r="F245" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="246">
+    <row r="246" spans="1:6">
       <c r="A246" s="2">
         <v>245</v>
       </c>
-      <c r="B246" s="0" t="s">
+      <c r="B246" t="s">
         <v>754</v>
       </c>
-      <c r="C246" s="0" t="s">
+      <c r="C246" t="s">
         <v>755</v>
       </c>
-      <c r="D246" s="0" t="s">
+      <c r="D246" t="s">
         <v>756</v>
       </c>
-      <c r="E246" s="0" t="s">
+      <c r="E246" t="s">
         <v>10</v>
       </c>
       <c r="F246" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="247">
+    <row r="247" spans="1:6">
       <c r="A247" s="2">
         <v>246</v>
       </c>
-      <c r="B247" s="0" t="s">
+      <c r="B247" t="s">
         <v>757</v>
       </c>
-      <c r="C247" s="0" t="s">
+      <c r="C247" t="s">
         <v>758</v>
       </c>
-      <c r="D247" s="0" t="s">
+      <c r="D247" t="s">
         <v>759</v>
       </c>
-      <c r="E247" s="0" t="s">
+      <c r="E247" t="s">
         <v>30</v>
       </c>
       <c r="F247" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="248">
+    <row r="248" spans="1:6">
       <c r="A248" s="2">
         <v>247</v>
       </c>
-      <c r="B248" s="0" t="s">
+      <c r="B248" t="s">
         <v>760</v>
       </c>
-      <c r="C248" s="0" t="s">
+      <c r="C248" t="s">
         <v>761</v>
       </c>
-      <c r="D248" s="0" t="s">
+      <c r="D248" t="s">
         <v>762</v>
       </c>
-      <c r="E248" s="0" t="s">
+      <c r="E248" t="s">
         <v>10</v>
       </c>
       <c r="F248" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="249">
+    <row r="249" spans="1:6">
       <c r="A249" s="2">
         <v>248</v>
       </c>
-      <c r="B249" s="0" t="s">
+      <c r="B249" t="s">
         <v>763</v>
       </c>
-      <c r="C249" s="0" t="s">
+      <c r="C249" t="s">
         <v>764</v>
       </c>
-      <c r="D249" s="0" t="s">
+      <c r="D249" t="s">
         <v>765</v>
       </c>
-      <c r="E249" s="0" t="s">
+      <c r="E249" t="s">
         <v>30</v>
       </c>
       <c r="F249" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="250">
+    <row r="250" spans="1:6">
       <c r="A250" s="2">
         <v>249</v>
       </c>
-      <c r="B250" s="0" t="s">
+      <c r="B250" t="s">
         <v>766</v>
       </c>
-      <c r="C250" s="0" t="s">
+      <c r="C250" t="s">
         <v>767</v>
       </c>
-      <c r="D250" s="0" t="s">
+      <c r="D250" t="s">
         <v>768</v>
       </c>
-      <c r="E250" s="0" t="s">
+      <c r="E250" t="s">
         <v>30</v>
       </c>
       <c r="F250" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="251">
+    <row r="251" spans="1:6">
       <c r="A251" s="2">
         <v>250</v>
       </c>
-      <c r="B251" s="0" t="s">
+      <c r="B251" t="s">
         <v>769</v>
       </c>
-      <c r="C251" s="0" t="s">
+      <c r="C251" t="s">
         <v>770</v>
       </c>
-      <c r="D251" s="0" t="s">
+      <c r="D251" t="s">
         <v>771</v>
       </c>
-      <c r="E251" s="0" t="s">
+      <c r="E251" t="s">
         <v>10</v>
       </c>
       <c r="F251" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="252">
+    <row r="252" spans="1:6">
       <c r="A252" s="2">
         <v>251</v>
       </c>
-      <c r="B252" s="0" t="s">
+      <c r="B252" t="s">
         <v>772</v>
       </c>
-      <c r="C252" s="0" t="s">
+      <c r="C252" t="s">
         <v>773</v>
       </c>
-      <c r="D252" s="0" t="s">
+      <c r="D252" t="s">
         <v>774</v>
       </c>
-      <c r="E252" s="0" t="s">
+      <c r="E252" t="s">
         <v>9</v>
       </c>
       <c r="F252" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="253">
+    <row r="253" spans="1:6">
       <c r="A253" s="2">
         <v>252</v>
       </c>
-      <c r="B253" s="0" t="s">
+      <c r="B253" t="s">
         <v>775</v>
       </c>
-      <c r="C253" s="0" t="s">
+      <c r="C253" t="s">
         <v>776</v>
       </c>
-      <c r="D253" s="0" t="s">
+      <c r="D253" t="s">
         <v>777</v>
       </c>
-      <c r="E253" s="0" t="s">
+      <c r="E253" t="s">
         <v>10</v>
       </c>
       <c r="F253" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="254">
+    <row r="254" spans="1:6">
       <c r="A254" s="2">
         <v>253</v>
       </c>
-      <c r="B254" s="0" t="s">
+      <c r="B254" t="s">
         <v>778</v>
       </c>
-      <c r="C254" s="0" t="s">
+      <c r="C254" t="s">
         <v>779</v>
       </c>
-      <c r="D254" s="0" t="s">
+      <c r="D254" t="s">
         <v>780</v>
       </c>
-      <c r="E254" s="0" t="s">
+      <c r="E254" t="s">
         <v>10</v>
       </c>
       <c r="F254" s="4" t="s">
         <v>564</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6">
+      <c r="A255" s="2">
+        <v>254</v>
+      </c>
+      <c r="B255" t="s">
+        <v>781</v>
+      </c>
+      <c r="C255" t="s">
+        <v>782</v>
+      </c>
+      <c r="D255" t="s">
+        <v>783</v>
+      </c>
+      <c r="E255" t="s">
+        <v>10</v>
+      </c>
+      <c r="F255" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6">
+      <c r="A256" s="2">
+        <v>255</v>
+      </c>
+      <c r="B256" t="s">
+        <v>784</v>
+      </c>
+      <c r="C256" t="s">
+        <v>785</v>
+      </c>
+      <c r="D256" t="s">
+        <v>786</v>
+      </c>
+      <c r="E256" t="s">
+        <v>10</v>
+      </c>
+      <c r="F256" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6">
+      <c r="A257" s="2">
+        <v>256</v>
+      </c>
+      <c r="B257" t="s">
+        <v>787</v>
+      </c>
+      <c r="C257" t="s">
+        <v>788</v>
+      </c>
+      <c r="D257" t="s">
+        <v>789</v>
+      </c>
+      <c r="E257" t="s">
+        <v>9</v>
+      </c>
+      <c r="F257" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6">
+      <c r="A258" s="2">
+        <v>257</v>
+      </c>
+      <c r="B258" t="s">
+        <v>790</v>
+      </c>
+      <c r="C258" t="s">
+        <v>791</v>
+      </c>
+      <c r="D258" t="s">
+        <v>792</v>
+      </c>
+      <c r="E258" t="s">
+        <v>10</v>
+      </c>
+      <c r="F258" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6">
+      <c r="A259" s="2">
+        <v>258</v>
+      </c>
+      <c r="B259" t="s">
+        <v>793</v>
+      </c>
+      <c r="C259" t="s">
+        <v>794</v>
+      </c>
+      <c r="D259" t="s">
+        <v>795</v>
+      </c>
+      <c r="E259" t="s">
+        <v>10</v>
+      </c>
+      <c r="F259" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6">
+      <c r="A260" s="2">
+        <v>259</v>
+      </c>
+      <c r="B260" t="s">
+        <v>796</v>
+      </c>
+      <c r="C260" t="s">
+        <v>797</v>
+      </c>
+      <c r="D260" t="s">
+        <v>798</v>
+      </c>
+      <c r="E260" t="s">
+        <v>9</v>
+      </c>
+      <c r="F260" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6">
+      <c r="A261" s="2">
+        <v>260</v>
+      </c>
+      <c r="B261" t="s">
+        <v>799</v>
+      </c>
+      <c r="C261" t="s">
+        <v>800</v>
+      </c>
+      <c r="D261" t="s">
+        <v>801</v>
+      </c>
+      <c r="E261" t="s">
+        <v>10</v>
+      </c>
+      <c r="F261" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6">
+      <c r="A262" s="2">
+        <v>261</v>
+      </c>
+      <c r="B262" t="s">
+        <v>802</v>
+      </c>
+      <c r="C262" t="s">
+        <v>803</v>
+      </c>
+      <c r="D262" t="s">
+        <v>804</v>
+      </c>
+      <c r="E262" t="s">
+        <v>10</v>
+      </c>
+      <c r="F262" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6">
+      <c r="A263" s="2">
+        <v>262</v>
+      </c>
+      <c r="B263" t="s">
+        <v>805</v>
+      </c>
+      <c r="C263" t="s">
+        <v>806</v>
+      </c>
+      <c r="D263" t="s">
+        <v>807</v>
+      </c>
+      <c r="E263" t="s">
+        <v>10</v>
+      </c>
+      <c r="F263" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6">
+      <c r="A264" s="2">
+        <v>263</v>
+      </c>
+      <c r="B264" t="s">
+        <v>808</v>
+      </c>
+      <c r="C264" t="s">
+        <v>809</v>
+      </c>
+      <c r="D264" t="s">
+        <v>810</v>
+      </c>
+      <c r="E264" t="s">
+        <v>10</v>
+      </c>
+      <c r="F264" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6">
+      <c r="A265" s="2">
+        <v>264</v>
+      </c>
+      <c r="B265" t="s">
+        <v>811</v>
+      </c>
+      <c r="C265" t="s">
+        <v>812</v>
+      </c>
+      <c r="D265" t="s">
+        <v>813</v>
+      </c>
+      <c r="E265" t="s">
+        <v>9</v>
+      </c>
+      <c r="F265" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6">
+      <c r="A266" s="2">
+        <v>265</v>
+      </c>
+      <c r="B266" t="s">
+        <v>814</v>
+      </c>
+      <c r="C266" t="s">
+        <v>815</v>
+      </c>
+      <c r="D266" t="s">
+        <v>816</v>
+      </c>
+      <c r="E266" t="s">
+        <v>10</v>
+      </c>
+      <c r="F266" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6">
+      <c r="A267" s="2">
+        <v>266</v>
+      </c>
+      <c r="B267" t="s">
+        <v>817</v>
+      </c>
+      <c r="C267" t="s">
+        <v>818</v>
+      </c>
+      <c r="D267" t="s">
+        <v>819</v>
+      </c>
+      <c r="E267" t="s">
+        <v>30</v>
+      </c>
+      <c r="F267" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6">
+      <c r="A268" s="2">
+        <v>267</v>
+      </c>
+      <c r="B268" t="s">
+        <v>820</v>
+      </c>
+      <c r="C268" t="s">
+        <v>821</v>
+      </c>
+      <c r="D268" t="s">
+        <v>822</v>
+      </c>
+      <c r="E268" t="s">
+        <v>10</v>
+      </c>
+      <c r="F268" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6">
+      <c r="A269" s="2">
+        <v>268</v>
+      </c>
+      <c r="B269" t="s">
+        <v>823</v>
+      </c>
+      <c r="C269" t="s">
+        <v>824</v>
+      </c>
+      <c r="D269" t="s">
+        <v>825</v>
+      </c>
+      <c r="E269" t="s">
+        <v>10</v>
+      </c>
+      <c r="F269" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6">
+      <c r="A270" s="2">
+        <v>269</v>
+      </c>
+      <c r="B270" t="s">
+        <v>826</v>
+      </c>
+      <c r="C270" t="s">
+        <v>827</v>
+      </c>
+      <c r="D270" t="s">
+        <v>828</v>
+      </c>
+      <c r="E270" t="s">
+        <v>10</v>
+      </c>
+      <c r="F270" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6">
+      <c r="A271" s="2">
+        <v>270</v>
+      </c>
+      <c r="B271" t="s">
+        <v>829</v>
+      </c>
+      <c r="C271" t="s">
+        <v>830</v>
+      </c>
+      <c r="D271" t="s">
+        <v>831</v>
+      </c>
+      <c r="E271" t="s">
+        <v>9</v>
+      </c>
+      <c r="F271" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6">
+      <c r="A272" s="2">
+        <v>271</v>
+      </c>
+      <c r="B272" t="s">
+        <v>832</v>
+      </c>
+      <c r="C272" t="s">
+        <v>833</v>
+      </c>
+      <c r="D272" t="s">
+        <v>834</v>
+      </c>
+      <c r="E272" t="s">
+        <v>30</v>
+      </c>
+      <c r="F272" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6">
+      <c r="A273" s="2">
+        <v>272</v>
+      </c>
+      <c r="B273" t="s">
+        <v>835</v>
+      </c>
+      <c r="C273" t="s">
+        <v>836</v>
+      </c>
+      <c r="D273" t="s">
+        <v>837</v>
+      </c>
+      <c r="E273" t="s">
+        <v>10</v>
+      </c>
+      <c r="F273" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6">
+      <c r="A274" s="2">
+        <v>273</v>
+      </c>
+      <c r="B274" t="s">
+        <v>838</v>
+      </c>
+      <c r="C274" t="s">
+        <v>839</v>
+      </c>
+      <c r="D274" t="s">
+        <v>840</v>
+      </c>
+      <c r="E274" t="s">
+        <v>10</v>
+      </c>
+      <c r="F274" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6">
+      <c r="A275" s="2">
+        <v>274</v>
+      </c>
+      <c r="B275" t="s">
+        <v>841</v>
+      </c>
+      <c r="C275" t="s">
+        <v>212</v>
+      </c>
+      <c r="D275" t="s">
+        <v>842</v>
+      </c>
+      <c r="E275" t="s">
+        <v>10</v>
+      </c>
+      <c r="F275" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6">
+      <c r="A276" s="2">
+        <v>275</v>
+      </c>
+      <c r="B276" t="s">
+        <v>843</v>
+      </c>
+      <c r="C276" t="s">
+        <v>844</v>
+      </c>
+      <c r="D276" t="s">
+        <v>845</v>
+      </c>
+      <c r="E276" t="s">
+        <v>9</v>
+      </c>
+      <c r="F276" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6">
+      <c r="A277" s="2">
+        <v>276</v>
+      </c>
+      <c r="B277" t="s">
+        <v>846</v>
+      </c>
+      <c r="C277" t="s">
+        <v>847</v>
+      </c>
+      <c r="D277" t="s">
+        <v>848</v>
+      </c>
+      <c r="E277" t="s">
+        <v>10</v>
+      </c>
+      <c r="F277" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6">
+      <c r="A278" s="2">
+        <v>277</v>
+      </c>
+      <c r="B278" t="s">
+        <v>849</v>
+      </c>
+      <c r="C278" t="s">
+        <v>850</v>
+      </c>
+      <c r="D278" t="s">
+        <v>851</v>
+      </c>
+      <c r="E278" t="s">
+        <v>10</v>
+      </c>
+      <c r="F278" t="s">
+        <v>344</v>
       </c>
     </row>
   </sheetData>
@@ -8033,30 +8726,29 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Xcom2ClassManager/XComAbilityList.xlsx
+++ b/Xcom2ClassManager/XComAbilityList.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet1'!$B$1:$F$1</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1463" uniqueCount="852">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="852">
   <si>
     <t>ID</t>
   </si>
@@ -2581,6 +2581,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -2619,12 +2620,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2927,17 +2928,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="1" style="2"/>
+    <col min="2" max="2" bestFit="1" width="35" customWidth="1"/>
+    <col min="3" max="3" bestFit="1" width="28" customWidth="1"/>
     <col min="4" max="4" width="48.28515625" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" bestFit="1" width="14.7109375" customWidth="1"/>
+    <col min="6" max="6" bestFit="1" width="31.28515625" customWidth="1"/>
+    <col min="7" max="7" bestFit="1" width="15.28515625" customWidth="1"/>
+    <col min="8" max="8" bestFit="1" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2959,5759 +2960,5759 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="E2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="E3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="E4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="E5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7">
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="E8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="0" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="0" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="E10" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="0" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="0" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12">
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="0" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13">
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="0" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14">
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="0" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15">
       <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="E15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="E15" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="0" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16">
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="0" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17">
       <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="E17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="E17" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="0" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18">
       <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="0" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19">
       <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="E19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="E19" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="0" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20">
       <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="E20" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="E20" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="0" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21">
       <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="0" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22">
       <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="E22" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="E22" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="0" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23">
       <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="E23" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="E23" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="0" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24">
       <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="0" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25">
       <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="E25" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="E25" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="0" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26">
       <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="0" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27">
       <c r="A27" s="2">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="0" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28">
       <c r="A28" s="2">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="0" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29">
       <c r="A29" s="2">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="0" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30">
       <c r="A30" s="2">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="E30" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30" t="s">
+      <c r="E30" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="0" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31">
       <c r="A31" s="2">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="E31" t="s">
-        <v>9</v>
-      </c>
-      <c r="F31" t="s">
+      <c r="E31" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="0" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32">
       <c r="A32" s="2">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="E32" t="s">
-        <v>9</v>
-      </c>
-      <c r="F32" t="s">
+      <c r="E32" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="0" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33">
       <c r="A33" s="2">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="0" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34">
       <c r="A34" s="2">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="E34" t="s">
-        <v>9</v>
-      </c>
-      <c r="F34" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="E34" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="2">
         <v>34</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="0" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36">
       <c r="A36" s="2">
         <v>35</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="E36" t="s">
-        <v>9</v>
-      </c>
-      <c r="F36" t="s">
+      <c r="E36" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="0" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37">
       <c r="A37" s="2">
         <v>36</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="E37" t="s">
-        <v>9</v>
-      </c>
-      <c r="F37" t="s">
+      <c r="E37" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" s="0" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38">
       <c r="A38" s="2">
         <v>37</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="0" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39">
       <c r="A39" s="2">
         <v>38</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="0" t="s">
         <v>141</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="0" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40">
       <c r="A40" s="2">
         <v>39</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="E40" t="s">
-        <v>9</v>
-      </c>
-      <c r="F40" t="s">
+      <c r="E40" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" s="0" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41">
       <c r="A41" s="2">
         <v>40</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="0" t="s">
         <v>150</v>
       </c>
-      <c r="E41" t="s">
-        <v>9</v>
-      </c>
-      <c r="F41" t="s">
+      <c r="E41" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" s="0" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42">
       <c r="A42" s="2">
         <v>41</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="0" t="s">
         <v>152</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="0" t="s">
         <v>152</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="E42" t="s">
-        <v>10</v>
-      </c>
-      <c r="F42" t="s">
+      <c r="E42" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" s="0" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43">
       <c r="A43" s="2">
         <v>42</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="E43" t="s">
-        <v>9</v>
-      </c>
-      <c r="F43" t="s">
+      <c r="E43" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" s="0" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44">
       <c r="A44" s="2">
         <v>43</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="0" t="s">
         <v>161</v>
       </c>
-      <c r="E44" t="s">
-        <v>9</v>
-      </c>
-      <c r="F44" t="s">
+      <c r="E44" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" s="0" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45">
       <c r="A45" s="2">
         <v>44</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="0" t="s">
         <v>162</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="0" t="s">
         <v>162</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="E45" t="s">
-        <v>9</v>
-      </c>
-      <c r="F45" t="s">
+      <c r="E45" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" s="0" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46">
       <c r="A46" s="2">
         <v>45</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="0" t="s">
         <v>165</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="0" t="s">
         <v>166</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" s="0" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47">
       <c r="A47" s="2">
         <v>46</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="0" t="s">
         <v>169</v>
       </c>
-      <c r="E47" t="s">
-        <v>9</v>
-      </c>
-      <c r="F47" t="s">
+      <c r="E47" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" s="0" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48">
       <c r="A48" s="2">
         <v>47</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="0" t="s">
         <v>171</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="0" t="s">
         <v>173</v>
       </c>
-      <c r="E48" t="s">
-        <v>9</v>
-      </c>
-      <c r="F48" t="s">
+      <c r="E48" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" s="0" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49">
       <c r="A49" s="2">
         <v>48</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="0" t="s">
         <v>176</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="E49" t="s">
-        <v>9</v>
-      </c>
-      <c r="F49" t="s">
+      <c r="E49" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" s="0" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50">
       <c r="A50" s="2">
         <v>49</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="0" t="s">
         <v>179</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="0" t="s">
         <v>180</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="E50" t="s">
-        <v>9</v>
-      </c>
-      <c r="F50" t="s">
+      <c r="E50" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" s="0" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51">
       <c r="A51" s="2">
         <v>50</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="0" t="s">
         <v>182</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="0" t="s">
         <v>183</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="E51" t="s">
-        <v>10</v>
-      </c>
-      <c r="F51" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+      <c r="E51" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="2">
         <v>51</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="0" t="s">
         <v>186</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F52" s="0" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53">
       <c r="A53" s="2">
         <v>52</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="0" t="s">
         <v>187</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E53" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F53" s="0" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54">
       <c r="A54" s="2">
         <v>53</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="0" t="s">
         <v>191</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="0" t="s">
         <v>192</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="0" t="s">
         <v>193</v>
       </c>
-      <c r="E54" t="s">
-        <v>9</v>
-      </c>
-      <c r="F54" t="s">
+      <c r="E54" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54" s="0" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55">
       <c r="A55" s="2">
         <v>54</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="0" t="s">
         <v>194</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="0" t="s">
         <v>194</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="0" t="s">
         <v>195</v>
       </c>
-      <c r="E55" t="s">
-        <v>9</v>
-      </c>
-      <c r="F55" t="s">
+      <c r="E55" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F55" s="0" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56">
       <c r="A56" s="2">
         <v>55</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="0" t="s">
         <v>198</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="0" t="s">
         <v>199</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E56" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F56" s="0" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57">
       <c r="A57" s="2">
         <v>56</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="0" t="s">
         <v>200</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="0" t="s">
         <v>200</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="0" t="s">
         <v>201</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E57" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F57" s="0" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58">
       <c r="A58" s="2">
         <v>57</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="0" t="s">
         <v>203</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E58" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F58" s="0" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59">
       <c r="A59" s="2">
         <v>58</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="0" t="s">
         <v>205</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="0" t="s">
         <v>206</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="0" t="s">
         <v>207</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E59" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F59" s="0" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60">
       <c r="A60" s="2">
         <v>59</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="0" t="s">
         <v>209</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="0" t="s">
         <v>209</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="0" t="s">
         <v>210</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E60" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F60" s="0" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61">
       <c r="A61" s="2">
         <v>60</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="0" t="s">
         <v>212</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="0" t="s">
         <v>212</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="0" t="s">
         <v>213</v>
       </c>
-      <c r="E61" t="s">
-        <v>9</v>
-      </c>
-      <c r="F61" t="s">
+      <c r="E61" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61" s="0" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62">
       <c r="A62" s="2">
         <v>61</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="0" t="s">
         <v>214</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="0" t="s">
         <v>214</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="0" t="s">
         <v>215</v>
       </c>
-      <c r="E62" t="s">
-        <v>9</v>
-      </c>
-      <c r="F62" t="s">
+      <c r="E62" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62" s="0" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63">
       <c r="A63" s="2">
         <v>62</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="0" t="s">
         <v>217</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="0" t="s">
         <v>218</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="0" t="s">
         <v>219</v>
       </c>
-      <c r="E63" t="s">
-        <v>9</v>
-      </c>
-      <c r="F63" t="s">
+      <c r="E63" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F63" s="0" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64">
       <c r="A64" s="2">
         <v>63</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="0" t="s">
         <v>221</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="0" t="s">
         <v>221</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="0" t="s">
         <v>222</v>
       </c>
-      <c r="E64" t="s">
-        <v>10</v>
-      </c>
-      <c r="F64" t="s">
+      <c r="E64" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F64" s="0" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65">
       <c r="A65" s="2">
         <v>64</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="0" t="s">
         <v>225</v>
       </c>
-      <c r="E65" t="s">
-        <v>9</v>
-      </c>
-      <c r="F65" t="s">
+      <c r="E65" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F65" s="0" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66">
       <c r="A66" s="2">
         <v>65</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="0" t="s">
         <v>227</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="0" t="s">
         <v>228</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="0" t="s">
         <v>229</v>
       </c>
-      <c r="E66" t="s">
-        <v>9</v>
-      </c>
-      <c r="F66" t="s">
+      <c r="E66" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F66" s="0" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67">
       <c r="A67" s="2">
         <v>66</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="0" t="s">
         <v>231</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="E67" t="s">
-        <v>10</v>
-      </c>
-      <c r="F67" t="s">
+      <c r="E67" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F67" s="0" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68">
       <c r="A68" s="2">
         <v>67</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="0" t="s">
         <v>234</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="0" t="s">
         <v>236</v>
       </c>
-      <c r="E68" t="s">
-        <v>10</v>
-      </c>
-      <c r="F68" t="s">
+      <c r="E68" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F68" s="0" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69">
       <c r="A69" s="2">
         <v>68</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="0" t="s">
         <v>237</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="0" t="s">
         <v>237</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="0" t="s">
         <v>238</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E69" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F69" s="0" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70">
       <c r="A70" s="2">
         <v>69</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="0" t="s">
         <v>240</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="0" t="s">
         <v>240</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="0" t="s">
         <v>241</v>
       </c>
-      <c r="E70" t="s">
-        <v>9</v>
-      </c>
-      <c r="F70" t="s">
+      <c r="E70" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F70" s="0" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71">
       <c r="A71" s="2">
         <v>70</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="0" t="s">
         <v>242</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="0" t="s">
         <v>243</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="0" t="s">
         <v>244</v>
       </c>
-      <c r="E71" t="s">
-        <v>9</v>
-      </c>
-      <c r="F71" t="s">
+      <c r="E71" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F71" s="0" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72">
       <c r="A72" s="2">
         <v>71</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="0" t="s">
         <v>245</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="0" t="s">
         <v>246</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="0" t="s">
         <v>247</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E72" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="F72" t="s">
+      <c r="F72" s="0" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73">
       <c r="A73" s="2">
         <v>72</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="0" t="s">
         <v>248</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="0" t="s">
         <v>248</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" s="0" t="s">
         <v>249</v>
       </c>
-      <c r="E73" t="s">
-        <v>10</v>
-      </c>
-      <c r="F73" t="s">
+      <c r="E73" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F73" s="0" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74">
       <c r="A74" s="2">
         <v>73</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="0" t="s">
         <v>250</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="0" t="s">
         <v>251</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" s="0" t="s">
         <v>252</v>
       </c>
-      <c r="E74" t="s">
-        <v>9</v>
-      </c>
-      <c r="F74" t="s">
+      <c r="E74" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F74" s="0" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75">
       <c r="A75" s="2">
         <v>74</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="0" t="s">
         <v>254</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="0" t="s">
         <v>255</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" s="0" t="s">
         <v>256</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E75" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F75" s="0" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76">
       <c r="A76" s="2">
         <v>75</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="0" t="s">
         <v>257</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="0" t="s">
         <v>258</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" s="0" t="s">
         <v>259</v>
       </c>
-      <c r="E76" t="s">
-        <v>9</v>
-      </c>
-      <c r="F76" t="s">
+      <c r="E76" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F76" s="0" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77">
       <c r="A77" s="2">
         <v>76</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="0" t="s">
         <v>261</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="0" t="s">
         <v>262</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77" s="0" t="s">
         <v>263</v>
       </c>
-      <c r="E77" t="s">
-        <v>9</v>
-      </c>
-      <c r="F77" t="s">
+      <c r="E77" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F77" s="0" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78">
       <c r="A78" s="2">
         <v>77</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="0" t="s">
         <v>264</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="0" t="s">
         <v>265</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D78" s="0" t="s">
         <v>266</v>
       </c>
-      <c r="E78" t="s">
-        <v>9</v>
-      </c>
-      <c r="F78" t="s">
+      <c r="E78" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F78" s="0" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79">
       <c r="A79" s="2">
         <v>78</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="0" t="s">
         <v>267</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="0" t="s">
         <v>267</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D79" s="0" t="s">
         <v>268</v>
       </c>
-      <c r="E79" t="s">
-        <v>9</v>
-      </c>
-      <c r="F79" t="s">
+      <c r="E79" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F79" s="0" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80">
       <c r="A80" s="2">
         <v>79</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="0" t="s">
         <v>269</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="0" t="s">
         <v>270</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80" s="0" t="s">
         <v>271</v>
       </c>
-      <c r="E80" t="s">
-        <v>9</v>
-      </c>
-      <c r="F80" t="s">
+      <c r="E80" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F80" s="0" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81">
       <c r="A81" s="2">
         <v>80</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="0" t="s">
         <v>272</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="0" t="s">
         <v>272</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" s="0" t="s">
         <v>273</v>
       </c>
-      <c r="E81" t="s">
-        <v>9</v>
-      </c>
-      <c r="F81" t="s">
+      <c r="E81" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F81" s="0" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82">
       <c r="A82" s="2">
         <v>81</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="0" t="s">
         <v>274</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="0" t="s">
         <v>275</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D82" s="0" t="s">
         <v>276</v>
       </c>
-      <c r="E82" t="s">
-        <v>9</v>
-      </c>
-      <c r="F82" t="s">
+      <c r="E82" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F82" s="0" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83">
       <c r="A83" s="2">
         <v>82</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="0" t="s">
         <v>277</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="0" t="s">
         <v>277</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D83" s="0" t="s">
         <v>278</v>
       </c>
-      <c r="E83" t="s">
-        <v>9</v>
-      </c>
-      <c r="F83" t="s">
+      <c r="E83" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F83" s="0" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84">
       <c r="A84" s="2">
         <v>83</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="0" t="s">
         <v>279</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="0" t="s">
         <v>280</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D84" s="0" t="s">
         <v>281</v>
       </c>
-      <c r="E84" t="s">
-        <v>9</v>
-      </c>
-      <c r="F84" t="s">
+      <c r="E84" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F84" s="0" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85">
       <c r="A85" s="2">
         <v>84</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="0" t="s">
         <v>282</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="0" t="s">
         <v>283</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D85" s="0" t="s">
         <v>284</v>
       </c>
-      <c r="E85" t="s">
-        <v>9</v>
-      </c>
-      <c r="F85" t="s">
+      <c r="E85" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F85" s="0" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86">
       <c r="A86" s="2">
         <v>85</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="0" t="s">
         <v>285</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="0" t="s">
         <v>286</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D86" s="0" t="s">
         <v>287</v>
       </c>
       <c r="E86" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F86" t="s">
+      <c r="F86" s="0" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87">
       <c r="A87" s="2">
         <v>86</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="0" t="s">
         <v>288</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="0" t="s">
         <v>288</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D87" s="0" t="s">
         <v>289</v>
       </c>
-      <c r="E87" t="s">
-        <v>9</v>
-      </c>
-      <c r="F87" t="s">
+      <c r="E87" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F87" s="0" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88">
       <c r="A88" s="2">
         <v>87</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="0" t="s">
         <v>290</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="0" t="s">
         <v>291</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D88" s="0" t="s">
         <v>292</v>
       </c>
-      <c r="E88" t="s">
-        <v>9</v>
-      </c>
-      <c r="F88" t="s">
+      <c r="E88" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F88" s="0" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89">
       <c r="A89" s="2">
         <v>88</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="0" t="s">
         <v>293</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="0" t="s">
         <v>294</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D89" s="0" t="s">
         <v>295</v>
       </c>
       <c r="E89" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F89" t="s">
+      <c r="F89" s="0" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90">
       <c r="A90" s="2">
         <v>89</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="0" t="s">
         <v>296</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="0" t="s">
         <v>297</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D90" s="0" t="s">
         <v>298</v>
       </c>
-      <c r="E90" t="s">
-        <v>9</v>
-      </c>
-      <c r="F90" t="s">
+      <c r="E90" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F90" s="0" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91">
       <c r="A91" s="2">
         <v>90</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="0" t="s">
         <v>299</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="0" t="s">
         <v>299</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D91" s="0" t="s">
         <v>300</v>
       </c>
-      <c r="E91" t="s">
-        <v>9</v>
-      </c>
-      <c r="F91" t="s">
+      <c r="E91" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F91" s="0" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92">
       <c r="A92" s="2">
         <v>91</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="0" t="s">
         <v>301</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="0" t="s">
         <v>301</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D92" s="0" t="s">
         <v>302</v>
       </c>
-      <c r="E92" t="s">
-        <v>9</v>
-      </c>
-      <c r="F92" t="s">
+      <c r="E92" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F92" s="0" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93">
       <c r="A93" s="2">
         <v>92</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="0" t="s">
         <v>303</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" s="0" t="s">
         <v>304</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D93" s="0" t="s">
         <v>305</v>
       </c>
-      <c r="E93" t="s">
-        <v>9</v>
-      </c>
-      <c r="F93" t="s">
+      <c r="E93" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F93" s="0" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94">
       <c r="A94" s="2">
         <v>93</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="0" t="s">
         <v>306</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="0" t="s">
         <v>307</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D94" s="0" t="s">
         <v>308</v>
       </c>
-      <c r="E94" t="s">
-        <v>9</v>
-      </c>
-      <c r="F94" t="s">
+      <c r="E94" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F94" s="0" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95">
       <c r="A95" s="2">
         <v>94</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="0" t="s">
         <v>309</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" s="0" t="s">
         <v>310</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D95" s="0" t="s">
         <v>311</v>
       </c>
-      <c r="E95" t="s">
-        <v>9</v>
-      </c>
-      <c r="F95" t="s">
+      <c r="E95" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F95" s="0" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96">
       <c r="A96" s="2">
         <v>95</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="0" t="s">
         <v>312</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" s="0" t="s">
         <v>312</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D96" s="0" t="s">
         <v>313</v>
       </c>
-      <c r="E96" t="s">
-        <v>9</v>
-      </c>
-      <c r="F96" t="s">
+      <c r="E96" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F96" s="0" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97">
       <c r="A97" s="2">
         <v>96</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="0" t="s">
         <v>314</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" s="0" t="s">
         <v>315</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D97" s="0" t="s">
         <v>316</v>
       </c>
-      <c r="E97" t="s">
-        <v>9</v>
-      </c>
-      <c r="F97" t="s">
+      <c r="E97" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F97" s="0" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98">
       <c r="A98" s="2">
         <v>97</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="0" t="s">
         <v>317</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" s="0" t="s">
         <v>317</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D98" s="0" t="s">
         <v>318</v>
       </c>
-      <c r="E98" t="s">
-        <v>9</v>
-      </c>
-      <c r="F98" t="s">
+      <c r="E98" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F98" s="0" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99">
       <c r="A99" s="2">
         <v>98</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="0" t="s">
         <v>319</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" s="0" t="s">
         <v>320</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D99" s="0" t="s">
         <v>321</v>
       </c>
-      <c r="E99" t="s">
-        <v>9</v>
-      </c>
-      <c r="F99" t="s">
+      <c r="E99" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F99" s="0" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100">
       <c r="A100" s="2">
         <v>99</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="0" t="s">
         <v>322</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C100" s="0" t="s">
         <v>323</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D100" s="0" t="s">
         <v>324</v>
       </c>
-      <c r="E100" t="s">
-        <v>9</v>
-      </c>
-      <c r="F100" t="s">
+      <c r="E100" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F100" s="0" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101">
       <c r="A101" s="2">
         <v>100</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="0" t="s">
         <v>325</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C101" s="0" t="s">
         <v>325</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D101" s="0" t="s">
         <v>326</v>
       </c>
-      <c r="E101" t="s">
-        <v>9</v>
-      </c>
-      <c r="F101" t="s">
+      <c r="E101" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F101" s="0" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102">
       <c r="A102" s="2">
         <v>101</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="0" t="s">
         <v>327</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C102" s="0" t="s">
         <v>328</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D102" s="0" t="s">
         <v>329</v>
       </c>
-      <c r="E102" t="s">
-        <v>9</v>
-      </c>
-      <c r="F102" t="s">
+      <c r="E102" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F102" s="0" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103">
       <c r="A103" s="2">
         <v>102</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="0" t="s">
         <v>330</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103" s="0" t="s">
         <v>330</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D103" s="0" t="s">
         <v>331</v>
       </c>
-      <c r="E103" t="s">
-        <v>9</v>
-      </c>
-      <c r="F103" t="s">
+      <c r="E103" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F103" s="0" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104">
       <c r="A104" s="2">
         <v>103</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="0" t="s">
         <v>332</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C104" s="0" t="s">
         <v>333</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D104" s="0" t="s">
         <v>334</v>
       </c>
-      <c r="E104" t="s">
-        <v>9</v>
-      </c>
-      <c r="F104" t="s">
+      <c r="E104" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F104" s="0" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105">
       <c r="A105" s="2">
         <v>104</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="0" t="s">
         <v>335</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C105" s="0" t="s">
         <v>336</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D105" s="0" t="s">
         <v>337</v>
       </c>
-      <c r="E105" t="s">
-        <v>9</v>
-      </c>
-      <c r="F105" t="s">
+      <c r="E105" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F105" s="0" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106">
       <c r="A106" s="2">
         <v>105</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="0" t="s">
         <v>338</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C106" s="0" t="s">
         <v>339</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D106" s="0" t="s">
         <v>340</v>
       </c>
-      <c r="E106" t="s">
-        <v>9</v>
-      </c>
-      <c r="F106" t="s">
+      <c r="E106" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F106" s="0" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107">
       <c r="A107" s="2">
         <v>106</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="0" t="s">
         <v>341</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C107" s="0" t="s">
         <v>342</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D107" s="0" t="s">
         <v>343</v>
       </c>
-      <c r="E107" t="s">
+      <c r="E107" s="0" t="s">
         <v>30</v>
       </c>
       <c r="F107" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108">
       <c r="A108" s="2">
         <v>107</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="0" t="s">
         <v>345</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C108" s="0" t="s">
         <v>346</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D108" s="0" t="s">
         <v>347</v>
       </c>
-      <c r="E108" t="s">
+      <c r="E108" s="0" t="s">
         <v>30</v>
       </c>
       <c r="F108" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109">
       <c r="A109" s="2">
         <v>108</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="0" t="s">
         <v>348</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C109" s="0" t="s">
         <v>349</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D109" s="0" t="s">
         <v>350</v>
       </c>
-      <c r="E109" t="s">
+      <c r="E109" s="0" t="s">
         <v>30</v>
       </c>
       <c r="F109" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110">
       <c r="A110" s="2">
         <v>109</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="0" t="s">
         <v>351</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C110" s="0" t="s">
         <v>352</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D110" s="0" t="s">
         <v>353</v>
       </c>
-      <c r="E110" t="s">
+      <c r="E110" s="0" t="s">
         <v>30</v>
       </c>
       <c r="F110" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111">
       <c r="A111" s="2">
         <v>110</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="0" t="s">
         <v>354</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C111" s="0" t="s">
         <v>355</v>
       </c>
-      <c r="D111" t="s">
+      <c r="D111" s="0" t="s">
         <v>356</v>
       </c>
-      <c r="E111" t="s">
+      <c r="E111" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F111" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112">
       <c r="A112" s="2">
         <v>111</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="0" t="s">
         <v>357</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C112" s="0" t="s">
         <v>358</v>
       </c>
-      <c r="D112" t="s">
+      <c r="D112" s="0" t="s">
         <v>359</v>
       </c>
-      <c r="E112" t="s">
+      <c r="E112" s="0" t="s">
         <v>30</v>
       </c>
       <c r="F112" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113">
       <c r="A113" s="2">
         <v>112</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="0" t="s">
         <v>360</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C113" s="0" t="s">
         <v>361</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D113" s="0" t="s">
         <v>362</v>
       </c>
-      <c r="E113" t="s">
+      <c r="E113" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F113" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114">
       <c r="A114" s="2">
         <v>113</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="0" t="s">
         <v>363</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C114" s="0" t="s">
         <v>364</v>
       </c>
-      <c r="D114" t="s">
+      <c r="D114" s="0" t="s">
         <v>365</v>
       </c>
-      <c r="E114" t="s">
+      <c r="E114" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F114" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115">
       <c r="A115" s="2">
         <v>114</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="0" t="s">
         <v>366</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C115" s="0" t="s">
         <v>367</v>
       </c>
-      <c r="D115" t="s">
+      <c r="D115" s="0" t="s">
         <v>368</v>
       </c>
-      <c r="E115" t="s">
+      <c r="E115" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F115" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116">
       <c r="A116" s="2">
         <v>115</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="0" t="s">
         <v>369</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C116" s="0" t="s">
         <v>370</v>
       </c>
-      <c r="D116" t="s">
+      <c r="D116" s="0" t="s">
         <v>371</v>
       </c>
-      <c r="E116" t="s">
+      <c r="E116" s="0" t="s">
         <v>30</v>
       </c>
       <c r="F116" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117">
       <c r="A117" s="2">
         <v>116</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="0" t="s">
         <v>372</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C117" s="0" t="s">
         <v>373</v>
       </c>
-      <c r="D117" t="s">
+      <c r="D117" s="0" t="s">
         <v>374</v>
       </c>
-      <c r="E117" t="s">
+      <c r="E117" s="0" t="s">
         <v>30</v>
       </c>
       <c r="F117" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118">
       <c r="A118" s="2">
         <v>117</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="0" t="s">
         <v>375</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C118" s="0" t="s">
         <v>376</v>
       </c>
-      <c r="D118" t="s">
+      <c r="D118" s="0" t="s">
         <v>377</v>
       </c>
-      <c r="E118" t="s">
+      <c r="E118" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F118" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119">
       <c r="A119" s="2">
         <v>118</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" s="0" t="s">
         <v>378</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C119" s="0" t="s">
         <v>379</v>
       </c>
-      <c r="D119" t="s">
+      <c r="D119" s="0" t="s">
         <v>380</v>
       </c>
-      <c r="E119" t="s">
+      <c r="E119" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F119" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120">
       <c r="A120" s="2">
         <v>119</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" s="0" t="s">
         <v>381</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C120" s="0" t="s">
         <v>382</v>
       </c>
-      <c r="D120" t="s">
+      <c r="D120" s="0" t="s">
         <v>383</v>
       </c>
-      <c r="E120" t="s">
+      <c r="E120" s="0" t="s">
         <v>30</v>
       </c>
       <c r="F120" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121">
       <c r="A121" s="2">
         <v>120</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121" s="0" t="s">
         <v>384</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C121" s="0" t="s">
         <v>385</v>
       </c>
-      <c r="D121" t="s">
+      <c r="D121" s="0" t="s">
         <v>386</v>
       </c>
-      <c r="E121" t="s">
+      <c r="E121" s="0" t="s">
         <v>30</v>
       </c>
       <c r="F121" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122">
       <c r="A122" s="2">
         <v>121</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" s="0" t="s">
         <v>387</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C122" s="0" t="s">
         <v>388</v>
       </c>
-      <c r="D122" t="s">
+      <c r="D122" s="0" t="s">
         <v>389</v>
       </c>
-      <c r="E122" t="s">
+      <c r="E122" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F122" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123">
       <c r="A123" s="2">
         <v>122</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B123" s="0" t="s">
         <v>390</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C123" s="0" t="s">
         <v>391</v>
       </c>
-      <c r="D123" t="s">
+      <c r="D123" s="0" t="s">
         <v>392</v>
       </c>
-      <c r="E123" t="s">
+      <c r="E123" s="0" t="s">
         <v>30</v>
       </c>
       <c r="F123" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124">
       <c r="A124" s="2">
         <v>123</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B124" s="0" t="s">
         <v>393</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C124" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="D124" t="s">
+      <c r="D124" s="0" t="s">
         <v>394</v>
       </c>
-      <c r="E124" t="s">
+      <c r="E124" s="0" t="s">
         <v>30</v>
       </c>
       <c r="F124" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125">
       <c r="A125" s="2">
         <v>124</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B125" s="0" t="s">
         <v>395</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C125" s="0" t="s">
         <v>396</v>
       </c>
-      <c r="D125" t="s">
+      <c r="D125" s="0" t="s">
         <v>397</v>
       </c>
-      <c r="E125" t="s">
+      <c r="E125" s="0" t="s">
         <v>30</v>
       </c>
       <c r="F125" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126">
       <c r="A126" s="2">
         <v>125</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126" s="0" t="s">
         <v>398</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C126" s="0" t="s">
         <v>399</v>
       </c>
-      <c r="D126" t="s">
+      <c r="D126" s="0" t="s">
         <v>400</v>
       </c>
-      <c r="E126" t="s">
+      <c r="E126" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F126" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127">
       <c r="A127" s="2">
         <v>126</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B127" s="0" t="s">
         <v>401</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C127" s="0" t="s">
         <v>402</v>
       </c>
-      <c r="D127" t="s">
+      <c r="D127" s="0" t="s">
         <v>403</v>
       </c>
-      <c r="E127" t="s">
+      <c r="E127" s="0" t="s">
         <v>9</v>
       </c>
       <c r="F127" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128">
       <c r="A128" s="2">
         <v>127</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B128" s="0" t="s">
         <v>404</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C128" s="0" t="s">
         <v>405</v>
       </c>
-      <c r="D128" t="s">
+      <c r="D128" s="0" t="s">
         <v>406</v>
       </c>
-      <c r="E128" t="s">
+      <c r="E128" s="0" t="s">
         <v>30</v>
       </c>
       <c r="F128" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129">
       <c r="A129" s="2">
         <v>128</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B129" s="0" t="s">
         <v>407</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C129" s="0" t="s">
         <v>408</v>
       </c>
-      <c r="D129" t="s">
+      <c r="D129" s="0" t="s">
         <v>409</v>
       </c>
-      <c r="E129" t="s">
+      <c r="E129" s="0" t="s">
         <v>30</v>
       </c>
       <c r="F129" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130">
       <c r="A130" s="2">
         <v>129</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B130" s="0" t="s">
         <v>410</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C130" s="0" t="s">
         <v>411</v>
       </c>
-      <c r="D130" t="s">
+      <c r="D130" s="0" t="s">
         <v>412</v>
       </c>
-      <c r="E130" t="s">
+      <c r="E130" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F130" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131">
       <c r="A131" s="2">
         <v>130</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B131" s="0" t="s">
         <v>413</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C131" s="0" t="s">
         <v>414</v>
       </c>
-      <c r="D131" t="s">
+      <c r="D131" s="0" t="s">
         <v>415</v>
       </c>
-      <c r="E131" t="s">
+      <c r="E131" s="0" t="s">
         <v>30</v>
       </c>
       <c r="F131" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132">
       <c r="A132" s="2">
         <v>131</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B132" s="0" t="s">
         <v>416</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C132" s="0" t="s">
         <v>417</v>
       </c>
-      <c r="D132" t="s">
+      <c r="D132" s="0" t="s">
         <v>418</v>
       </c>
-      <c r="E132" t="s">
+      <c r="E132" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F132" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133">
       <c r="A133" s="2">
         <v>132</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B133" s="0" t="s">
         <v>419</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C133" s="0" t="s">
         <v>420</v>
       </c>
-      <c r="D133" t="s">
+      <c r="D133" s="0" t="s">
         <v>421</v>
       </c>
-      <c r="E133" t="s">
+      <c r="E133" s="0" t="s">
         <v>9</v>
       </c>
       <c r="F133" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134">
       <c r="A134" s="2">
         <v>133</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B134" s="0" t="s">
         <v>422</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C134" s="0" t="s">
         <v>243</v>
       </c>
-      <c r="D134" t="s">
+      <c r="D134" s="0" t="s">
         <v>423</v>
       </c>
-      <c r="E134" t="s">
+      <c r="E134" s="0" t="s">
         <v>9</v>
       </c>
       <c r="F134" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135">
       <c r="A135" s="2">
         <v>134</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B135" s="0" t="s">
         <v>424</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C135" s="0" t="s">
         <v>425</v>
       </c>
-      <c r="D135" t="s">
+      <c r="D135" s="0" t="s">
         <v>426</v>
       </c>
-      <c r="E135" t="s">
+      <c r="E135" s="0" t="s">
         <v>30</v>
       </c>
       <c r="F135" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136">
       <c r="A136" s="2">
         <v>135</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B136" s="0" t="s">
         <v>427</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C136" s="0" t="s">
         <v>428</v>
       </c>
-      <c r="D136" t="s">
+      <c r="D136" s="0" t="s">
         <v>429</v>
       </c>
-      <c r="E136" t="s">
+      <c r="E136" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F136" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137">
       <c r="A137" s="2">
         <v>136</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B137" s="0" t="s">
         <v>430</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C137" s="0" t="s">
         <v>431</v>
       </c>
-      <c r="D137" t="s">
+      <c r="D137" s="0" t="s">
         <v>432</v>
       </c>
-      <c r="E137" t="s">
+      <c r="E137" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F137" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138">
       <c r="A138" s="2">
         <v>137</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B138" s="0" t="s">
         <v>433</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C138" s="0" t="s">
         <v>434</v>
       </c>
-      <c r="D138" t="s">
+      <c r="D138" s="0" t="s">
         <v>435</v>
       </c>
-      <c r="E138" t="s">
+      <c r="E138" s="0" t="s">
         <v>30</v>
       </c>
       <c r="F138" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139">
       <c r="A139" s="2">
         <v>138</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B139" s="0" t="s">
         <v>436</v>
       </c>
-      <c r="C139" t="s">
+      <c r="C139" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="D139" t="s">
+      <c r="D139" s="0" t="s">
         <v>437</v>
       </c>
-      <c r="E139" t="s">
+      <c r="E139" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F139" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140">
       <c r="A140" s="2">
         <v>139</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B140" s="0" t="s">
         <v>438</v>
       </c>
-      <c r="C140" t="s">
+      <c r="C140" s="0" t="s">
         <v>439</v>
       </c>
-      <c r="D140" t="s">
+      <c r="D140" s="0" t="s">
         <v>440</v>
       </c>
-      <c r="E140" t="s">
+      <c r="E140" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F140" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141">
       <c r="A141" s="2">
         <v>140</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B141" s="0" t="s">
         <v>441</v>
       </c>
-      <c r="C141" t="s">
+      <c r="C141" s="0" t="s">
         <v>442</v>
       </c>
-      <c r="D141" t="s">
+      <c r="D141" s="0" t="s">
         <v>443</v>
       </c>
-      <c r="E141" t="s">
+      <c r="E141" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F141" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142">
       <c r="A142" s="2">
         <v>141</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B142" s="0" t="s">
         <v>444</v>
       </c>
-      <c r="C142" t="s">
+      <c r="C142" s="0" t="s">
         <v>445</v>
       </c>
-      <c r="D142" t="s">
+      <c r="D142" s="0" t="s">
         <v>446</v>
       </c>
-      <c r="E142" t="s">
+      <c r="E142" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F142" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143">
       <c r="A143" s="2">
         <v>142</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B143" s="0" t="s">
         <v>447</v>
       </c>
-      <c r="C143" t="s">
+      <c r="C143" s="0" t="s">
         <v>448</v>
       </c>
-      <c r="D143" t="s">
+      <c r="D143" s="0" t="s">
         <v>449</v>
       </c>
-      <c r="E143" t="s">
+      <c r="E143" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F143" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144">
       <c r="A144" s="2">
         <v>143</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B144" s="0" t="s">
         <v>450</v>
       </c>
-      <c r="C144" t="s">
+      <c r="C144" s="0" t="s">
         <v>451</v>
       </c>
-      <c r="D144" t="s">
+      <c r="D144" s="0" t="s">
         <v>452</v>
       </c>
-      <c r="E144" t="s">
+      <c r="E144" s="0" t="s">
         <v>30</v>
       </c>
       <c r="F144" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145">
       <c r="A145" s="2">
         <v>144</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B145" s="0" t="s">
         <v>453</v>
       </c>
-      <c r="C145" t="s">
+      <c r="C145" s="0" t="s">
         <v>454</v>
       </c>
-      <c r="D145" t="s">
+      <c r="D145" s="0" t="s">
         <v>455</v>
       </c>
-      <c r="E145" t="s">
+      <c r="E145" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F145" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146">
       <c r="A146" s="2">
         <v>145</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B146" s="0" t="s">
         <v>456</v>
       </c>
-      <c r="C146" t="s">
+      <c r="C146" s="0" t="s">
         <v>457</v>
       </c>
-      <c r="D146" t="s">
+      <c r="D146" s="0" t="s">
         <v>458</v>
       </c>
-      <c r="E146" t="s">
+      <c r="E146" s="0" t="s">
         <v>30</v>
       </c>
       <c r="F146" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147">
       <c r="A147" s="2">
         <v>146</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B147" s="0" t="s">
         <v>459</v>
       </c>
-      <c r="C147" t="s">
+      <c r="C147" s="0" t="s">
         <v>460</v>
       </c>
-      <c r="D147" t="s">
+      <c r="D147" s="0" t="s">
         <v>461</v>
       </c>
-      <c r="E147" t="s">
+      <c r="E147" s="0" t="s">
         <v>9</v>
       </c>
       <c r="F147" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148">
       <c r="A148" s="2">
         <v>147</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B148" s="0" t="s">
         <v>462</v>
       </c>
-      <c r="C148" t="s">
+      <c r="C148" s="0" t="s">
         <v>463</v>
       </c>
-      <c r="D148" t="s">
+      <c r="D148" s="0" t="s">
         <v>464</v>
       </c>
-      <c r="E148" t="s">
+      <c r="E148" s="0" t="s">
         <v>9</v>
       </c>
       <c r="F148" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149">
       <c r="A149" s="2">
         <v>148</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B149" s="0" t="s">
         <v>465</v>
       </c>
-      <c r="C149" t="s">
+      <c r="C149" s="0" t="s">
         <v>466</v>
       </c>
-      <c r="D149" t="s">
+      <c r="D149" s="0" t="s">
         <v>467</v>
       </c>
-      <c r="E149" t="s">
+      <c r="E149" s="0" t="s">
         <v>9</v>
       </c>
       <c r="F149" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150">
       <c r="A150" s="2">
         <v>149</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B150" s="0" t="s">
         <v>468</v>
       </c>
-      <c r="C150" t="s">
+      <c r="C150" s="0" t="s">
         <v>469</v>
       </c>
-      <c r="D150" t="s">
+      <c r="D150" s="0" t="s">
         <v>470</v>
       </c>
-      <c r="E150" t="s">
+      <c r="E150" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F150" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151">
       <c r="A151" s="2">
         <v>150</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B151" s="0" t="s">
         <v>471</v>
       </c>
-      <c r="C151" t="s">
+      <c r="C151" s="0" t="s">
         <v>255</v>
       </c>
-      <c r="D151" t="s">
+      <c r="D151" s="0" t="s">
         <v>256</v>
       </c>
-      <c r="E151" t="s">
+      <c r="E151" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F151" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152">
       <c r="A152" s="2">
         <v>151</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B152" s="0" t="s">
         <v>472</v>
       </c>
-      <c r="C152" t="s">
+      <c r="C152" s="0" t="s">
         <v>473</v>
       </c>
-      <c r="D152" t="s">
+      <c r="D152" s="0" t="s">
         <v>474</v>
       </c>
-      <c r="E152" t="s">
+      <c r="E152" s="0" t="s">
         <v>9</v>
       </c>
       <c r="F152" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153">
       <c r="A153" s="2">
         <v>152</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B153" s="0" t="s">
         <v>475</v>
       </c>
-      <c r="C153" t="s">
+      <c r="C153" s="0" t="s">
         <v>476</v>
       </c>
-      <c r="D153" t="s">
+      <c r="D153" s="0" t="s">
         <v>477</v>
       </c>
-      <c r="E153" t="s">
+      <c r="E153" s="0" t="s">
         <v>30</v>
       </c>
       <c r="F153" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154">
       <c r="A154" s="2">
         <v>153</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B154" s="0" t="s">
         <v>478</v>
       </c>
-      <c r="C154" t="s">
+      <c r="C154" s="0" t="s">
         <v>479</v>
       </c>
-      <c r="D154" t="s">
+      <c r="D154" s="0" t="s">
         <v>480</v>
       </c>
-      <c r="E154" t="s">
+      <c r="E154" s="0" t="s">
         <v>30</v>
       </c>
       <c r="F154" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="155" spans="1:6">
+    <row r="155">
       <c r="A155" s="2">
         <v>154</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B155" s="0" t="s">
         <v>481</v>
       </c>
-      <c r="C155" t="s">
+      <c r="C155" s="0" t="s">
         <v>482</v>
       </c>
-      <c r="D155" t="s">
+      <c r="D155" s="0" t="s">
         <v>483</v>
       </c>
-      <c r="E155" t="s">
+      <c r="E155" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F155" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="156" spans="1:6">
+    <row r="156">
       <c r="A156" s="2">
         <v>155</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B156" s="0" t="s">
         <v>484</v>
       </c>
-      <c r="C156" t="s">
+      <c r="C156" s="0" t="s">
         <v>485</v>
       </c>
-      <c r="D156" t="s">
+      <c r="D156" s="0" t="s">
         <v>486</v>
       </c>
-      <c r="E156" t="s">
+      <c r="E156" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F156" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="157" spans="1:6">
+    <row r="157">
       <c r="A157" s="2">
         <v>156</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B157" s="0" t="s">
         <v>487</v>
       </c>
-      <c r="C157" t="s">
+      <c r="C157" s="0" t="s">
         <v>488</v>
       </c>
-      <c r="D157" t="s">
+      <c r="D157" s="0" t="s">
         <v>489</v>
       </c>
-      <c r="E157" t="s">
+      <c r="E157" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F157" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="158" spans="1:6">
+    <row r="158">
       <c r="A158" s="2">
         <v>157</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B158" s="0" t="s">
         <v>490</v>
       </c>
-      <c r="C158" t="s">
+      <c r="C158" s="0" t="s">
         <v>491</v>
       </c>
-      <c r="D158" t="s">
+      <c r="D158" s="0" t="s">
         <v>492</v>
       </c>
-      <c r="E158" t="s">
+      <c r="E158" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F158" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="159" spans="1:6">
+    <row r="159">
       <c r="A159" s="2">
         <v>158</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B159" s="0" t="s">
         <v>493</v>
       </c>
-      <c r="C159" t="s">
+      <c r="C159" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="D159" t="s">
+      <c r="D159" s="0" t="s">
         <v>494</v>
       </c>
-      <c r="E159" t="s">
+      <c r="E159" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F159" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="160" spans="1:6">
+    <row r="160">
       <c r="A160" s="2">
         <v>159</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B160" s="0" t="s">
         <v>495</v>
       </c>
-      <c r="C160" t="s">
+      <c r="C160" s="0" t="s">
         <v>496</v>
       </c>
-      <c r="D160" t="s">
+      <c r="D160" s="0" t="s">
         <v>497</v>
       </c>
-      <c r="E160" t="s">
+      <c r="E160" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F160" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="161" spans="1:6">
+    <row r="161">
       <c r="A161" s="2">
         <v>160</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B161" s="0" t="s">
         <v>498</v>
       </c>
-      <c r="C161" t="s">
+      <c r="C161" s="0" t="s">
         <v>499</v>
       </c>
-      <c r="D161" t="s">
+      <c r="D161" s="0" t="s">
         <v>500</v>
       </c>
-      <c r="E161" t="s">
+      <c r="E161" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F161" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162">
       <c r="A162" s="2">
         <v>161</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B162" s="0" t="s">
         <v>501</v>
       </c>
-      <c r="C162" t="s">
+      <c r="C162" s="0" t="s">
         <v>502</v>
       </c>
-      <c r="D162" t="s">
+      <c r="D162" s="0" t="s">
         <v>503</v>
       </c>
-      <c r="E162" t="s">
+      <c r="E162" s="0" t="s">
         <v>30</v>
       </c>
       <c r="F162" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="163" spans="1:6">
+    <row r="163">
       <c r="A163" s="2">
         <v>162</v>
       </c>
-      <c r="B163" t="s">
+      <c r="B163" s="0" t="s">
         <v>504</v>
       </c>
-      <c r="C163" t="s">
+      <c r="C163" s="0" t="s">
         <v>505</v>
       </c>
-      <c r="D163" t="s">
+      <c r="D163" s="0" t="s">
         <v>506</v>
       </c>
-      <c r="E163" t="s">
+      <c r="E163" s="0" t="s">
         <v>30</v>
       </c>
       <c r="F163" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="164" spans="1:6">
+    <row r="164">
       <c r="A164" s="2">
         <v>163</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B164" s="0" t="s">
         <v>507</v>
       </c>
-      <c r="C164" t="s">
+      <c r="C164" s="0" t="s">
         <v>508</v>
       </c>
-      <c r="D164" t="s">
+      <c r="D164" s="0" t="s">
         <v>509</v>
       </c>
-      <c r="E164" t="s">
+      <c r="E164" s="0" t="s">
         <v>30</v>
       </c>
       <c r="F164" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="165" spans="1:6">
+    <row r="165">
       <c r="A165" s="2">
         <v>164</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B165" s="0" t="s">
         <v>510</v>
       </c>
-      <c r="C165" t="s">
+      <c r="C165" s="0" t="s">
         <v>511</v>
       </c>
-      <c r="D165" t="s">
+      <c r="D165" s="0" t="s">
         <v>512</v>
       </c>
-      <c r="E165" t="s">
+      <c r="E165" s="0" t="s">
         <v>30</v>
       </c>
       <c r="F165" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166">
       <c r="A166" s="2">
         <v>165</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B166" s="0" t="s">
         <v>513</v>
       </c>
-      <c r="C166" t="s">
+      <c r="C166" s="0" t="s">
         <v>514</v>
       </c>
-      <c r="D166" t="s">
+      <c r="D166" s="0" t="s">
         <v>515</v>
       </c>
-      <c r="E166" t="s">
+      <c r="E166" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F166" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="167" spans="1:6">
+    <row r="167">
       <c r="A167" s="2">
         <v>166</v>
       </c>
-      <c r="B167" t="s">
+      <c r="B167" s="0" t="s">
         <v>516</v>
       </c>
-      <c r="C167" t="s">
+      <c r="C167" s="0" t="s">
         <v>517</v>
       </c>
-      <c r="D167" t="s">
+      <c r="D167" s="0" t="s">
         <v>518</v>
       </c>
-      <c r="E167" t="s">
+      <c r="E167" s="0" t="s">
         <v>9</v>
       </c>
       <c r="F167" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="168" spans="1:6">
+    <row r="168">
       <c r="A168" s="2">
         <v>167</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B168" s="0" t="s">
         <v>519</v>
       </c>
-      <c r="C168" t="s">
+      <c r="C168" s="0" t="s">
         <v>520</v>
       </c>
-      <c r="D168" t="s">
+      <c r="D168" s="0" t="s">
         <v>521</v>
       </c>
-      <c r="E168" t="s">
+      <c r="E168" s="0" t="s">
         <v>30</v>
       </c>
       <c r="F168" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="169" spans="1:6">
+    <row r="169">
       <c r="A169" s="2">
         <v>168</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B169" s="0" t="s">
         <v>522</v>
       </c>
-      <c r="C169" t="s">
+      <c r="C169" s="0" t="s">
         <v>523</v>
       </c>
-      <c r="D169" t="s">
+      <c r="D169" s="0" t="s">
         <v>524</v>
       </c>
-      <c r="E169" t="s">
+      <c r="E169" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F169" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="170" spans="1:6">
+    <row r="170">
       <c r="A170" s="2">
         <v>169</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B170" s="0" t="s">
         <v>525</v>
       </c>
-      <c r="C170" t="s">
+      <c r="C170" s="0" t="s">
         <v>526</v>
       </c>
-      <c r="D170" t="s">
+      <c r="D170" s="0" t="s">
         <v>527</v>
       </c>
-      <c r="E170" t="s">
+      <c r="E170" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F170" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="171" spans="1:6">
+    <row r="171">
       <c r="A171" s="2">
         <v>170</v>
       </c>
-      <c r="B171" t="s">
+      <c r="B171" s="0" t="s">
         <v>528</v>
       </c>
-      <c r="C171" t="s">
+      <c r="C171" s="0" t="s">
         <v>529</v>
       </c>
-      <c r="D171" t="s">
+      <c r="D171" s="0" t="s">
         <v>530</v>
       </c>
-      <c r="E171" t="s">
+      <c r="E171" s="0" t="s">
         <v>30</v>
       </c>
       <c r="F171" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="172" spans="1:6">
+    <row r="172">
       <c r="A172" s="2">
         <v>171</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B172" s="0" t="s">
         <v>531</v>
       </c>
-      <c r="C172" t="s">
+      <c r="C172" s="0" t="s">
         <v>532</v>
       </c>
-      <c r="D172" t="s">
+      <c r="D172" s="0" t="s">
         <v>533</v>
       </c>
-      <c r="E172" t="s">
+      <c r="E172" s="0" t="s">
         <v>30</v>
       </c>
       <c r="F172" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="173" spans="1:6">
+    <row r="173">
       <c r="A173" s="2">
         <v>172</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B173" s="0" t="s">
         <v>534</v>
       </c>
-      <c r="C173" t="s">
+      <c r="C173" s="0" t="s">
         <v>535</v>
       </c>
-      <c r="D173" t="s">
+      <c r="D173" s="0" t="s">
         <v>536</v>
       </c>
-      <c r="E173" t="s">
+      <c r="E173" s="0" t="s">
         <v>9</v>
       </c>
       <c r="F173" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="174" spans="1:6">
+    <row r="174">
       <c r="A174" s="2">
         <v>173</v>
       </c>
-      <c r="B174" t="s">
+      <c r="B174" s="0" t="s">
         <v>537</v>
       </c>
-      <c r="C174" t="s">
+      <c r="C174" s="0" t="s">
         <v>538</v>
       </c>
-      <c r="D174" t="s">
+      <c r="D174" s="0" t="s">
         <v>539</v>
       </c>
-      <c r="E174" t="s">
+      <c r="E174" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F174" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="175" spans="1:6">
+    <row r="175">
       <c r="A175" s="2">
         <v>174</v>
       </c>
-      <c r="B175" t="s">
+      <c r="B175" s="0" t="s">
         <v>540</v>
       </c>
-      <c r="C175" t="s">
+      <c r="C175" s="0" t="s">
         <v>541</v>
       </c>
-      <c r="D175" t="s">
+      <c r="D175" s="0" t="s">
         <v>542</v>
       </c>
-      <c r="E175" t="s">
+      <c r="E175" s="0" t="s">
         <v>30</v>
       </c>
       <c r="F175" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="176" spans="1:6">
+    <row r="176">
       <c r="A176" s="2">
         <v>175</v>
       </c>
-      <c r="B176" t="s">
+      <c r="B176" s="0" t="s">
         <v>543</v>
       </c>
-      <c r="C176" t="s">
+      <c r="C176" s="0" t="s">
         <v>544</v>
       </c>
-      <c r="D176" t="s">
+      <c r="D176" s="0" t="s">
         <v>545</v>
       </c>
-      <c r="E176" t="s">
+      <c r="E176" s="0" t="s">
         <v>9</v>
       </c>
       <c r="F176" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="177" spans="1:6">
+    <row r="177">
       <c r="A177" s="2">
         <v>176</v>
       </c>
-      <c r="B177" t="s">
+      <c r="B177" s="0" t="s">
         <v>546</v>
       </c>
-      <c r="C177" t="s">
+      <c r="C177" s="0" t="s">
         <v>547</v>
       </c>
-      <c r="D177" t="s">
+      <c r="D177" s="0" t="s">
         <v>548</v>
       </c>
-      <c r="E177" t="s">
+      <c r="E177" s="0" t="s">
         <v>30</v>
       </c>
       <c r="F177" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="178" spans="1:6">
+    <row r="178">
       <c r="A178" s="2">
         <v>177</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B178" s="0" t="s">
         <v>549</v>
       </c>
-      <c r="C178" t="s">
+      <c r="C178" s="0" t="s">
         <v>550</v>
       </c>
-      <c r="D178" t="s">
+      <c r="D178" s="0" t="s">
         <v>551</v>
       </c>
-      <c r="E178" t="s">
+      <c r="E178" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F178" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="179" spans="1:6">
+    <row r="179">
       <c r="A179" s="2">
         <v>178</v>
       </c>
-      <c r="B179" t="s">
+      <c r="B179" s="0" t="s">
         <v>552</v>
       </c>
-      <c r="C179" t="s">
+      <c r="C179" s="0" t="s">
         <v>553</v>
       </c>
-      <c r="D179" t="s">
+      <c r="D179" s="0" t="s">
         <v>554</v>
       </c>
-      <c r="E179" t="s">
+      <c r="E179" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F179" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="180" spans="1:6">
+    <row r="180">
       <c r="A180" s="2">
         <v>179</v>
       </c>
-      <c r="B180" t="s">
+      <c r="B180" s="0" t="s">
         <v>555</v>
       </c>
-      <c r="C180" t="s">
+      <c r="C180" s="0" t="s">
         <v>556</v>
       </c>
-      <c r="D180" t="s">
+      <c r="D180" s="0" t="s">
         <v>557</v>
       </c>
-      <c r="E180" t="s">
+      <c r="E180" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F180" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="181" spans="1:6">
+    <row r="181">
       <c r="A181" s="2">
         <v>180</v>
       </c>
-      <c r="B181" t="s">
+      <c r="B181" s="0" t="s">
         <v>558</v>
       </c>
-      <c r="C181" t="s">
+      <c r="C181" s="0" t="s">
         <v>559</v>
       </c>
-      <c r="D181" t="s">
+      <c r="D181" s="0" t="s">
         <v>560</v>
       </c>
-      <c r="E181" t="s">
+      <c r="E181" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F181" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="182" spans="1:6">
+    <row r="182">
       <c r="A182" s="2">
         <v>181</v>
       </c>
-      <c r="B182" t="s">
+      <c r="B182" s="0" t="s">
         <v>561</v>
       </c>
-      <c r="C182" t="s">
+      <c r="C182" s="0" t="s">
         <v>562</v>
       </c>
-      <c r="D182" t="s">
+      <c r="D182" s="0" t="s">
         <v>563</v>
       </c>
-      <c r="E182" t="s">
+      <c r="E182" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F182" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="183" spans="1:6">
+    <row r="183">
       <c r="A183" s="2">
         <v>182</v>
       </c>
-      <c r="B183" t="s">
+      <c r="B183" s="0" t="s">
         <v>565</v>
       </c>
-      <c r="C183" t="s">
+      <c r="C183" s="0" t="s">
         <v>566</v>
       </c>
-      <c r="D183" t="s">
+      <c r="D183" s="0" t="s">
         <v>567</v>
       </c>
-      <c r="E183" t="s">
+      <c r="E183" s="0" t="s">
         <v>30</v>
       </c>
       <c r="F183" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="184" spans="1:6">
+    <row r="184">
       <c r="A184" s="2">
         <v>183</v>
       </c>
-      <c r="B184" t="s">
+      <c r="B184" s="0" t="s">
         <v>568</v>
       </c>
-      <c r="C184" t="s">
+      <c r="C184" s="0" t="s">
         <v>569</v>
       </c>
-      <c r="D184" t="s">
+      <c r="D184" s="0" t="s">
         <v>570</v>
       </c>
-      <c r="E184" t="s">
+      <c r="E184" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F184" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="185" spans="1:6">
+    <row r="185">
       <c r="A185" s="2">
         <v>184</v>
       </c>
-      <c r="B185" t="s">
+      <c r="B185" s="0" t="s">
         <v>571</v>
       </c>
-      <c r="C185" t="s">
+      <c r="C185" s="0" t="s">
         <v>572</v>
       </c>
-      <c r="D185" t="s">
+      <c r="D185" s="0" t="s">
         <v>573</v>
       </c>
-      <c r="E185" t="s">
+      <c r="E185" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F185" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="186" spans="1:6">
+    <row r="186">
       <c r="A186" s="2">
         <v>185</v>
       </c>
-      <c r="B186" t="s">
+      <c r="B186" s="0" t="s">
         <v>574</v>
       </c>
-      <c r="C186" t="s">
+      <c r="C186" s="0" t="s">
         <v>575</v>
       </c>
-      <c r="D186" t="s">
+      <c r="D186" s="0" t="s">
         <v>576</v>
       </c>
-      <c r="E186" t="s">
+      <c r="E186" s="0" t="s">
         <v>30</v>
       </c>
       <c r="F186" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="187" spans="1:6">
+    <row r="187">
       <c r="A187" s="2">
         <v>186</v>
       </c>
-      <c r="B187" t="s">
+      <c r="B187" s="0" t="s">
         <v>577</v>
       </c>
-      <c r="C187" t="s">
+      <c r="C187" s="0" t="s">
         <v>578</v>
       </c>
-      <c r="D187" t="s">
+      <c r="D187" s="0" t="s">
         <v>579</v>
       </c>
-      <c r="E187" t="s">
+      <c r="E187" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F187" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="188" spans="1:6">
+    <row r="188">
       <c r="A188" s="2">
         <v>187</v>
       </c>
-      <c r="B188" t="s">
+      <c r="B188" s="0" t="s">
         <v>580</v>
       </c>
-      <c r="C188" t="s">
+      <c r="C188" s="0" t="s">
         <v>581</v>
       </c>
-      <c r="D188" t="s">
+      <c r="D188" s="0" t="s">
         <v>582</v>
       </c>
-      <c r="E188" t="s">
+      <c r="E188" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F188" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="189" spans="1:6">
+    <row r="189">
       <c r="A189" s="2">
         <v>188</v>
       </c>
-      <c r="B189" t="s">
+      <c r="B189" s="0" t="s">
         <v>583</v>
       </c>
-      <c r="C189" t="s">
+      <c r="C189" s="0" t="s">
         <v>584</v>
       </c>
-      <c r="D189" t="s">
+      <c r="D189" s="0" t="s">
         <v>585</v>
       </c>
-      <c r="E189" t="s">
+      <c r="E189" s="0" t="s">
         <v>30</v>
       </c>
       <c r="F189" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="190" spans="1:6">
+    <row r="190">
       <c r="A190" s="2">
         <v>189</v>
       </c>
-      <c r="B190" t="s">
+      <c r="B190" s="0" t="s">
         <v>586</v>
       </c>
-      <c r="C190" t="s">
+      <c r="C190" s="0" t="s">
         <v>587</v>
       </c>
-      <c r="D190" t="s">
+      <c r="D190" s="0" t="s">
         <v>588</v>
       </c>
-      <c r="E190" t="s">
+      <c r="E190" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F190" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="191" spans="1:6">
+    <row r="191">
       <c r="A191" s="2">
         <v>190</v>
       </c>
-      <c r="B191" t="s">
+      <c r="B191" s="0" t="s">
         <v>589</v>
       </c>
-      <c r="C191" t="s">
+      <c r="C191" s="0" t="s">
         <v>590</v>
       </c>
-      <c r="D191" t="s">
+      <c r="D191" s="0" t="s">
         <v>591</v>
       </c>
-      <c r="E191" t="s">
+      <c r="E191" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F191" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="192" spans="1:6">
+    <row r="192">
       <c r="A192" s="2">
         <v>191</v>
       </c>
-      <c r="B192" t="s">
+      <c r="B192" s="0" t="s">
         <v>592</v>
       </c>
-      <c r="C192" t="s">
+      <c r="C192" s="0" t="s">
         <v>593</v>
       </c>
-      <c r="D192" t="s">
+      <c r="D192" s="0" t="s">
         <v>594</v>
       </c>
-      <c r="E192" t="s">
+      <c r="E192" s="0" t="s">
         <v>30</v>
       </c>
       <c r="F192" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="193" spans="1:6">
+    <row r="193">
       <c r="A193" s="2">
         <v>192</v>
       </c>
-      <c r="B193" t="s">
+      <c r="B193" s="0" t="s">
         <v>595</v>
       </c>
-      <c r="C193" t="s">
+      <c r="C193" s="0" t="s">
         <v>596</v>
       </c>
-      <c r="D193" t="s">
+      <c r="D193" s="0" t="s">
         <v>597</v>
       </c>
-      <c r="E193" t="s">
+      <c r="E193" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F193" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="194" spans="1:6">
+    <row r="194">
       <c r="A194" s="2">
         <v>193</v>
       </c>
-      <c r="B194" t="s">
+      <c r="B194" s="0" t="s">
         <v>598</v>
       </c>
-      <c r="C194" t="s">
+      <c r="C194" s="0" t="s">
         <v>599</v>
       </c>
-      <c r="D194" t="s">
+      <c r="D194" s="0" t="s">
         <v>600</v>
       </c>
-      <c r="E194" t="s">
+      <c r="E194" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F194" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="195" spans="1:6">
+    <row r="195">
       <c r="A195" s="2">
         <v>194</v>
       </c>
-      <c r="B195" t="s">
+      <c r="B195" s="0" t="s">
         <v>601</v>
       </c>
-      <c r="C195" t="s">
+      <c r="C195" s="0" t="s">
         <v>602</v>
       </c>
-      <c r="D195" t="s">
+      <c r="D195" s="0" t="s">
         <v>603</v>
       </c>
-      <c r="E195" t="s">
+      <c r="E195" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F195" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="196" spans="1:6">
+    <row r="196">
       <c r="A196" s="2">
         <v>195</v>
       </c>
-      <c r="B196" t="s">
+      <c r="B196" s="0" t="s">
         <v>604</v>
       </c>
-      <c r="C196" t="s">
+      <c r="C196" s="0" t="s">
         <v>605</v>
       </c>
-      <c r="D196" t="s">
+      <c r="D196" s="0" t="s">
         <v>606</v>
       </c>
-      <c r="E196" t="s">
+      <c r="E196" s="0" t="s">
         <v>9</v>
       </c>
       <c r="F196" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="197" spans="1:6">
+    <row r="197">
       <c r="A197" s="2">
         <v>196</v>
       </c>
-      <c r="B197" t="s">
+      <c r="B197" s="0" t="s">
         <v>607</v>
       </c>
-      <c r="C197" t="s">
+      <c r="C197" s="0" t="s">
         <v>608</v>
       </c>
-      <c r="D197" t="s">
+      <c r="D197" s="0" t="s">
         <v>609</v>
       </c>
-      <c r="E197" t="s">
+      <c r="E197" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F197" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="198" spans="1:6">
+    <row r="198">
       <c r="A198" s="2">
         <v>197</v>
       </c>
-      <c r="B198" t="s">
+      <c r="B198" s="0" t="s">
         <v>610</v>
       </c>
-      <c r="C198" t="s">
+      <c r="C198" s="0" t="s">
         <v>611</v>
       </c>
-      <c r="D198" t="s">
+      <c r="D198" s="0" t="s">
         <v>612</v>
       </c>
-      <c r="E198" t="s">
+      <c r="E198" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F198" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="199" spans="1:6">
+    <row r="199">
       <c r="A199" s="2">
         <v>198</v>
       </c>
-      <c r="B199" t="s">
+      <c r="B199" s="0" t="s">
         <v>613</v>
       </c>
-      <c r="C199" t="s">
+      <c r="C199" s="0" t="s">
         <v>614</v>
       </c>
-      <c r="D199" t="s">
+      <c r="D199" s="0" t="s">
         <v>615</v>
       </c>
-      <c r="E199" t="s">
+      <c r="E199" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F199" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="200" spans="1:6">
+    <row r="200">
       <c r="A200" s="2">
         <v>199</v>
       </c>
-      <c r="B200" t="s">
+      <c r="B200" s="0" t="s">
         <v>616</v>
       </c>
-      <c r="C200" t="s">
+      <c r="C200" s="0" t="s">
         <v>617</v>
       </c>
-      <c r="D200" t="s">
+      <c r="D200" s="0" t="s">
         <v>618</v>
       </c>
-      <c r="E200" t="s">
+      <c r="E200" s="0" t="s">
         <v>30</v>
       </c>
       <c r="F200" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="201" spans="1:6">
+    <row r="201">
       <c r="A201" s="2">
         <v>200</v>
       </c>
-      <c r="B201" t="s">
+      <c r="B201" s="0" t="s">
         <v>619</v>
       </c>
-      <c r="C201" t="s">
+      <c r="C201" s="0" t="s">
         <v>620</v>
       </c>
-      <c r="D201" t="s">
+      <c r="D201" s="0" t="s">
         <v>621</v>
       </c>
-      <c r="E201" t="s">
+      <c r="E201" s="0" t="s">
         <v>9</v>
       </c>
       <c r="F201" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="202" spans="1:6">
+    <row r="202">
       <c r="A202" s="2">
         <v>201</v>
       </c>
-      <c r="B202" t="s">
+      <c r="B202" s="0" t="s">
         <v>622</v>
       </c>
-      <c r="C202" t="s">
+      <c r="C202" s="0" t="s">
         <v>623</v>
       </c>
-      <c r="D202" t="s">
+      <c r="D202" s="0" t="s">
         <v>624</v>
       </c>
-      <c r="E202" t="s">
+      <c r="E202" s="0" t="s">
         <v>9</v>
       </c>
       <c r="F202" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="203" spans="1:6">
+    <row r="203">
       <c r="A203" s="2">
         <v>202</v>
       </c>
-      <c r="B203" t="s">
+      <c r="B203" s="0" t="s">
         <v>625</v>
       </c>
-      <c r="C203" t="s">
+      <c r="C203" s="0" t="s">
         <v>626</v>
       </c>
-      <c r="D203" t="s">
+      <c r="D203" s="0" t="s">
         <v>627</v>
       </c>
-      <c r="E203" t="s">
+      <c r="E203" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F203" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="204" spans="1:6">
+    <row r="204">
       <c r="A204" s="2">
         <v>203</v>
       </c>
-      <c r="B204" t="s">
+      <c r="B204" s="0" t="s">
         <v>628</v>
       </c>
-      <c r="C204" t="s">
+      <c r="C204" s="0" t="s">
         <v>629</v>
       </c>
-      <c r="D204" t="s">
+      <c r="D204" s="0" t="s">
         <v>630</v>
       </c>
-      <c r="E204" t="s">
+      <c r="E204" s="0" t="s">
         <v>9</v>
       </c>
       <c r="F204" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="205" spans="1:6">
+    <row r="205">
       <c r="A205" s="2">
         <v>204</v>
       </c>
-      <c r="B205" t="s">
+      <c r="B205" s="0" t="s">
         <v>631</v>
       </c>
-      <c r="C205" t="s">
+      <c r="C205" s="0" t="s">
         <v>632</v>
       </c>
-      <c r="D205" t="s">
+      <c r="D205" s="0" t="s">
         <v>633</v>
       </c>
-      <c r="E205" t="s">
+      <c r="E205" s="0" t="s">
         <v>30</v>
       </c>
       <c r="F205" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="206" spans="1:6">
+    <row r="206">
       <c r="A206" s="2">
         <v>205</v>
       </c>
-      <c r="B206" t="s">
+      <c r="B206" s="0" t="s">
         <v>634</v>
       </c>
-      <c r="C206" t="s">
+      <c r="C206" s="0" t="s">
         <v>635</v>
       </c>
-      <c r="D206" t="s">
+      <c r="D206" s="0" t="s">
         <v>636</v>
       </c>
-      <c r="E206" t="s">
+      <c r="E206" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F206" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="207" spans="1:6">
+    <row r="207">
       <c r="A207" s="2">
         <v>206</v>
       </c>
-      <c r="B207" t="s">
+      <c r="B207" s="0" t="s">
         <v>637</v>
       </c>
-      <c r="C207" t="s">
+      <c r="C207" s="0" t="s">
         <v>638</v>
       </c>
-      <c r="D207" t="s">
+      <c r="D207" s="0" t="s">
         <v>639</v>
       </c>
-      <c r="E207" t="s">
+      <c r="E207" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F207" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="208" spans="1:6">
+    <row r="208">
       <c r="A208" s="2">
         <v>207</v>
       </c>
-      <c r="B208" t="s">
+      <c r="B208" s="0" t="s">
         <v>640</v>
       </c>
-      <c r="C208" t="s">
+      <c r="C208" s="0" t="s">
         <v>641</v>
       </c>
-      <c r="D208" t="s">
+      <c r="D208" s="0" t="s">
         <v>642</v>
       </c>
-      <c r="E208" t="s">
+      <c r="E208" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F208" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="209" spans="1:6">
+    <row r="209">
       <c r="A209" s="2">
         <v>208</v>
       </c>
-      <c r="B209" t="s">
+      <c r="B209" s="0" t="s">
         <v>643</v>
       </c>
-      <c r="C209" t="s">
+      <c r="C209" s="0" t="s">
         <v>644</v>
       </c>
-      <c r="D209" t="s">
+      <c r="D209" s="0" t="s">
         <v>645</v>
       </c>
-      <c r="E209" t="s">
+      <c r="E209" s="0" t="s">
         <v>9</v>
       </c>
       <c r="F209" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="210" spans="1:6">
+    <row r="210">
       <c r="A210" s="2">
         <v>209</v>
       </c>
-      <c r="B210" t="s">
+      <c r="B210" s="0" t="s">
         <v>646</v>
       </c>
-      <c r="C210" t="s">
+      <c r="C210" s="0" t="s">
         <v>647</v>
       </c>
-      <c r="D210" t="s">
+      <c r="D210" s="0" t="s">
         <v>648</v>
       </c>
-      <c r="E210" t="s">
+      <c r="E210" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F210" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="211" spans="1:6">
+    <row r="211">
       <c r="A211" s="2">
         <v>210</v>
       </c>
-      <c r="B211" t="s">
+      <c r="B211" s="0" t="s">
         <v>649</v>
       </c>
-      <c r="C211" t="s">
+      <c r="C211" s="0" t="s">
         <v>650</v>
       </c>
-      <c r="D211" t="s">
+      <c r="D211" s="0" t="s">
         <v>651</v>
       </c>
-      <c r="E211" t="s">
+      <c r="E211" s="0" t="s">
         <v>9</v>
       </c>
       <c r="F211" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="212" spans="1:6">
+    <row r="212">
       <c r="A212" s="2">
         <v>211</v>
       </c>
-      <c r="B212" t="s">
+      <c r="B212" s="0" t="s">
         <v>652</v>
       </c>
-      <c r="C212" t="s">
+      <c r="C212" s="0" t="s">
         <v>653</v>
       </c>
-      <c r="D212" t="s">
+      <c r="D212" s="0" t="s">
         <v>654</v>
       </c>
-      <c r="E212" t="s">
+      <c r="E212" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F212" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="213" spans="1:6">
+    <row r="213">
       <c r="A213" s="2">
         <v>212</v>
       </c>
-      <c r="B213" t="s">
+      <c r="B213" s="0" t="s">
         <v>655</v>
       </c>
-      <c r="C213" t="s">
+      <c r="C213" s="0" t="s">
         <v>656</v>
       </c>
-      <c r="D213" t="s">
+      <c r="D213" s="0" t="s">
         <v>657</v>
       </c>
-      <c r="E213" t="s">
+      <c r="E213" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F213" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="214" spans="1:6">
+    <row r="214">
       <c r="A214" s="2">
         <v>213</v>
       </c>
-      <c r="B214" t="s">
+      <c r="B214" s="0" t="s">
         <v>658</v>
       </c>
-      <c r="C214" t="s">
+      <c r="C214" s="0" t="s">
         <v>659</v>
       </c>
-      <c r="D214" t="s">
+      <c r="D214" s="0" t="s">
         <v>660</v>
       </c>
-      <c r="E214" t="s">
+      <c r="E214" s="0" t="s">
         <v>9</v>
       </c>
       <c r="F214" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="215" spans="1:6">
+    <row r="215">
       <c r="A215" s="2">
         <v>214</v>
       </c>
-      <c r="B215" t="s">
+      <c r="B215" s="0" t="s">
         <v>661</v>
       </c>
-      <c r="C215" t="s">
+      <c r="C215" s="0" t="s">
         <v>662</v>
       </c>
-      <c r="D215" t="s">
+      <c r="D215" s="0" t="s">
         <v>663</v>
       </c>
-      <c r="E215" t="s">
+      <c r="E215" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F215" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="216" spans="1:6">
+    <row r="216">
       <c r="A216" s="2">
         <v>215</v>
       </c>
-      <c r="B216" t="s">
+      <c r="B216" s="0" t="s">
         <v>664</v>
       </c>
-      <c r="C216" t="s">
+      <c r="C216" s="0" t="s">
         <v>665</v>
       </c>
-      <c r="D216" t="s">
+      <c r="D216" s="0" t="s">
         <v>666</v>
       </c>
-      <c r="E216" t="s">
+      <c r="E216" s="0" t="s">
         <v>30</v>
       </c>
       <c r="F216" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="217" spans="1:6">
+    <row r="217">
       <c r="A217" s="2">
         <v>216</v>
       </c>
-      <c r="B217" t="s">
+      <c r="B217" s="0" t="s">
         <v>667</v>
       </c>
-      <c r="C217" t="s">
+      <c r="C217" s="0" t="s">
         <v>668</v>
       </c>
-      <c r="D217" t="s">
+      <c r="D217" s="0" t="s">
         <v>669</v>
       </c>
-      <c r="E217" t="s">
+      <c r="E217" s="0" t="s">
         <v>9</v>
       </c>
       <c r="F217" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="218" spans="1:6">
+    <row r="218">
       <c r="A218" s="2">
         <v>217</v>
       </c>
-      <c r="B218" t="s">
+      <c r="B218" s="0" t="s">
         <v>670</v>
       </c>
-      <c r="C218" t="s">
+      <c r="C218" s="0" t="s">
         <v>671</v>
       </c>
-      <c r="D218" t="s">
+      <c r="D218" s="0" t="s">
         <v>672</v>
       </c>
-      <c r="E218" t="s">
+      <c r="E218" s="0" t="s">
         <v>9</v>
       </c>
       <c r="F218" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="219" spans="1:6">
+    <row r="219">
       <c r="A219" s="2">
         <v>218</v>
       </c>
-      <c r="B219" t="s">
+      <c r="B219" s="0" t="s">
         <v>673</v>
       </c>
-      <c r="C219" t="s">
+      <c r="C219" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="D219" t="s">
+      <c r="D219" s="0" t="s">
         <v>675</v>
       </c>
-      <c r="E219" t="s">
+      <c r="E219" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F219" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="220" spans="1:6">
+    <row r="220">
       <c r="A220" s="2">
         <v>219</v>
       </c>
-      <c r="B220" t="s">
+      <c r="B220" s="0" t="s">
         <v>676</v>
       </c>
-      <c r="C220" t="s">
+      <c r="C220" s="0" t="s">
         <v>677</v>
       </c>
-      <c r="D220" t="s">
+      <c r="D220" s="0" t="s">
         <v>678</v>
       </c>
-      <c r="E220" t="s">
+      <c r="E220" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F220" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="221" spans="1:6">
+    <row r="221">
       <c r="A221" s="2">
         <v>220</v>
       </c>
-      <c r="B221" t="s">
+      <c r="B221" s="0" t="s">
         <v>679</v>
       </c>
-      <c r="C221" t="s">
+      <c r="C221" s="0" t="s">
         <v>680</v>
       </c>
-      <c r="D221" t="s">
+      <c r="D221" s="0" t="s">
         <v>681</v>
       </c>
-      <c r="E221" t="s">
+      <c r="E221" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F221" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="222" spans="1:6">
+    <row r="222">
       <c r="A222" s="2">
         <v>221</v>
       </c>
-      <c r="B222" t="s">
+      <c r="B222" s="0" t="s">
         <v>682</v>
       </c>
-      <c r="C222" t="s">
+      <c r="C222" s="0" t="s">
         <v>683</v>
       </c>
-      <c r="D222" t="s">
+      <c r="D222" s="0" t="s">
         <v>684</v>
       </c>
-      <c r="E222" t="s">
+      <c r="E222" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F222" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="223" spans="1:6">
+    <row r="223">
       <c r="A223" s="2">
         <v>222</v>
       </c>
-      <c r="B223" t="s">
+      <c r="B223" s="0" t="s">
         <v>685</v>
       </c>
-      <c r="C223" t="s">
+      <c r="C223" s="0" t="s">
         <v>686</v>
       </c>
-      <c r="D223" t="s">
+      <c r="D223" s="0" t="s">
         <v>687</v>
       </c>
-      <c r="E223" t="s">
+      <c r="E223" s="0" t="s">
         <v>9</v>
       </c>
       <c r="F223" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="224" spans="1:6">
+    <row r="224">
       <c r="A224" s="2">
         <v>223</v>
       </c>
-      <c r="B224" t="s">
+      <c r="B224" s="0" t="s">
         <v>688</v>
       </c>
-      <c r="C224" t="s">
+      <c r="C224" s="0" t="s">
         <v>689</v>
       </c>
-      <c r="D224" t="s">
+      <c r="D224" s="0" t="s">
         <v>690</v>
       </c>
-      <c r="E224" t="s">
+      <c r="E224" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F224" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="225" spans="1:6">
+    <row r="225">
       <c r="A225" s="2">
         <v>224</v>
       </c>
-      <c r="B225" t="s">
+      <c r="B225" s="0" t="s">
         <v>691</v>
       </c>
-      <c r="C225" t="s">
+      <c r="C225" s="0" t="s">
         <v>692</v>
       </c>
-      <c r="D225" t="s">
+      <c r="D225" s="0" t="s">
         <v>693</v>
       </c>
-      <c r="E225" t="s">
+      <c r="E225" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F225" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="226" spans="1:6">
+    <row r="226">
       <c r="A226" s="2">
         <v>225</v>
       </c>
-      <c r="B226" t="s">
+      <c r="B226" s="0" t="s">
         <v>694</v>
       </c>
-      <c r="C226" t="s">
+      <c r="C226" s="0" t="s">
         <v>695</v>
       </c>
-      <c r="D226" t="s">
+      <c r="D226" s="0" t="s">
         <v>696</v>
       </c>
-      <c r="E226" t="s">
+      <c r="E226" s="0" t="s">
         <v>30</v>
       </c>
       <c r="F226" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="227" spans="1:6">
+    <row r="227">
       <c r="A227" s="2">
         <v>226</v>
       </c>
-      <c r="B227" t="s">
+      <c r="B227" s="0" t="s">
         <v>697</v>
       </c>
-      <c r="C227" t="s">
+      <c r="C227" s="0" t="s">
         <v>698</v>
       </c>
-      <c r="D227" t="s">
+      <c r="D227" s="0" t="s">
         <v>699</v>
       </c>
-      <c r="E227" t="s">
+      <c r="E227" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F227" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="228" spans="1:6">
+    <row r="228">
       <c r="A228" s="2">
         <v>227</v>
       </c>
-      <c r="B228" t="s">
+      <c r="B228" s="0" t="s">
         <v>700</v>
       </c>
-      <c r="C228" t="s">
+      <c r="C228" s="0" t="s">
         <v>701</v>
       </c>
-      <c r="D228" t="s">
+      <c r="D228" s="0" t="s">
         <v>702</v>
       </c>
-      <c r="E228" t="s">
+      <c r="E228" s="0" t="s">
         <v>9</v>
       </c>
       <c r="F228" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="229" spans="1:6">
+    <row r="229">
       <c r="A229" s="2">
         <v>228</v>
       </c>
-      <c r="B229" t="s">
+      <c r="B229" s="0" t="s">
         <v>703</v>
       </c>
-      <c r="C229" t="s">
+      <c r="C229" s="0" t="s">
         <v>704</v>
       </c>
-      <c r="D229" t="s">
+      <c r="D229" s="0" t="s">
         <v>705</v>
       </c>
-      <c r="E229" t="s">
+      <c r="E229" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F229" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="230" spans="1:6">
+    <row r="230">
       <c r="A230" s="2">
         <v>229</v>
       </c>
-      <c r="B230" t="s">
+      <c r="B230" s="0" t="s">
         <v>706</v>
       </c>
-      <c r="C230" t="s">
+      <c r="C230" s="0" t="s">
         <v>707</v>
       </c>
-      <c r="D230" t="s">
+      <c r="D230" s="0" t="s">
         <v>708</v>
       </c>
-      <c r="E230" t="s">
+      <c r="E230" s="0" t="s">
         <v>30</v>
       </c>
       <c r="F230" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="231" spans="1:6">
+    <row r="231">
       <c r="A231" s="2">
         <v>230</v>
       </c>
-      <c r="B231" t="s">
+      <c r="B231" s="0" t="s">
         <v>709</v>
       </c>
-      <c r="C231" t="s">
+      <c r="C231" s="0" t="s">
         <v>710</v>
       </c>
-      <c r="D231" t="s">
+      <c r="D231" s="0" t="s">
         <v>711</v>
       </c>
-      <c r="E231" t="s">
+      <c r="E231" s="0" t="s">
         <v>30</v>
       </c>
       <c r="F231" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="232" spans="1:6">
+    <row r="232">
       <c r="A232" s="2">
         <v>231</v>
       </c>
-      <c r="B232" t="s">
+      <c r="B232" s="0" t="s">
         <v>712</v>
       </c>
-      <c r="C232" t="s">
+      <c r="C232" s="0" t="s">
         <v>713</v>
       </c>
-      <c r="D232" t="s">
+      <c r="D232" s="0" t="s">
         <v>714</v>
       </c>
-      <c r="E232" t="s">
+      <c r="E232" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F232" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="233" spans="1:6">
+    <row r="233">
       <c r="A233" s="2">
         <v>232</v>
       </c>
-      <c r="B233" t="s">
+      <c r="B233" s="0" t="s">
         <v>715</v>
       </c>
-      <c r="C233" t="s">
+      <c r="C233" s="0" t="s">
         <v>716</v>
       </c>
-      <c r="D233" t="s">
+      <c r="D233" s="0" t="s">
         <v>717</v>
       </c>
-      <c r="E233" t="s">
+      <c r="E233" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F233" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="234" spans="1:6">
+    <row r="234">
       <c r="A234" s="2">
         <v>233</v>
       </c>
-      <c r="B234" t="s">
+      <c r="B234" s="0" t="s">
         <v>718</v>
       </c>
-      <c r="C234" t="s">
+      <c r="C234" s="0" t="s">
         <v>719</v>
       </c>
-      <c r="D234" t="s">
+      <c r="D234" s="0" t="s">
         <v>720</v>
       </c>
-      <c r="E234" t="s">
+      <c r="E234" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F234" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="235" spans="1:6">
+    <row r="235">
       <c r="A235" s="2">
         <v>234</v>
       </c>
-      <c r="B235" t="s">
+      <c r="B235" s="0" t="s">
         <v>721</v>
       </c>
-      <c r="C235" t="s">
+      <c r="C235" s="0" t="s">
         <v>722</v>
       </c>
-      <c r="D235" t="s">
+      <c r="D235" s="0" t="s">
         <v>723</v>
       </c>
-      <c r="E235" t="s">
+      <c r="E235" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F235" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="236" spans="1:6">
+    <row r="236">
       <c r="A236" s="2">
         <v>235</v>
       </c>
-      <c r="B236" t="s">
+      <c r="B236" s="0" t="s">
         <v>724</v>
       </c>
-      <c r="C236" t="s">
+      <c r="C236" s="0" t="s">
         <v>725</v>
       </c>
-      <c r="D236" t="s">
+      <c r="D236" s="0" t="s">
         <v>726</v>
       </c>
-      <c r="E236" t="s">
+      <c r="E236" s="0" t="s">
         <v>30</v>
       </c>
       <c r="F236" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="237" spans="1:6">
+    <row r="237">
       <c r="A237" s="2">
         <v>236</v>
       </c>
-      <c r="B237" t="s">
+      <c r="B237" s="0" t="s">
         <v>727</v>
       </c>
-      <c r="C237" t="s">
+      <c r="C237" s="0" t="s">
         <v>728</v>
       </c>
-      <c r="D237" t="s">
+      <c r="D237" s="0" t="s">
         <v>729</v>
       </c>
-      <c r="E237" t="s">
+      <c r="E237" s="0" t="s">
         <v>30</v>
       </c>
       <c r="F237" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="238" spans="1:6">
+    <row r="238">
       <c r="A238" s="2">
         <v>237</v>
       </c>
-      <c r="B238" t="s">
+      <c r="B238" s="0" t="s">
         <v>730</v>
       </c>
-      <c r="C238" t="s">
+      <c r="C238" s="0" t="s">
         <v>731</v>
       </c>
-      <c r="D238" t="s">
+      <c r="D238" s="0" t="s">
         <v>732</v>
       </c>
-      <c r="E238" t="s">
+      <c r="E238" s="0" t="s">
         <v>30</v>
       </c>
       <c r="F238" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="239" spans="1:6">
+    <row r="239">
       <c r="A239" s="2">
         <v>238</v>
       </c>
-      <c r="B239" t="s">
+      <c r="B239" s="0" t="s">
         <v>733</v>
       </c>
-      <c r="C239" t="s">
+      <c r="C239" s="0" t="s">
         <v>734</v>
       </c>
-      <c r="D239" t="s">
+      <c r="D239" s="0" t="s">
         <v>735</v>
       </c>
-      <c r="E239" t="s">
+      <c r="E239" s="0" t="s">
         <v>9</v>
       </c>
       <c r="F239" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="240" spans="1:6">
+    <row r="240">
       <c r="A240" s="2">
         <v>239</v>
       </c>
-      <c r="B240" t="s">
+      <c r="B240" s="0" t="s">
         <v>736</v>
       </c>
-      <c r="C240" t="s">
+      <c r="C240" s="0" t="s">
         <v>737</v>
       </c>
-      <c r="D240" t="s">
+      <c r="D240" s="0" t="s">
         <v>738</v>
       </c>
-      <c r="E240" t="s">
+      <c r="E240" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F240" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="241" spans="1:6">
+    <row r="241">
       <c r="A241" s="2">
         <v>240</v>
       </c>
-      <c r="B241" t="s">
+      <c r="B241" s="0" t="s">
         <v>739</v>
       </c>
-      <c r="C241" t="s">
+      <c r="C241" s="0" t="s">
         <v>740</v>
       </c>
-      <c r="D241" t="s">
+      <c r="D241" s="0" t="s">
         <v>741</v>
       </c>
-      <c r="E241" t="s">
+      <c r="E241" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F241" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="242" spans="1:6">
+    <row r="242">
       <c r="A242" s="2">
         <v>241</v>
       </c>
-      <c r="B242" t="s">
+      <c r="B242" s="0" t="s">
         <v>742</v>
       </c>
-      <c r="C242" t="s">
+      <c r="C242" s="0" t="s">
         <v>743</v>
       </c>
-      <c r="D242" t="s">
+      <c r="D242" s="0" t="s">
         <v>744</v>
       </c>
-      <c r="E242" t="s">
+      <c r="E242" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F242" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="243" spans="1:6">
+    <row r="243">
       <c r="A243" s="2">
         <v>242</v>
       </c>
-      <c r="B243" t="s">
+      <c r="B243" s="0" t="s">
         <v>745</v>
       </c>
-      <c r="C243" t="s">
+      <c r="C243" s="0" t="s">
         <v>746</v>
       </c>
-      <c r="D243" t="s">
+      <c r="D243" s="0" t="s">
         <v>747</v>
       </c>
-      <c r="E243" t="s">
+      <c r="E243" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F243" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="244" spans="1:6">
+    <row r="244">
       <c r="A244" s="2">
         <v>243</v>
       </c>
-      <c r="B244" t="s">
+      <c r="B244" s="0" t="s">
         <v>748</v>
       </c>
-      <c r="C244" t="s">
+      <c r="C244" s="0" t="s">
         <v>749</v>
       </c>
-      <c r="D244" t="s">
+      <c r="D244" s="0" t="s">
         <v>750</v>
       </c>
-      <c r="E244" t="s">
+      <c r="E244" s="0" t="s">
         <v>30</v>
       </c>
       <c r="F244" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="245" spans="1:6">
+    <row r="245">
       <c r="A245" s="2">
         <v>244</v>
       </c>
-      <c r="B245" t="s">
+      <c r="B245" s="0" t="s">
         <v>751</v>
       </c>
-      <c r="C245" t="s">
+      <c r="C245" s="0" t="s">
         <v>752</v>
       </c>
-      <c r="D245" t="s">
+      <c r="D245" s="0" t="s">
         <v>753</v>
       </c>
-      <c r="E245" t="s">
+      <c r="E245" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F245" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="246" spans="1:6">
+    <row r="246">
       <c r="A246" s="2">
         <v>245</v>
       </c>
-      <c r="B246" t="s">
+      <c r="B246" s="0" t="s">
         <v>754</v>
       </c>
-      <c r="C246" t="s">
+      <c r="C246" s="0" t="s">
         <v>755</v>
       </c>
-      <c r="D246" t="s">
+      <c r="D246" s="0" t="s">
         <v>756</v>
       </c>
-      <c r="E246" t="s">
+      <c r="E246" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F246" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="247" spans="1:6">
+    <row r="247">
       <c r="A247" s="2">
         <v>246</v>
       </c>
-      <c r="B247" t="s">
+      <c r="B247" s="0" t="s">
         <v>757</v>
       </c>
-      <c r="C247" t="s">
+      <c r="C247" s="0" t="s">
         <v>758</v>
       </c>
-      <c r="D247" t="s">
+      <c r="D247" s="0" t="s">
         <v>759</v>
       </c>
-      <c r="E247" t="s">
+      <c r="E247" s="0" t="s">
         <v>30</v>
       </c>
       <c r="F247" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="248" spans="1:6">
+    <row r="248">
       <c r="A248" s="2">
         <v>247</v>
       </c>
-      <c r="B248" t="s">
+      <c r="B248" s="0" t="s">
         <v>760</v>
       </c>
-      <c r="C248" t="s">
+      <c r="C248" s="0" t="s">
         <v>761</v>
       </c>
-      <c r="D248" t="s">
+      <c r="D248" s="0" t="s">
         <v>762</v>
       </c>
-      <c r="E248" t="s">
+      <c r="E248" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F248" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="249" spans="1:6">
+    <row r="249">
       <c r="A249" s="2">
         <v>248</v>
       </c>
-      <c r="B249" t="s">
+      <c r="B249" s="0" t="s">
         <v>763</v>
       </c>
-      <c r="C249" t="s">
+      <c r="C249" s="0" t="s">
         <v>764</v>
       </c>
-      <c r="D249" t="s">
+      <c r="D249" s="0" t="s">
         <v>765</v>
       </c>
-      <c r="E249" t="s">
+      <c r="E249" s="0" t="s">
         <v>30</v>
       </c>
       <c r="F249" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="250" spans="1:6">
+    <row r="250">
       <c r="A250" s="2">
         <v>249</v>
       </c>
-      <c r="B250" t="s">
+      <c r="B250" s="0" t="s">
         <v>766</v>
       </c>
-      <c r="C250" t="s">
+      <c r="C250" s="0" t="s">
         <v>767</v>
       </c>
-      <c r="D250" t="s">
+      <c r="D250" s="0" t="s">
         <v>768</v>
       </c>
-      <c r="E250" t="s">
+      <c r="E250" s="0" t="s">
         <v>30</v>
       </c>
       <c r="F250" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="251" spans="1:6">
+    <row r="251">
       <c r="A251" s="2">
         <v>250</v>
       </c>
-      <c r="B251" t="s">
+      <c r="B251" s="0" t="s">
         <v>769</v>
       </c>
-      <c r="C251" t="s">
+      <c r="C251" s="0" t="s">
         <v>770</v>
       </c>
-      <c r="D251" t="s">
+      <c r="D251" s="0" t="s">
         <v>771</v>
       </c>
-      <c r="E251" t="s">
+      <c r="E251" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F251" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="252" spans="1:6">
+    <row r="252">
       <c r="A252" s="2">
         <v>251</v>
       </c>
-      <c r="B252" t="s">
+      <c r="B252" s="0" t="s">
         <v>772</v>
       </c>
-      <c r="C252" t="s">
+      <c r="C252" s="0" t="s">
         <v>773</v>
       </c>
-      <c r="D252" t="s">
+      <c r="D252" s="0" t="s">
         <v>774</v>
       </c>
-      <c r="E252" t="s">
+      <c r="E252" s="0" t="s">
         <v>9</v>
       </c>
       <c r="F252" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="253" spans="1:6">
+    <row r="253">
       <c r="A253" s="2">
         <v>252</v>
       </c>
-      <c r="B253" t="s">
+      <c r="B253" s="0" t="s">
         <v>775</v>
       </c>
-      <c r="C253" t="s">
+      <c r="C253" s="0" t="s">
         <v>776</v>
       </c>
-      <c r="D253" t="s">
+      <c r="D253" s="0" t="s">
         <v>777</v>
       </c>
-      <c r="E253" t="s">
+      <c r="E253" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F253" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="254" spans="1:6">
+    <row r="254">
       <c r="A254" s="2">
         <v>253</v>
       </c>
-      <c r="B254" t="s">
+      <c r="B254" s="0" t="s">
         <v>778</v>
       </c>
-      <c r="C254" t="s">
+      <c r="C254" s="0" t="s">
         <v>779</v>
       </c>
-      <c r="D254" t="s">
+      <c r="D254" s="0" t="s">
         <v>780</v>
       </c>
-      <c r="E254" t="s">
+      <c r="E254" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F254" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="255" spans="1:6">
+    <row r="255">
       <c r="A255" s="2">
         <v>254</v>
       </c>
-      <c r="B255" t="s">
+      <c r="B255" s="0" t="s">
         <v>781</v>
       </c>
-      <c r="C255" t="s">
+      <c r="C255" s="0" t="s">
         <v>782</v>
       </c>
-      <c r="D255" t="s">
+      <c r="D255" s="0" t="s">
         <v>783</v>
       </c>
-      <c r="E255" t="s">
-        <v>10</v>
-      </c>
-      <c r="F255" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6">
+      <c r="E255" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F255" s="0" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="256">
       <c r="A256" s="2">
         <v>255</v>
       </c>
-      <c r="B256" t="s">
+      <c r="B256" s="0" t="s">
         <v>784</v>
       </c>
-      <c r="C256" t="s">
+      <c r="C256" s="0" t="s">
         <v>785</v>
       </c>
-      <c r="D256" t="s">
+      <c r="D256" s="0" t="s">
         <v>786</v>
       </c>
-      <c r="E256" t="s">
-        <v>10</v>
-      </c>
-      <c r="F256" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6">
+      <c r="E256" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F256" s="0" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="257">
       <c r="A257" s="2">
         <v>256</v>
       </c>
-      <c r="B257" t="s">
+      <c r="B257" s="0" t="s">
         <v>787</v>
       </c>
-      <c r="C257" t="s">
+      <c r="C257" s="0" t="s">
         <v>788</v>
       </c>
-      <c r="D257" t="s">
+      <c r="D257" s="0" t="s">
         <v>789</v>
       </c>
-      <c r="E257" t="s">
-        <v>9</v>
-      </c>
-      <c r="F257" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6">
+      <c r="E257" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F257" s="0" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="258">
       <c r="A258" s="2">
         <v>257</v>
       </c>
-      <c r="B258" t="s">
+      <c r="B258" s="0" t="s">
         <v>790</v>
       </c>
-      <c r="C258" t="s">
+      <c r="C258" s="0" t="s">
         <v>791</v>
       </c>
-      <c r="D258" t="s">
+      <c r="D258" s="0" t="s">
         <v>792</v>
       </c>
-      <c r="E258" t="s">
-        <v>10</v>
-      </c>
-      <c r="F258" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6">
+      <c r="E258" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F258" s="0" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="259">
       <c r="A259" s="2">
         <v>258</v>
       </c>
-      <c r="B259" t="s">
+      <c r="B259" s="0" t="s">
         <v>793</v>
       </c>
-      <c r="C259" t="s">
+      <c r="C259" s="0" t="s">
         <v>794</v>
       </c>
-      <c r="D259" t="s">
+      <c r="D259" s="0" t="s">
         <v>795</v>
       </c>
-      <c r="E259" t="s">
-        <v>10</v>
-      </c>
-      <c r="F259" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6">
+      <c r="E259" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F259" s="0" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="260">
       <c r="A260" s="2">
         <v>259</v>
       </c>
-      <c r="B260" t="s">
+      <c r="B260" s="0" t="s">
         <v>796</v>
       </c>
-      <c r="C260" t="s">
+      <c r="C260" s="0" t="s">
         <v>797</v>
       </c>
-      <c r="D260" t="s">
+      <c r="D260" s="0" t="s">
         <v>798</v>
       </c>
-      <c r="E260" t="s">
-        <v>9</v>
-      </c>
-      <c r="F260" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6">
+      <c r="E260" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F260" s="0" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="261">
       <c r="A261" s="2">
         <v>260</v>
       </c>
-      <c r="B261" t="s">
+      <c r="B261" s="0" t="s">
         <v>799</v>
       </c>
-      <c r="C261" t="s">
+      <c r="C261" s="0" t="s">
         <v>800</v>
       </c>
-      <c r="D261" t="s">
+      <c r="D261" s="0" t="s">
         <v>801</v>
       </c>
-      <c r="E261" t="s">
-        <v>10</v>
-      </c>
-      <c r="F261" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6">
+      <c r="E261" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F261" s="0" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="262">
       <c r="A262" s="2">
         <v>261</v>
       </c>
-      <c r="B262" t="s">
+      <c r="B262" s="0" t="s">
         <v>802</v>
       </c>
-      <c r="C262" t="s">
+      <c r="C262" s="0" t="s">
         <v>803</v>
       </c>
-      <c r="D262" t="s">
+      <c r="D262" s="0" t="s">
         <v>804</v>
       </c>
-      <c r="E262" t="s">
-        <v>10</v>
-      </c>
-      <c r="F262" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="263" spans="1:6">
+      <c r="E262" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F262" s="0" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="263">
       <c r="A263" s="2">
         <v>262</v>
       </c>
-      <c r="B263" t="s">
+      <c r="B263" s="0" t="s">
         <v>805</v>
       </c>
-      <c r="C263" t="s">
+      <c r="C263" s="0" t="s">
         <v>806</v>
       </c>
-      <c r="D263" t="s">
+      <c r="D263" s="0" t="s">
         <v>807</v>
       </c>
-      <c r="E263" t="s">
-        <v>10</v>
-      </c>
-      <c r="F263" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="264" spans="1:6">
+      <c r="E263" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F263" s="0" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="264">
       <c r="A264" s="2">
         <v>263</v>
       </c>
-      <c r="B264" t="s">
+      <c r="B264" s="0" t="s">
         <v>808</v>
       </c>
-      <c r="C264" t="s">
+      <c r="C264" s="0" t="s">
         <v>809</v>
       </c>
-      <c r="D264" t="s">
+      <c r="D264" s="0" t="s">
         <v>810</v>
       </c>
-      <c r="E264" t="s">
-        <v>10</v>
-      </c>
-      <c r="F264" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="265" spans="1:6">
+      <c r="E264" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F264" s="0" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="265">
       <c r="A265" s="2">
         <v>264</v>
       </c>
-      <c r="B265" t="s">
+      <c r="B265" s="0" t="s">
         <v>811</v>
       </c>
-      <c r="C265" t="s">
+      <c r="C265" s="0" t="s">
         <v>812</v>
       </c>
-      <c r="D265" t="s">
+      <c r="D265" s="0" t="s">
         <v>813</v>
       </c>
-      <c r="E265" t="s">
-        <v>9</v>
-      </c>
-      <c r="F265" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="266" spans="1:6">
+      <c r="E265" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F265" s="0" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="266">
       <c r="A266" s="2">
         <v>265</v>
       </c>
-      <c r="B266" t="s">
+      <c r="B266" s="0" t="s">
         <v>814</v>
       </c>
-      <c r="C266" t="s">
+      <c r="C266" s="0" t="s">
         <v>815</v>
       </c>
-      <c r="D266" t="s">
+      <c r="D266" s="0" t="s">
         <v>816</v>
       </c>
-      <c r="E266" t="s">
-        <v>10</v>
-      </c>
-      <c r="F266" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="267" spans="1:6">
+      <c r="E266" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F266" s="0" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="267">
       <c r="A267" s="2">
         <v>266</v>
       </c>
-      <c r="B267" t="s">
+      <c r="B267" s="0" t="s">
         <v>817</v>
       </c>
-      <c r="C267" t="s">
+      <c r="C267" s="0" t="s">
         <v>818</v>
       </c>
-      <c r="D267" t="s">
+      <c r="D267" s="0" t="s">
         <v>819</v>
       </c>
-      <c r="E267" t="s">
+      <c r="E267" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="F267" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="268" spans="1:6">
+      <c r="F267" s="0" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="268">
       <c r="A268" s="2">
         <v>267</v>
       </c>
-      <c r="B268" t="s">
+      <c r="B268" s="0" t="s">
         <v>820</v>
       </c>
-      <c r="C268" t="s">
+      <c r="C268" s="0" t="s">
         <v>821</v>
       </c>
-      <c r="D268" t="s">
+      <c r="D268" s="0" t="s">
         <v>822</v>
       </c>
-      <c r="E268" t="s">
-        <v>10</v>
-      </c>
-      <c r="F268" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="269" spans="1:6">
+      <c r="E268" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F268" s="0" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="269">
       <c r="A269" s="2">
         <v>268</v>
       </c>
-      <c r="B269" t="s">
+      <c r="B269" s="0" t="s">
         <v>823</v>
       </c>
-      <c r="C269" t="s">
+      <c r="C269" s="0" t="s">
         <v>824</v>
       </c>
-      <c r="D269" t="s">
+      <c r="D269" s="0" t="s">
         <v>825</v>
       </c>
-      <c r="E269" t="s">
-        <v>10</v>
-      </c>
-      <c r="F269" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="270" spans="1:6">
+      <c r="E269" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F269" s="0" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="270">
       <c r="A270" s="2">
         <v>269</v>
       </c>
-      <c r="B270" t="s">
+      <c r="B270" s="0" t="s">
         <v>826</v>
       </c>
-      <c r="C270" t="s">
+      <c r="C270" s="0" t="s">
         <v>827</v>
       </c>
-      <c r="D270" t="s">
+      <c r="D270" s="0" t="s">
         <v>828</v>
       </c>
-      <c r="E270" t="s">
-        <v>10</v>
-      </c>
-      <c r="F270" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="271" spans="1:6">
+      <c r="E270" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F270" s="0" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="271">
       <c r="A271" s="2">
         <v>270</v>
       </c>
-      <c r="B271" t="s">
+      <c r="B271" s="0" t="s">
         <v>829</v>
       </c>
-      <c r="C271" t="s">
+      <c r="C271" s="0" t="s">
         <v>830</v>
       </c>
-      <c r="D271" t="s">
+      <c r="D271" s="0" t="s">
         <v>831</v>
       </c>
-      <c r="E271" t="s">
-        <v>9</v>
-      </c>
-      <c r="F271" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="272" spans="1:6">
+      <c r="E271" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F271" s="0" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="272">
       <c r="A272" s="2">
         <v>271</v>
       </c>
-      <c r="B272" t="s">
+      <c r="B272" s="0" t="s">
         <v>832</v>
       </c>
-      <c r="C272" t="s">
+      <c r="C272" s="0" t="s">
         <v>833</v>
       </c>
-      <c r="D272" t="s">
+      <c r="D272" s="0" t="s">
         <v>834</v>
       </c>
-      <c r="E272" t="s">
+      <c r="E272" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="F272" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="273" spans="1:6">
+      <c r="F272" s="0" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="273">
       <c r="A273" s="2">
         <v>272</v>
       </c>
-      <c r="B273" t="s">
+      <c r="B273" s="0" t="s">
         <v>835</v>
       </c>
-      <c r="C273" t="s">
+      <c r="C273" s="0" t="s">
         <v>836</v>
       </c>
-      <c r="D273" t="s">
+      <c r="D273" s="0" t="s">
         <v>837</v>
       </c>
-      <c r="E273" t="s">
-        <v>10</v>
-      </c>
-      <c r="F273" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="274" spans="1:6">
+      <c r="E273" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F273" s="0" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="274">
       <c r="A274" s="2">
         <v>273</v>
       </c>
-      <c r="B274" t="s">
+      <c r="B274" s="0" t="s">
         <v>838</v>
       </c>
-      <c r="C274" t="s">
+      <c r="C274" s="0" t="s">
         <v>839</v>
       </c>
-      <c r="D274" t="s">
+      <c r="D274" s="0" t="s">
         <v>840</v>
       </c>
-      <c r="E274" t="s">
-        <v>10</v>
-      </c>
-      <c r="F274" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="275" spans="1:6">
+      <c r="E274" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F274" s="0" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="275">
       <c r="A275" s="2">
         <v>274</v>
       </c>
-      <c r="B275" t="s">
+      <c r="B275" s="0" t="s">
         <v>841</v>
       </c>
-      <c r="C275" t="s">
+      <c r="C275" s="0" t="s">
         <v>212</v>
       </c>
-      <c r="D275" t="s">
+      <c r="D275" s="0" t="s">
         <v>842</v>
       </c>
-      <c r="E275" t="s">
-        <v>10</v>
-      </c>
-      <c r="F275" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="276" spans="1:6">
+      <c r="E275" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F275" s="0" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="276">
       <c r="A276" s="2">
         <v>275</v>
       </c>
-      <c r="B276" t="s">
+      <c r="B276" s="0" t="s">
         <v>843</v>
       </c>
-      <c r="C276" t="s">
+      <c r="C276" s="0" t="s">
         <v>844</v>
       </c>
-      <c r="D276" t="s">
+      <c r="D276" s="0" t="s">
         <v>845</v>
       </c>
-      <c r="E276" t="s">
-        <v>9</v>
-      </c>
-      <c r="F276" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="277" spans="1:6">
+      <c r="E276" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F276" s="0" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="277">
       <c r="A277" s="2">
         <v>276</v>
       </c>
-      <c r="B277" t="s">
+      <c r="B277" s="0" t="s">
         <v>846</v>
       </c>
-      <c r="C277" t="s">
+      <c r="C277" s="0" t="s">
         <v>847</v>
       </c>
-      <c r="D277" t="s">
+      <c r="D277" s="0" t="s">
         <v>848</v>
       </c>
-      <c r="E277" t="s">
-        <v>10</v>
-      </c>
-      <c r="F277" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="278" spans="1:6">
+      <c r="E277" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F277" s="0" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="278">
       <c r="A278" s="2">
         <v>277</v>
       </c>
-      <c r="B278" t="s">
+      <c r="B278" s="0" t="s">
         <v>849</v>
       </c>
-      <c r="C278" t="s">
+      <c r="C278" s="0" t="s">
         <v>850</v>
       </c>
-      <c r="D278" t="s">
+      <c r="D278" s="0" t="s">
         <v>851</v>
       </c>
-      <c r="E278" t="s">
-        <v>10</v>
-      </c>
-      <c r="F278" t="s">
+      <c r="E278" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F278" s="0" t="s">
         <v>344</v>
       </c>
     </row>
@@ -8726,29 +8727,30 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Xcom2ClassManager/XComAbilityList.xlsx
+++ b/Xcom2ClassManager/XComAbilityList.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="852">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="1056">
   <si>
     <t>ID</t>
   </si>
@@ -2575,6 +2575,618 @@
   </si>
   <si>
     <t>Enemy damage is reduced when in cover and attacked through that cover. High cover reduces damage by &lt;Ability:W2S_HIGH_COVER_ARMOR_BONUS/&gt;. Low cover reduces damage by &lt;Ability:W2S_LOW_COVER_ARMOR_BONUS/&gt;. Also grants &lt;Ability:WILLTOSURVIVE_WILLBONUS/&gt; will.</t>
+  </si>
+  <si>
+    <t>F_Adrenaline</t>
+  </si>
+  <si>
+    <t>Adrenaline</t>
+  </si>
+  <si>
+    <t>Each time you score a kill, you gain &lt;Ability:ADRENALINE_SHIELD/&gt; Shield. Passive.</t>
+  </si>
+  <si>
+    <t>[WOTC] Extended Perk Pack</t>
+  </si>
+  <si>
+    <t>F_Ambush</t>
+  </si>
+  <si>
+    <t>Ambush</t>
+  </si>
+  <si>
+    <t>Take a reaction shot against any enemy that moves or attacks within a cone of fire. Can only be used while concealed.</t>
+  </si>
+  <si>
+    <t>F_AmmoConservation</t>
+  </si>
+  <si>
+    <t>Ammo Conservation</t>
+  </si>
+  <si>
+    <t>Activated ability that does not cost an action point. For the remainder of this turn, your ammo will be refunded after each shot you take. &lt;Ability:AMMOCONSERVATION_COOLDOWN/&gt; turn cooldown.</t>
+  </si>
+  <si>
+    <t>F_Avenger</t>
+  </si>
+  <si>
+    <t>Avenger</t>
+  </si>
+  <si>
+    <t>When an ally within &lt;Ability:AVENGER_RADIUS/&gt; tiles is shot at, you will automatically take a &lt;Ability:WeaponName/&gt; shot back at the shooter.</t>
+  </si>
+  <si>
+    <t>F_Blend</t>
+  </si>
+  <si>
+    <t>Blend</t>
+  </si>
+  <si>
+    <t>Immediately grants concealment that is automatically broken after &lt;Ability:BLEND_TURNS_CONCEALED&gt; turns.</t>
+  </si>
+  <si>
+    <t>F_BlindingFire</t>
+  </si>
+  <si>
+    <t>Blinding Fire</t>
+  </si>
+  <si>
+    <t>Fire at enemies in a cone. This attack is inaccurate, having a &lt;Ability:BLINDINGFIRE_SOURCE_AIM_PENALTY/&gt; aim penalty, but also reduces the aim of all targets by &lt;Ability:BLINDINGFIRE_TARGET_AIM_PENALTY/&gt;.</t>
+  </si>
+  <si>
+    <t>F_Bloodlet</t>
+  </si>
+  <si>
+    <t>Bloodlet</t>
+  </si>
+  <si>
+    <t>Standard shots from your primary weapon or a pistol now cause bleeding.</t>
+  </si>
+  <si>
+    <t>F_BolsteredWall</t>
+  </si>
+  <si>
+    <t>Bolstered Wall</t>
+  </si>
+  <si>
+    <t>While Shield Wall is in effect, gain +&lt;Ability:BOLSTEREDWALL_DODGE_BONUS/&gt; bonus Dodge. Passive.</t>
+  </si>
+  <si>
+    <t>F_Botnet</t>
+  </si>
+  <si>
+    <t>Botnet</t>
+  </si>
+  <si>
+    <t>While active, standard shots from all allies before next turn lower their target's hack defense by &lt;Ability:BOTNET_HACK_DEFENSE_PENALTY&gt;. &lt;Ability:BOTNET_COOLDOWN&gt; turn cooldown. Free action.</t>
+  </si>
+  <si>
+    <t>F_CallForFire</t>
+  </si>
+  <si>
+    <t>Call For Fire</t>
+  </si>
+  <si>
+    <t>Enter overwatch. All allies in a &lt;Ability:CALLFORFIRE_RADIUS/&gt; tile radius around you also enter overwatch.</t>
+  </si>
+  <si>
+    <t>F_ChipAway</t>
+  </si>
+  <si>
+    <t>Chip Away</t>
+  </si>
+  <si>
+    <t>Fire a shot with your primary weapon that shreds armor based on weapon tier. Uses &lt;Ability:SelfAmmoCost/&gt; ammo. &lt;Ability:CHIPAWAY_COOLDOWN/&gt; turn cooldown.</t>
+  </si>
+  <si>
+    <t>F_ColdBlooded</t>
+  </si>
+  <si>
+    <t>Cold Blooded</t>
+  </si>
+  <si>
+    <t>The first standard shot you take against an enemy suffering from bleeding, poison, burning, or acid burning does not cost an action.</t>
+  </si>
+  <si>
+    <t>F_CombatDrugs</t>
+  </si>
+  <si>
+    <t>A fast-acting stimulant in your smoke grenades grants +&lt;Ability:COMBATDRUGS_AIM&gt; Aim and +&lt;Ability:COMBATDRUGS_CRIT&gt; Critical Chance to units in the smoke cloud.</t>
+  </si>
+  <si>
+    <t>F_Compensation</t>
+  </si>
+  <si>
+    <t>Compensation</t>
+  </si>
+  <si>
+    <t>Firing your sniper rifle with two actions will refund one of those actions. Passive.</t>
+  </si>
+  <si>
+    <t>F_Concentration</t>
+  </si>
+  <si>
+    <t>Concentration</t>
+  </si>
+  <si>
+    <t>Your grazing shots are automatically upgraded to normal hits.</t>
+  </si>
+  <si>
+    <t>F_ControlledFire</t>
+  </si>
+  <si>
+    <t>Controlled Fire</t>
+  </si>
+  <si>
+    <t>Additional shots fired from Area Suppression no longer cost ammo.</t>
+  </si>
+  <si>
+    <t>F_Corpsman</t>
+  </si>
+  <si>
+    <t>Corpsman</t>
+  </si>
+  <si>
+    <t>Grants a free Medikit.</t>
+  </si>
+  <si>
+    <t>F_CoverArea</t>
+  </si>
+  <si>
+    <t>Cover Area</t>
+  </si>
+  <si>
+    <t>Allies within &lt;Ability:COVERAREA_RADIUS/&gt; tiles receive half damage from explosives. Passive.</t>
+  </si>
+  <si>
+    <t>F_Dedication</t>
+  </si>
+  <si>
+    <t>Dedication</t>
+  </si>
+  <si>
+    <t>Free action. Gain &lt;Ability:DEDICATION_MOBILITY/&gt; mobility and ignore reaction fire for the rest of the turn. &lt;Ability:DEDICATION_COOLDOWN/&gt; turn cooldown.</t>
+  </si>
+  <si>
+    <t>F_DisablingShot</t>
+  </si>
+  <si>
+    <t>Primary weapon shot that, if it hits, stuns the target for &lt;Ability:DISABLINGSHOT_STUN_ACTIONS/&gt; actions. Cannot critically hit. Uses &lt;Ability:DISABLINGSHOT_AMMO_COST/&gt; ammo. &lt;Ability:DISABLINGSHOT_COOLDOWN/&gt; turn cooldown.</t>
+  </si>
+  <si>
+    <t>F_FaultlessDefense</t>
+  </si>
+  <si>
+    <t>Faultless Defense</t>
+  </si>
+  <si>
+    <t>While Shield Wall is active, you cannot be critically hit.</t>
+  </si>
+  <si>
+    <t>F_FieldMedic</t>
+  </si>
+  <si>
+    <t>Equipped Medikits have &lt;Ability:FIELDMEDIC_BONUS_ITEMS/&gt; extra charges.</t>
+  </si>
+  <si>
+    <t>F_Finesse</t>
+  </si>
+  <si>
+    <t>Finesse</t>
+  </si>
+  <si>
+    <t>Your first melee attack each turn will have its actions refunded. Passive.</t>
+  </si>
+  <si>
+    <t>F_FireFirst</t>
+  </si>
+  <si>
+    <t>Fire First</t>
+  </si>
+  <si>
+    <t>When an enemy attempts to shoot at you, you will pre-emptively take a &lt;Ability:WeaponName/&gt; shot at them.</t>
+  </si>
+  <si>
+    <t>F_FirstStrike</t>
+  </si>
+  <si>
+    <t>Surprise</t>
+  </si>
+  <si>
+    <t>You deal +&lt;Ability:FIRSTSTRIKE_CONCEALED_DAMAGE_BONUS&gt; damage while concealed and +&lt;Ability:FIRSTSTRIKE_FLANKING_DAMAGE_BONUS&gt; damage while flanking your target. Passive.</t>
+  </si>
+  <si>
+    <t>F_Flatline</t>
+  </si>
+  <si>
+    <t>Flatline</t>
+  </si>
+  <si>
+    <t>Fire a shot with your primary weapon that deals +&lt;Ability:FLATLINE_DAMAGE_BONUS&gt; damage and applies Rupture. Uses &lt;Ability:SelfAmmoCost/&gt; ammo. &lt;Ability:FLATLINE_COOLDOWN/&gt; turn cooldown.</t>
+  </si>
+  <si>
+    <t>F_Havoc</t>
+  </si>
+  <si>
+    <t>Havoc</t>
+  </si>
+  <si>
+    <t>Your Suppression and Area Suppression abilities now deal guaranteed damage to the primary target.</t>
+  </si>
+  <si>
+    <t>F_Immunize</t>
+  </si>
+  <si>
+    <t>Immunize</t>
+  </si>
+  <si>
+    <t>Your GREMLIN flies to an ally, granting them immunity to damage until the beginning of next turn. &lt;Ability:IMMUNIZE_CHARGES/&gt; charge per mission.</t>
+  </si>
+  <si>
+    <t>F_Imposition</t>
+  </si>
+  <si>
+    <t>Imposition</t>
+  </si>
+  <si>
+    <t>Standard shots at an enemy with the unit's primary weapon modifies the target's aim by &lt;Ability:IMPOSITION_AIM_PENALTY/&gt; until next turn.</t>
+  </si>
+  <si>
+    <t>F_KillEmAll</t>
+  </si>
+  <si>
+    <t>Kill 'Em All</t>
+  </si>
+  <si>
+    <t>Take a shot at every enemy in a cone area. Requires line of sight in order to fire at a target. Costs &lt;Ability:KILLEMALL_AMMO_COST/&gt; ammo. &lt;Ability:KILLEMALL_COOLDOWN/&gt; turn cooldown.</t>
+  </si>
+  <si>
+    <t>F_LickYourWounds</t>
+  </si>
+  <si>
+    <t>Lick Your Wounds</t>
+  </si>
+  <si>
+    <t>Hunker Down restores &lt;Ability:LICKYOURWOUNDS_HEALAMOUNT/&gt; health when used, up to a maximum of &lt;Ability:LICKYOURWOUNDS_MAXHEALAMOUNT/&gt; per mission, and removes poison, burning, and acid burning. Passive.</t>
+  </si>
+  <si>
+    <t>F_LikeLightning</t>
+  </si>
+  <si>
+    <t>Like Lightning</t>
+  </si>
+  <si>
+    <t>When Run and Gun is activated, your Arc Thrower cooldown is immediately removed, and your next Arc Thrower shot this turn does not cost an action. Passive.</t>
+  </si>
+  <si>
+    <t>F_LockNLoad</t>
+  </si>
+  <si>
+    <t>Lock 'N Load</t>
+  </si>
+  <si>
+    <t>Kills with your primary weapon restore &lt;Ability:LOCKNLOAD_AMMO_TO_RELOAD/&gt; ammo. Passive.</t>
+  </si>
+  <si>
+    <t>F_Maim</t>
+  </si>
+  <si>
+    <t>Maim</t>
+  </si>
+  <si>
+    <t>Fire a shot with your primary weapon that immobilizes the target until the end of their next turn. Uses &lt;Ability:MAIM_AMMO_COST/&gt; ammo. &lt;Ability:MAIM_COOLDOWN/&gt; turn cooldown.</t>
+  </si>
+  <si>
+    <t>F_Momentum</t>
+  </si>
+  <si>
+    <t>Impulse</t>
+  </si>
+  <si>
+    <t>Confers &lt;Ability:MOMENTUM_AIM_BONUS/&gt; aim and &lt;Ability:MOMENTUM_CRIT_BONUS/&gt; critical chance if you have moved this turn.</t>
+  </si>
+  <si>
+    <t>F_OpenFire</t>
+  </si>
+  <si>
+    <t>Open Fire</t>
+  </si>
+  <si>
+    <t>Gain &lt;Ability:+ToHit/&gt; Aim and &lt;Ability:+Crit/&gt; Crit against targets that are at full health.</t>
+  </si>
+  <si>
+    <t>F_Opportunist</t>
+  </si>
+  <si>
+    <t>Opportunist</t>
+  </si>
+  <si>
+    <t>Reaction fire shots now ignore half of cover bonuses. Passive.</t>
+  </si>
+  <si>
+    <t>F_PierceTheVeil</t>
+  </si>
+  <si>
+    <t>Pierce the Veil</t>
+  </si>
+  <si>
+    <t>Activated ability that confers bonus aim, damage, and armor piercing to organic targets with your primary weapon, while increasing the cooldown of all of your other abilities.</t>
+  </si>
+  <si>
+    <t>F_Predator</t>
+  </si>
+  <si>
+    <t>Predator</t>
+  </si>
+  <si>
+    <t>Grants &lt;Ability:PREDATOR_AIM_BONUS/&gt; bonus aim and &lt;Ability:PREDATOR_CRIT_BONUS/&gt; bonus critical chance against enemies that are flanked or out of cover. Passive.</t>
+  </si>
+  <si>
+    <t>F_Preservation</t>
+  </si>
+  <si>
+    <t>Preservation</t>
+  </si>
+  <si>
+    <t>When your concealment is broken, gain +&lt;Ability:PRESERVATION_DEFENSE_BONUS&gt; defense for &lt;Ability:PRESERVATION_DURATION&gt; turns. Passive.</t>
+  </si>
+  <si>
+    <t>F_ProtectAndServe</t>
+  </si>
+  <si>
+    <t>Protect and Serve</t>
+  </si>
+  <si>
+    <t>Gain a non-movement action point after using Shield Wall.</t>
+  </si>
+  <si>
+    <t>F_QuickFeet</t>
+  </si>
+  <si>
+    <t>Quick Feet</t>
+  </si>
+  <si>
+    <t>Refunds one action point when you are revealed from concealment via your own action.</t>
+  </si>
+  <si>
+    <t>F_QuickPatch</t>
+  </si>
+  <si>
+    <t>Quick Patch</t>
+  </si>
+  <si>
+    <t>Using a Medikit does not cost an action. Passive.</t>
+  </si>
+  <si>
+    <t>F_Rally</t>
+  </si>
+  <si>
+    <t>Rally</t>
+  </si>
+  <si>
+    <t>Embolden the resolve of all allies within a &lt;Ability:RALLY_RADIUS/&gt; tile radius, granting yourself and them bonus Shield.</t>
+  </si>
+  <si>
+    <t>F_ReadyForAnything</t>
+  </si>
+  <si>
+    <t>F_Recharge</t>
+  </si>
+  <si>
+    <t>Recharge</t>
+  </si>
+  <si>
+    <t>Killing an enemy with your primary weapon reduces the cooldown of all abilities by &lt;Ability:RECHARGE_COOLDOWN_AMOUNT/&gt;.</t>
+  </si>
+  <si>
+    <t>F_RegenerativeMist</t>
+  </si>
+  <si>
+    <t>Regenerative Mist</t>
+  </si>
+  <si>
+    <t>Traces of restorative chemicals are added to your smoke grenades, healing all units in the cloud for &lt;Ability:REGENERATIVEMIST_HEAL_PER_TURN/&gt; health points at the beginning of each turn that they remain in the area of effect.</t>
+  </si>
+  <si>
+    <t>F_Renewal</t>
+  </si>
+  <si>
+    <t>Renewal</t>
+  </si>
+  <si>
+    <t>At the start of each turn, heals yourself and all allies in a radius on you.</t>
+  </si>
+  <si>
+    <t>F_Resupply</t>
+  </si>
+  <si>
+    <t>Resupply</t>
+  </si>
+  <si>
+    <t>Refill the primary weapon ammo of all allies. &lt;Ability:RESUPPLY_CHARGES/&gt; charges per mission.</t>
+  </si>
+  <si>
+    <t>F_Rush</t>
+  </si>
+  <si>
+    <t>Rush</t>
+  </si>
+  <si>
+    <t>Run towards an enemy and stab them with your &lt;Ability:SecondaryWeaponName/&gt;. Can only perform with single-action moves. Costs a single action and does not end the turn.</t>
+  </si>
+  <si>
+    <t>F_SaltInTheWound</t>
+  </si>
+  <si>
+    <t>Salt in the Wound</t>
+  </si>
+  <si>
+    <t>All attacks deal &lt;Ability:SALTINTHEWOUND_DAMAGE_BONUS/&gt; bonus damage to targets suffering from Poison, Burning, Acid, or Bleeding. This includes tick damage from those effects.</t>
+  </si>
+  <si>
+    <t>F_ShieldTrauma</t>
+  </si>
+  <si>
+    <t>Shield Trauma</t>
+  </si>
+  <si>
+    <t>Make a melee attack with your shield that leaves your opponent disoriented and stunned for 1 action.</t>
+  </si>
+  <si>
+    <t>F_ShootAnyone</t>
+  </si>
+  <si>
+    <t>F_ShoulderToLeanOn</t>
+  </si>
+  <si>
+    <t>Shoulder to Lean On</t>
+  </si>
+  <si>
+    <t>Allies within &lt;Ability:SHOULDERTOLEANON_RADIUS/&gt; tiles gain +&lt;Ability:SHOULDERTOLEANON_AIM_BONUS/&gt; bonus Aim. Passive.</t>
+  </si>
+  <si>
+    <t>F_SniperElite</t>
+  </si>
+  <si>
+    <t>Sniper Elite</t>
+  </si>
+  <si>
+    <t>Removes squadsight penalties. Passive.</t>
+  </si>
+  <si>
+    <t>F_StationaryThreat</t>
+  </si>
+  <si>
+    <t>Stationary Threat</t>
+  </si>
+  <si>
+    <t>Gain +&lt;Ability:STATIONARYTHREAT_DAMAGE_PER_TURN&gt; damage to your primary weapon attacks for each turn that you do not move. Passive.</t>
+  </si>
+  <si>
+    <t>F_Steadfast</t>
+  </si>
+  <si>
+    <t>Steadfast</t>
+  </si>
+  <si>
+    <t>Grants immunity to negative mental conditions including panic, mind control, stuns, and disorientation.</t>
+  </si>
+  <si>
+    <t>F_Stiletto</t>
+  </si>
+  <si>
+    <t>Stiletto</t>
+  </si>
+  <si>
+    <t>Shots fired with your &lt;Ability:WeaponName/&gt; pierce &lt;Ability:STILETTO_ARMOR_PIERCING/&gt; armor.</t>
+  </si>
+  <si>
+    <t>F_Stimulate</t>
+  </si>
+  <si>
+    <t>Stimulate</t>
+  </si>
+  <si>
+    <t>Once per turn, you may remove mental impairments from an adjacent ally.</t>
+  </si>
+  <si>
+    <t>F_SurgicalPrecision</t>
+  </si>
+  <si>
+    <t>Surgical Precision</t>
+  </si>
+  <si>
+    <t>Reduces aim penalties from cover by half. Does not apply to reaction fire.</t>
+  </si>
+  <si>
+    <t>F_Survivor</t>
+  </si>
+  <si>
+    <t>Survivor</t>
+  </si>
+  <si>
+    <t>Ensures the first killing blow in a mission will not lead to instant death. Also reduces this soldier's wound recovery time.</t>
+  </si>
+  <si>
+    <t>F_TheBiggerTheyAre</t>
+  </si>
+  <si>
+    <t>The Bigger They Are</t>
+  </si>
+  <si>
+    <t>Grants &lt;Ability:THEBIGGERTHEYARE_AIM_BONUS/&gt; bonus aim against targets that cannot take cover.</t>
+  </si>
+  <si>
+    <t>F_ThousandsToGo</t>
+  </si>
+  <si>
+    <t>Thousands To Go</t>
+  </si>
+  <si>
+    <t>Once per turn, after killing an enemy with your primary weapon, you may take an additional non-movement action. Passive.</t>
+  </si>
+  <si>
+    <t>F_TrenchWarfare</t>
+  </si>
+  <si>
+    <t>Trench Warfare</t>
+  </si>
+  <si>
+    <t>If you get at least one kill during your turn, automatically Hunker Down at the end of it.</t>
+  </si>
+  <si>
+    <t>F_Triage</t>
+  </si>
+  <si>
+    <t>Triage</t>
+  </si>
+  <si>
+    <t>Restores &lt;Ability:TRIAGE_HEAL_AMOUNT&gt; health to the user and surrounding allies. Removes Burning, Acid, and Poison. &lt;Ability:TRIAGE_CHARGES&gt; charge per mission.</t>
+  </si>
+  <si>
+    <t>F_Unload</t>
+  </si>
+  <si>
+    <t>Unload</t>
+  </si>
+  <si>
+    <t>Fire with your &lt;Ability:WeaponName/&gt; until out of ammo or the target is dead. Shots cannot critically hit and each shot deals less damage than a standard shot. &lt;Ability:UNLOAD_COOLDOWN/&gt; turn cooldown.</t>
+  </si>
+  <si>
+    <t>F_VitalStrike</t>
+  </si>
+  <si>
+    <t>Vital Strike</t>
+  </si>
+  <si>
+    <t>Fire a shot with your primary weapon that deals +&lt;Ability:VITALSTRIKE_DAMAGE_BONUS&gt; damage and applies Rupture. Uses &lt;Ability:SelfAmmoCost/&gt; ammo. &lt;Ability:VITALSTRIKE_COOLDOWN/&gt; turn cooldown.</t>
+  </si>
+  <si>
+    <t>F_WarningShot</t>
+  </si>
+  <si>
+    <t>Warning Shot</t>
+  </si>
+  <si>
+    <t>Fire your primary weapon just over the target's head, causing them to panic. This attack deals no damage. Uses &lt;Ability:SelfAmmoCost/&gt; ammo. &lt;Ability:WARNINGSHOT_CHARGES/&gt; use(s) per mission.</t>
+  </si>
+  <si>
+    <t>F_WatchThemRun</t>
+  </si>
+  <si>
+    <t>Watch Them Run</t>
+  </si>
+  <si>
+    <t>After throwing or launching a grenade, you will automatically enter overwatch. Passive.</t>
+  </si>
+  <si>
+    <t>F_WellProtected</t>
+  </si>
+  <si>
+    <t>Well Protected</t>
+  </si>
+  <si>
+    <t>Grants a vest only utility slot.</t>
   </si>
 </sst>
 </file>
@@ -2920,7 +3532,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H278"/>
+  <dimension ref="A1:H348"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
       <selection activeCell="E87" sqref="E87"/>
@@ -8714,6 +9326,1406 @@
       </c>
       <c r="F278" s="0" t="s">
         <v>344</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="2">
+        <v>278</v>
+      </c>
+      <c r="B279" s="0" t="s">
+        <v>852</v>
+      </c>
+      <c r="C279" s="0" t="s">
+        <v>853</v>
+      </c>
+      <c r="D279" s="0" t="s">
+        <v>854</v>
+      </c>
+      <c r="E279" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F279" s="0" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="2">
+        <v>279</v>
+      </c>
+      <c r="B280" s="0" t="s">
+        <v>856</v>
+      </c>
+      <c r="C280" s="0" t="s">
+        <v>857</v>
+      </c>
+      <c r="D280" s="0" t="s">
+        <v>858</v>
+      </c>
+      <c r="E280" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F280" s="0" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="2">
+        <v>280</v>
+      </c>
+      <c r="B281" s="0" t="s">
+        <v>859</v>
+      </c>
+      <c r="C281" s="0" t="s">
+        <v>860</v>
+      </c>
+      <c r="D281" s="0" t="s">
+        <v>861</v>
+      </c>
+      <c r="E281" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F281" s="0" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="2">
+        <v>281</v>
+      </c>
+      <c r="B282" s="0" t="s">
+        <v>862</v>
+      </c>
+      <c r="C282" s="0" t="s">
+        <v>863</v>
+      </c>
+      <c r="D282" s="0" t="s">
+        <v>864</v>
+      </c>
+      <c r="E282" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F282" s="0" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="2">
+        <v>282</v>
+      </c>
+      <c r="B283" s="0" t="s">
+        <v>865</v>
+      </c>
+      <c r="C283" s="0" t="s">
+        <v>866</v>
+      </c>
+      <c r="D283" s="0" t="s">
+        <v>867</v>
+      </c>
+      <c r="E283" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F283" s="0" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="2">
+        <v>283</v>
+      </c>
+      <c r="B284" s="0" t="s">
+        <v>868</v>
+      </c>
+      <c r="C284" s="0" t="s">
+        <v>869</v>
+      </c>
+      <c r="D284" s="0" t="s">
+        <v>870</v>
+      </c>
+      <c r="E284" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F284" s="0" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="2">
+        <v>284</v>
+      </c>
+      <c r="B285" s="0" t="s">
+        <v>871</v>
+      </c>
+      <c r="C285" s="0" t="s">
+        <v>872</v>
+      </c>
+      <c r="D285" s="0" t="s">
+        <v>873</v>
+      </c>
+      <c r="E285" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F285" s="0" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="2">
+        <v>285</v>
+      </c>
+      <c r="B286" s="0" t="s">
+        <v>874</v>
+      </c>
+      <c r="C286" s="0" t="s">
+        <v>875</v>
+      </c>
+      <c r="D286" s="0" t="s">
+        <v>876</v>
+      </c>
+      <c r="E286" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F286" s="0" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="2">
+        <v>286</v>
+      </c>
+      <c r="B287" s="0" t="s">
+        <v>877</v>
+      </c>
+      <c r="C287" s="0" t="s">
+        <v>878</v>
+      </c>
+      <c r="D287" s="0" t="s">
+        <v>879</v>
+      </c>
+      <c r="E287" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F287" s="0" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="2">
+        <v>287</v>
+      </c>
+      <c r="B288" s="0" t="s">
+        <v>880</v>
+      </c>
+      <c r="C288" s="0" t="s">
+        <v>881</v>
+      </c>
+      <c r="D288" s="0" t="s">
+        <v>882</v>
+      </c>
+      <c r="E288" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F288" s="0" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="2">
+        <v>288</v>
+      </c>
+      <c r="B289" s="0" t="s">
+        <v>883</v>
+      </c>
+      <c r="C289" s="0" t="s">
+        <v>884</v>
+      </c>
+      <c r="D289" s="0" t="s">
+        <v>885</v>
+      </c>
+      <c r="E289" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F289" s="0" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="2">
+        <v>289</v>
+      </c>
+      <c r="B290" s="0" t="s">
+        <v>886</v>
+      </c>
+      <c r="C290" s="0" t="s">
+        <v>887</v>
+      </c>
+      <c r="D290" s="0" t="s">
+        <v>888</v>
+      </c>
+      <c r="E290" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F290" s="0" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="2">
+        <v>290</v>
+      </c>
+      <c r="B291" s="0" t="s">
+        <v>889</v>
+      </c>
+      <c r="C291" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="D291" s="0" t="s">
+        <v>890</v>
+      </c>
+      <c r="E291" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F291" s="0" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="2">
+        <v>291</v>
+      </c>
+      <c r="B292" s="0" t="s">
+        <v>891</v>
+      </c>
+      <c r="C292" s="0" t="s">
+        <v>892</v>
+      </c>
+      <c r="D292" s="0" t="s">
+        <v>893</v>
+      </c>
+      <c r="E292" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F292" s="0" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="2">
+        <v>292</v>
+      </c>
+      <c r="B293" s="0" t="s">
+        <v>894</v>
+      </c>
+      <c r="C293" s="0" t="s">
+        <v>895</v>
+      </c>
+      <c r="D293" s="0" t="s">
+        <v>896</v>
+      </c>
+      <c r="E293" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F293" s="0" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="2">
+        <v>293</v>
+      </c>
+      <c r="B294" s="0" t="s">
+        <v>897</v>
+      </c>
+      <c r="C294" s="0" t="s">
+        <v>898</v>
+      </c>
+      <c r="D294" s="0" t="s">
+        <v>899</v>
+      </c>
+      <c r="E294" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F294" s="0" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="2">
+        <v>294</v>
+      </c>
+      <c r="B295" s="0" t="s">
+        <v>900</v>
+      </c>
+      <c r="C295" s="0" t="s">
+        <v>901</v>
+      </c>
+      <c r="D295" s="0" t="s">
+        <v>902</v>
+      </c>
+      <c r="E295" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F295" s="0" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="2">
+        <v>295</v>
+      </c>
+      <c r="B296" s="0" t="s">
+        <v>903</v>
+      </c>
+      <c r="C296" s="0" t="s">
+        <v>904</v>
+      </c>
+      <c r="D296" s="0" t="s">
+        <v>905</v>
+      </c>
+      <c r="E296" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F296" s="0" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="2">
+        <v>296</v>
+      </c>
+      <c r="B297" s="0" t="s">
+        <v>906</v>
+      </c>
+      <c r="C297" s="0" t="s">
+        <v>907</v>
+      </c>
+      <c r="D297" s="0" t="s">
+        <v>908</v>
+      </c>
+      <c r="E297" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F297" s="0" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="2">
+        <v>297</v>
+      </c>
+      <c r="B298" s="0" t="s">
+        <v>909</v>
+      </c>
+      <c r="C298" s="0" t="s">
+        <v>725</v>
+      </c>
+      <c r="D298" s="0" t="s">
+        <v>910</v>
+      </c>
+      <c r="E298" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F298" s="0" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="2">
+        <v>298</v>
+      </c>
+      <c r="B299" s="0" t="s">
+        <v>911</v>
+      </c>
+      <c r="C299" s="0" t="s">
+        <v>912</v>
+      </c>
+      <c r="D299" s="0" t="s">
+        <v>913</v>
+      </c>
+      <c r="E299" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F299" s="0" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="2">
+        <v>299</v>
+      </c>
+      <c r="B300" s="0" t="s">
+        <v>914</v>
+      </c>
+      <c r="C300" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="D300" s="0" t="s">
+        <v>915</v>
+      </c>
+      <c r="E300" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F300" s="0" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="2">
+        <v>300</v>
+      </c>
+      <c r="B301" s="0" t="s">
+        <v>916</v>
+      </c>
+      <c r="C301" s="0" t="s">
+        <v>917</v>
+      </c>
+      <c r="D301" s="0" t="s">
+        <v>918</v>
+      </c>
+      <c r="E301" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F301" s="0" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="2">
+        <v>301</v>
+      </c>
+      <c r="B302" s="0" t="s">
+        <v>919</v>
+      </c>
+      <c r="C302" s="0" t="s">
+        <v>920</v>
+      </c>
+      <c r="D302" s="0" t="s">
+        <v>921</v>
+      </c>
+      <c r="E302" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F302" s="0" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="2">
+        <v>302</v>
+      </c>
+      <c r="B303" s="0" t="s">
+        <v>922</v>
+      </c>
+      <c r="C303" s="0" t="s">
+        <v>923</v>
+      </c>
+      <c r="D303" s="0" t="s">
+        <v>924</v>
+      </c>
+      <c r="E303" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F303" s="0" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="2">
+        <v>303</v>
+      </c>
+      <c r="B304" s="0" t="s">
+        <v>925</v>
+      </c>
+      <c r="C304" s="0" t="s">
+        <v>926</v>
+      </c>
+      <c r="D304" s="0" t="s">
+        <v>927</v>
+      </c>
+      <c r="E304" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F304" s="0" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="2">
+        <v>304</v>
+      </c>
+      <c r="B305" s="0" t="s">
+        <v>928</v>
+      </c>
+      <c r="C305" s="0" t="s">
+        <v>929</v>
+      </c>
+      <c r="D305" s="0" t="s">
+        <v>930</v>
+      </c>
+      <c r="E305" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F305" s="0" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="2">
+        <v>305</v>
+      </c>
+      <c r="B306" s="0" t="s">
+        <v>931</v>
+      </c>
+      <c r="C306" s="0" t="s">
+        <v>932</v>
+      </c>
+      <c r="D306" s="0" t="s">
+        <v>933</v>
+      </c>
+      <c r="E306" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F306" s="0" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="2">
+        <v>306</v>
+      </c>
+      <c r="B307" s="0" t="s">
+        <v>934</v>
+      </c>
+      <c r="C307" s="0" t="s">
+        <v>935</v>
+      </c>
+      <c r="D307" s="0" t="s">
+        <v>936</v>
+      </c>
+      <c r="E307" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F307" s="0" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="2">
+        <v>307</v>
+      </c>
+      <c r="B308" s="0" t="s">
+        <v>937</v>
+      </c>
+      <c r="C308" s="0" t="s">
+        <v>938</v>
+      </c>
+      <c r="D308" s="0" t="s">
+        <v>939</v>
+      </c>
+      <c r="E308" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F308" s="0" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="2">
+        <v>308</v>
+      </c>
+      <c r="B309" s="0" t="s">
+        <v>940</v>
+      </c>
+      <c r="C309" s="0" t="s">
+        <v>941</v>
+      </c>
+      <c r="D309" s="0" t="s">
+        <v>942</v>
+      </c>
+      <c r="E309" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F309" s="0" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="2">
+        <v>309</v>
+      </c>
+      <c r="B310" s="0" t="s">
+        <v>943</v>
+      </c>
+      <c r="C310" s="0" t="s">
+        <v>944</v>
+      </c>
+      <c r="D310" s="0" t="s">
+        <v>945</v>
+      </c>
+      <c r="E310" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F310" s="0" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="2">
+        <v>310</v>
+      </c>
+      <c r="B311" s="0" t="s">
+        <v>946</v>
+      </c>
+      <c r="C311" s="0" t="s">
+        <v>947</v>
+      </c>
+      <c r="D311" s="0" t="s">
+        <v>948</v>
+      </c>
+      <c r="E311" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F311" s="0" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="2">
+        <v>311</v>
+      </c>
+      <c r="B312" s="0" t="s">
+        <v>949</v>
+      </c>
+      <c r="C312" s="0" t="s">
+        <v>950</v>
+      </c>
+      <c r="D312" s="0" t="s">
+        <v>951</v>
+      </c>
+      <c r="E312" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F312" s="0" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="2">
+        <v>312</v>
+      </c>
+      <c r="B313" s="0" t="s">
+        <v>952</v>
+      </c>
+      <c r="C313" s="0" t="s">
+        <v>953</v>
+      </c>
+      <c r="D313" s="0" t="s">
+        <v>954</v>
+      </c>
+      <c r="E313" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F313" s="0" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="2">
+        <v>313</v>
+      </c>
+      <c r="B314" s="0" t="s">
+        <v>955</v>
+      </c>
+      <c r="C314" s="0" t="s">
+        <v>956</v>
+      </c>
+      <c r="D314" s="0" t="s">
+        <v>957</v>
+      </c>
+      <c r="E314" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F314" s="0" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="2">
+        <v>314</v>
+      </c>
+      <c r="B315" s="0" t="s">
+        <v>958</v>
+      </c>
+      <c r="C315" s="0" t="s">
+        <v>959</v>
+      </c>
+      <c r="D315" s="0" t="s">
+        <v>960</v>
+      </c>
+      <c r="E315" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F315" s="0" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="2">
+        <v>315</v>
+      </c>
+      <c r="B316" s="0" t="s">
+        <v>961</v>
+      </c>
+      <c r="C316" s="0" t="s">
+        <v>962</v>
+      </c>
+      <c r="D316" s="0" t="s">
+        <v>963</v>
+      </c>
+      <c r="E316" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F316" s="0" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="2">
+        <v>316</v>
+      </c>
+      <c r="B317" s="0" t="s">
+        <v>964</v>
+      </c>
+      <c r="C317" s="0" t="s">
+        <v>965</v>
+      </c>
+      <c r="D317" s="0" t="s">
+        <v>966</v>
+      </c>
+      <c r="E317" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F317" s="0" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="2">
+        <v>317</v>
+      </c>
+      <c r="B318" s="0" t="s">
+        <v>967</v>
+      </c>
+      <c r="C318" s="0" t="s">
+        <v>968</v>
+      </c>
+      <c r="D318" s="0" t="s">
+        <v>969</v>
+      </c>
+      <c r="E318" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F318" s="0" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="2">
+        <v>318</v>
+      </c>
+      <c r="B319" s="0" t="s">
+        <v>970</v>
+      </c>
+      <c r="C319" s="0" t="s">
+        <v>971</v>
+      </c>
+      <c r="D319" s="0" t="s">
+        <v>972</v>
+      </c>
+      <c r="E319" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F319" s="0" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="2">
+        <v>319</v>
+      </c>
+      <c r="B320" s="0" t="s">
+        <v>973</v>
+      </c>
+      <c r="C320" s="0" t="s">
+        <v>974</v>
+      </c>
+      <c r="D320" s="0" t="s">
+        <v>975</v>
+      </c>
+      <c r="E320" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F320" s="0" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="2">
+        <v>320</v>
+      </c>
+      <c r="B321" s="0" t="s">
+        <v>976</v>
+      </c>
+      <c r="C321" s="0" t="s">
+        <v>977</v>
+      </c>
+      <c r="D321" s="0" t="s">
+        <v>978</v>
+      </c>
+      <c r="E321" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F321" s="0" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="2">
+        <v>321</v>
+      </c>
+      <c r="B322" s="0" t="s">
+        <v>979</v>
+      </c>
+      <c r="C322" s="0" t="s">
+        <v>980</v>
+      </c>
+      <c r="D322" s="0" t="s">
+        <v>981</v>
+      </c>
+      <c r="E322" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F322" s="0" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="2">
+        <v>322</v>
+      </c>
+      <c r="B323" s="0" t="s">
+        <v>982</v>
+      </c>
+      <c r="C323" s="0" t="s">
+        <v>767</v>
+      </c>
+      <c r="D323" s="0" t="s">
+        <v>768</v>
+      </c>
+      <c r="E323" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F323" s="0" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="2">
+        <v>323</v>
+      </c>
+      <c r="B324" s="0" t="s">
+        <v>983</v>
+      </c>
+      <c r="C324" s="0" t="s">
+        <v>984</v>
+      </c>
+      <c r="D324" s="0" t="s">
+        <v>985</v>
+      </c>
+      <c r="E324" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F324" s="0" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="2">
+        <v>324</v>
+      </c>
+      <c r="B325" s="0" t="s">
+        <v>986</v>
+      </c>
+      <c r="C325" s="0" t="s">
+        <v>987</v>
+      </c>
+      <c r="D325" s="0" t="s">
+        <v>988</v>
+      </c>
+      <c r="E325" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F325" s="0" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="2">
+        <v>325</v>
+      </c>
+      <c r="B326" s="0" t="s">
+        <v>989</v>
+      </c>
+      <c r="C326" s="0" t="s">
+        <v>990</v>
+      </c>
+      <c r="D326" s="0" t="s">
+        <v>991</v>
+      </c>
+      <c r="E326" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F326" s="0" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="2">
+        <v>326</v>
+      </c>
+      <c r="B327" s="0" t="s">
+        <v>992</v>
+      </c>
+      <c r="C327" s="0" t="s">
+        <v>993</v>
+      </c>
+      <c r="D327" s="0" t="s">
+        <v>994</v>
+      </c>
+      <c r="E327" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F327" s="0" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="2">
+        <v>327</v>
+      </c>
+      <c r="B328" s="0" t="s">
+        <v>995</v>
+      </c>
+      <c r="C328" s="0" t="s">
+        <v>996</v>
+      </c>
+      <c r="D328" s="0" t="s">
+        <v>997</v>
+      </c>
+      <c r="E328" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F328" s="0" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="2">
+        <v>328</v>
+      </c>
+      <c r="B329" s="0" t="s">
+        <v>998</v>
+      </c>
+      <c r="C329" s="0" t="s">
+        <v>999</v>
+      </c>
+      <c r="D329" s="0" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E329" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F329" s="0" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="2">
+        <v>329</v>
+      </c>
+      <c r="B330" s="0" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C330" s="0" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D330" s="0" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E330" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F330" s="0" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="2">
+        <v>330</v>
+      </c>
+      <c r="B331" s="0" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C331" s="0" t="s">
+        <v>833</v>
+      </c>
+      <c r="D331" s="0" t="s">
+        <v>833</v>
+      </c>
+      <c r="E331" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F331" s="0" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="2">
+        <v>331</v>
+      </c>
+      <c r="B332" s="0" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C332" s="0" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D332" s="0" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E332" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F332" s="0" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="2">
+        <v>332</v>
+      </c>
+      <c r="B333" s="0" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C333" s="0" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D333" s="0" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E333" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F333" s="0" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="2">
+        <v>333</v>
+      </c>
+      <c r="B334" s="0" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C334" s="0" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D334" s="0" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E334" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F334" s="0" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="2">
+        <v>334</v>
+      </c>
+      <c r="B335" s="0" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C335" s="0" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D335" s="0" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E335" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F335" s="0" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="2">
+        <v>335</v>
+      </c>
+      <c r="B336" s="0" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C336" s="0" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D336" s="0" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E336" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F336" s="0" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="2">
+        <v>336</v>
+      </c>
+      <c r="B337" s="0" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C337" s="0" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D337" s="0" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E337" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F337" s="0" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="2">
+        <v>337</v>
+      </c>
+      <c r="B338" s="0" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C338" s="0" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D338" s="0" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E338" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F338" s="0" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="2">
+        <v>338</v>
+      </c>
+      <c r="B339" s="0" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C339" s="0" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D339" s="0" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E339" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F339" s="0" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="2">
+        <v>339</v>
+      </c>
+      <c r="B340" s="0" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C340" s="0" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D340" s="0" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E340" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F340" s="0" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="2">
+        <v>340</v>
+      </c>
+      <c r="B341" s="0" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C341" s="0" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D341" s="0" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E341" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F341" s="0" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="2">
+        <v>341</v>
+      </c>
+      <c r="B342" s="0" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C342" s="0" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D342" s="0" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E342" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F342" s="0" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="2">
+        <v>342</v>
+      </c>
+      <c r="B343" s="0" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C343" s="0" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D343" s="0" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E343" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F343" s="0" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="2">
+        <v>343</v>
+      </c>
+      <c r="B344" s="0" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C344" s="0" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D344" s="0" t="s">
+        <v>1043</v>
+      </c>
+      <c r="E344" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F344" s="0" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="2">
+        <v>344</v>
+      </c>
+      <c r="B345" s="0" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C345" s="0" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D345" s="0" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E345" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F345" s="0" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="2">
+        <v>345</v>
+      </c>
+      <c r="B346" s="0" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C346" s="0" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D346" s="0" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E346" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F346" s="0" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="2">
+        <v>346</v>
+      </c>
+      <c r="B347" s="0" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C347" s="0" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D347" s="0" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E347" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F347" s="0" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="2">
+        <v>347</v>
+      </c>
+      <c r="B348" s="0" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C348" s="0" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D348" s="0" t="s">
+        <v>1055</v>
+      </c>
+      <c r="E348" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F348" s="0" t="s">
+        <v>855</v>
       </c>
     </row>
   </sheetData>
